--- a/mw/yanolja_review.xlsx
+++ b/mw/yanolja_review.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="해운대 씨클라우드 호텔 앤 레지던스" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="위더스" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,9 +441,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30층 오션뷰였는데 앉아있기만 해도 힐링 그 자체였습니다.
-1층까지 환승해서 가야되는 불편함 말고는 대만족입니다!
-출장으로 내려왔지만 다시오고싶습니다.</t>
+          <t>야놀자에 올라온 숙소 사진보다 실물이 훨씬 예쁘네요
+가격도 좋고 광안리 해변이 숙소 20초 거리에다가
+주변에 핫플도 엄청 많아서 너무 좋았어요 ㅎㅎㅎ
+사진도 엄청 잘 나오고
+아침에 커튼 쳤을때 바다가 반짝 거려서 너무 예뻤어요
+부산 여행오면 숙소는 꼭 여기로 올 것 같아요
+부모님 부산 여행 오시면 여기로 잡아드려야겠어요~
+여러분 셀카봉 삼각대 꼭 챙겨오셔서 사진 많이 건지세요 ㅎㅎ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -453,18 +458,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024.04.12</t>
+          <t>2023.03.12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>뷰가 정말 좋아요!
-바로앞에 해운대바다고 1분거리에 해운대야시장
-위치적으로도 뷰도 최곱니다ㅋㅋㅋ
-그리고 직원분들도 너무 친절하세요!!!
-아빠모시고왔는데 만족해하셔서 기분이 좋네요~후기가 많이 갈려서 걱정했는데 청결했어요!</t>
+          <t>사장님 너무 친절하시고 , 동생 혼자 보내는 여행이었는데 너무 잘 챙겨 주셔서 제가 너무 마음이 놓이고 감동했습니다. 다시 한번 감사드리고
+저 또한 방문 꼭 하겠습니다. 
+첫 휴가, 잊지 못할 추억 만들어 주셔서 너무 감사합니다. 번창 하시고 좋은 일만 가득하세요!! 
+제가 한 달 전에 예약 해서 요청사항 말씀 드리고 , 오히려 너무 사장님 괴롭힌것같은데 .. 제동생 도착하는 순간 부터 가는 날까지 수건 하나 부족하지 않고, 넉넉하게 , 정말 따뜻하게 잘 보냈다고 합니다.
+그리고, 고데기며 드라이기 배려너무감사합니다.
+부산이 좋은 추억으로 남기게되어 다행입니다.
+너무감사합니다.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -474,50 +481,48 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024.05.05</t>
+          <t>2023.05.04</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>엘리베이터 환승이 불편했지만
-객실내 깔끔하게 정리가 잘 되어 있고
-전망이 나쁘지 않아 좋았어요</t>
+          <t>최고입니다 올만에 왓는데 역시뷰가 최고네요 연박으로 제대로 힐링하고 왔네요</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3일 전</t>
+          <t>2023.05.15</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>엄청 깨끄ㅅ하고 정갈함 단지 넓은만큼 욕실 원풀 설치 욕조가 없어 아쉽고 샤워부스도 좁아 아쉬웠다 바다 뷰는 낯,밤 모두 아름다웠다</t>
+          <t>20층 프론트에 가면 세 업체가 같이 있는데 오른쪽이 위더스오션입니다!! 아무생각없이 들어갔다가 첨에 다른 업체쪽으로 가서 당황했네요ㅎㅅㅎ광안리 바로앞 가격대 합리적인 숙소입니다</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6일 전</t>
+          <t>3일 전</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>직원들이 굉장히 친절해서 급한 일로 업무처리 가능하게 도와주셔서 감사했습니다 침구가 좋아서 무엇보다 가족들이 모두 잠을 잘 잤습니다 건물 내 호텔이 3개라 정확히 확인하고 이용할 필요는 있습니다(엘리베이터환승 등) 6층에 프런트 있고 그 중에도 왼쪽이었습니다 모르고 지난 번엔 건물 내 다른 호텔 이용했었는데 이번에 이용한 해운대 씨클라우드 호텔 앤 레지던스가 더 좋았습니다 같은 건물이라도 어디서 어떻게 관리하는지에 따라 다르긴 하네요 잘 쉬고 갑니다</t>
+          <t>드라이기 고데기는 있으나 칫솔 치약 등 생필품은 챙기셔야 돼요!! 근데 정말 뷰가 기깔나게 멋져서 행복한 숙박이었습니다</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -527,22 +532,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024.09.21</t>
+          <t>3일 전</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>아빠모시고가는 여행이라 오션뷰와 접근성보고 예약했어요! 총3박4일 숙박했고 2604호 였어요~
-안좋은후기도 많았지만 제가 배정받은호수는 사진에 보이는 뷰 그대로였어요ㅎㅎ
-뷰도 최고고 깨끗했어요^^
-화장실도 좀 좁지만 있을건 다 있고 욕실슬리퍼도있고 괜찮았어요
-드라이기는 좀 약해서 제가 가져간 드라이기 사용했어요!
-다음에 부산가면 또 숙박하려구요~
-직원분도 엄청 친절해요^^
-제가 짐캐리로 짐운송서비스 신청했었는데 숙소에 도착했다고 직접 전화도 주셨어요ㅎㅎ
-매일 청소도 해주셨구 여튼 아빠도 만족하셨어요!</t>
+          <t>오션뷰 너무 이쁘고 욕조도 정말 잘 이용했어요!!
+최고!
+다음 여행에도 무조건 여기 숙소 이용할거에요 ❤️❤️</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -552,15 +551,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024.05.07</t>
+          <t>3일 전</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>처음으로 평균나이 35세 4삼매가 부산으로 여행을 갔어요
-무조건 쉬는 여행으로 바람쐬러가서 맛있는거 먹고오자해서 먹거리 많은 해운대 바로 앞 숙소를 잡았는데요..세상에.. 너무 좋았어요.. 룸에 들어가자마자 눈앞에 바다가 쫙~~펼쳐져있는데 다음에 또오자며 감탄했어요~좋은 추억이 되게 해주셔서 감사합니다♡</t>
+          <t>깔끔하고 전망이 좋아요. 내부에 키오스크가 있어서 음식을 시켜먹을수있다는게 특히 좋았네요. 가격도 합리적이고 맛도 괜찮아요:) 위치도 괜찮고 옆에 전시장도 새로 생겨서 볼거리도 있네요. 다음에도 예약하고싶어요.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -570,15 +568,28 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024.10.04</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>숙박한날 비가 엄청 왔어요. 비가 건물 때리는
-소리가 엄청나더라구요. 하지만 숙소안에서 비 오는 바다 감상하기엔 좋았어요. 거실에 베드 하나, 방에 킹베드 있었고 동창 6명이서 좋은 시간 보냈어요. 냉장고 커서 음료도 많이 쟁여놓고, 괜찮았어요. 청결엔 문제없었고 수건이랑 가운은 인당이 아니었어요. 근처에 음식점이랑 폄의점 있어서 비와도 큰 불편없이 잘 해결했습니다.</t>
+          <t>어른 둘 31갤 3갤 아가 데리고 
+숙박했는데 침구 하나 추가하고 
+잠만 자기에 나쁘지 않았어요!
+바다$ 바로 앞이고 밑에 버스킹 하는것도 보이고
+숙소 안에 키오스크 기계 있어서 안주 시켜먹기도
+편하고 안에 정수기랑 전자렌지도 있고 해서
+애기 데리고도 불편하지 않았어요!
+다만 기계식 주차비용 발생하고 짐빼고 챙겨서 
+20층까지 가서 체크인하고 또 방으로 내려가고
+오피스텔 건물이라 엘베도 오래 기다려야해서
+그것만 좀 힘들었어요ㅜㅜ 
+저희가 애가 둘이라 짐이 많아서 더 힘들었던것
+같아요!
+연인이나 친구들끼리 놀러간다면 불편한건 전혀
+없을것 같아요!!</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -588,70 +599,71 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024.07.12</t>
+          <t>2024.10.22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>대체적으로 만족합니다 
-다만 시설이 노후된느낌
-침대 매트리스가  좋치못함
-가성비로써 이해됨
-룸2개 예약했는데
-한쪽방은 방바닥이 따뜻한 느낌인데
-아들과 자는 방은  그런가 하고1박했는데
-딸과 아이엄마의 방은 따뜻한 방인데 
-남자방은 냉방이라고ㅎㅎ;;
-프런트에 전화하니 
-바로 와주셔서 확인하고  온풍기 가져다 주심.</t>
+          <t>후기원래좋게안쓰는데 여기는 정말 괜찮았습니다.
+일단 첫번째 확터지는 바다와 교가의 환상적인전망 그리고
+마이에미의해변같은 바다뷰와 낭만적인분위기 주로이른아침은 노인들이 바닷가해변을점령하고 점심이후부터는 청년들이 도시를 여기저기맴돕니다.세탁기가있지만 하루숙박에쓸일은거의없고 냉장고도 가정집냉장고같은 큰게있는데 쓸일은거의없음 포카리스웨트딸랑하나넣음 정수기도있고 비데도좋더군요 화장지도 일반숙박업소에서쓰는것보단 재질이좋은듯 다만 아쉬운건 테라스와숙소중간에 문턱이높아 약간안전상의문제는 있는듯 그리고20층에서 방문등록해야되니 엘베타고 올라갔다다시내려오는 번거로움 그럼에도 불구하고 주변에 다양한먹거리와편의시설있고 비용도저렴하고 경관까지 침대도 생각보다 넓었음</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024.01.25</t>
+          <t>2024.10.02</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>해운대 해수욕장이랑도 가깝고 좋았는데 엘베가 한번 환승해야해서 조금 불편하긴 했네요 ㅠㅠ
-그리고 드라이기도 화장실에 있어서 머리말리기가 좀 불편했어요 ㅠㅠ 화장대쪽이나 밖에 있었으면 더 좋았을 거 같아요! 빗도 얇은 꼬리빗(?)처럼 생긴거 하나만 있어서 머리 긴 저는 좀 힘들었네요 ㅋㅋ ㅠㅠ 롤빗이나 나무빗 같은거 있을줄 알았는데 ㅠㅠ
-그래도 위치는 해수욕장 바로 앞이고 뷰도 바다가 정말 조금 보이긴 했는데 나름 괜찮았습니다</t>
+          <t>딸아이와 여행중입니다.
+해운대2박.
+광안리2박.
+이제 서면2박하러 출발합니다.
+야경이 예술입니다.
+그 이유만으로도 우린 내년에 또 오기로 했습니다.
+침대 엄청 폭닥해서 파도 소리 자장가들으며,꿀잠 잤슴.
+화장실은 작지만,그다지 불편은 못 느꼈고.
+수건은 다음날4장 문고리에 걸려놓음.
+냉장고 커서 편의점에서 얼음컵 사서 쟁여놓았고^^
+정수기 냉온수 잘 나왔고.
+인덕션있고,주방기구 깨끗했지만 사용하지 않았슴.
+엘베 2대.
+체크인 시간 4시는 우왕.
+엘베 탈 생각 하지말기를 ㅠ
+꼭 인포있는 20층 찍고 내려옴.
+우린 17층.
+바닥 타일이라 비염있는 우린 너무 좋았고.
+실내화 없는게 아쉽아쉽.
+체크아웃 직전, 
+마지막 사진.
+벌써 또 가고 싶네요.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024.02.02</t>
+          <t>2024.02.20</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>장점 : 차량탑승없이 해운대 곳곳을 즐길수 있다.
-          12층 이상 올라가면 뷰가  좋다.
-단점 : 시설 노후는 어쩔수 없어도 깨끗하지 않음
-           하나있는 커피포트 정말 더러웠음
-           냉난방이 중앙냉난방이라 불편함
-           엘리베이터 갈아타야해서 불편함
-           주차장 2.2m라고 써 있어 예약했는데
-           프론트에서 안내는 2m라고 해서
-            추가 주차비 나옴
-            카니발리무진 못들어가나요?
-            2.045m</t>
+          <t>기본적으로 내부가 깨끗해서 좋았어요. 원래 오피스텔이었던 건물을 숙소로 바꾼 느낌이에요. 하프오션뷰라고 해서 살짝 걱정했는데 베란다에 나가보니까 광안대교가 잘 보이는 뷰였어요! 어메니티가 아예 없어서 다들 세면도구 잘 챙겨오셔야 될 것 같아요. 수건도 2인 기준 4장 있는데 손 닦는 수건, 발 닦는 수건, 개인수건 이렇게 하니까 다 써버리게 되더라구요. 부족하다고 생각하시는 분들께선 따로 수건 가져오셔야 될 것 같아요. 그 외로 정수기, 전자레인지 구비되어있어서 편의점 음식 먹기 딱 좋았어요. 욕조는 야외베란다에 있어서 개인수영복이나 물놀이용 옷 가져오셔야 돼요. 배쓰밤, 버블바, 거품목욕 등등 다 안 되시니까 그냥 물놀이하러 오신다고 생각하시구 오셔야 될 것 같아요. 그래도 저흰 잠 편하게 자고 둘이서 있을 공간이 필요했어서 딱 좋았네요. 잘 머물다 갑니다~</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -661,15 +673,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2023.12.23</t>
+          <t>2024.10.07</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>가족여행으로 갔는데 해운대 바로 앞이라 편했고 뒤에는 전통시장이 있어서 저녁에 가기 좋았어요
-전망도 좋고 침구도 폭신하니 좋았어요</t>
+          <t>숙소 뷰가 정말 대박이었습니다. 낮에도 광안대교가 잘 보여서 아름다웠고 밤에는 불빛이 반짝이는 광안대교가 정면으로 보여서 좋았어요! 사진은 숙소 테라스에서 찍은 카메라 사진과 휴대폰 사진이에요.
+욕실이 좁은 편이지만 샤워부스가 따로 되어 있어서 좋았고 아쉬운 점은 화장지가 다 젖었다가 말린 것같은 화장지로 비치가 되어 있어서 찝찝하고 아쉬웠습니다. 새 화장지라 잘 쓰긴 했지만요!
+스마트 티브로 넷플릭스와 디즈니플러스를 볼 수 있어서 광안리에서 놀고 난 다음 숙소에서도 영화보고 놀 수 있어서 좋았어요!
+어매니티가 없기 때문에 별도로 챙겨가거나 체크인하는 20층에서 꼭 사시길 바래요(자판기에 있어요)
+주차타워 이용료는 안내는 
+만천원 되어 있는데 만원 내고 이용할 수 있었습니다.
+오션뷰 숙소인데다가 광안대교가 정면으로 보여서 좋았고 도보로 광안리해수욕장까지 15초는 진짜였어요 ㅎㅎ
+위치랑 숙소 컨디션, 뷰 그리고 가격까지
+상당히 마음에 드는 숙소였습니다</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -679,33 +698,38 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024.10.07</t>
+          <t>2024.08.05</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>부산을 10여년만에 같다왔어요. 오랜만에 가는거라 엄청기대하고갔고 여러숙소를찾다가  씨클라우드로가게됬는데 너무너무좋았고 바다도바로보여서 경치도좋았어요. 주변에 먹거리등 다양하게 많아서좋았습니다. 다만 환승이쪼금 번거러웠지만 그거빼고 나머지는 아주좋았어요. 다음에도 방문하게되면 여기로예약하고올생각입니다^^ 잘쉬었다갑니다!</t>
+          <t>광안리로 짧게 1박 2일 여행 다녀왔어요. 바깥에서 주로 돌아다닐 예정이었어서 가성비를 제일 1순위로 봤었구요. 위더스오션이 해수욕장 바로 앞 숙소인데도 저렴하고 후기가 많아서 묵었는데 만족했습니다 :)
+저는 하프 오션뷰로 예약했는데 바다 전망 중요하시다면 풀 오션뷰로 하셔도 후회 없으실 거 같아요. 어매니티는 제공되지 않아서 다 챙겨가셔야 하구요.(샴푸, 바디워시 포함) 준비 못하셨어도 프런트나 바로 앞 편의점에서 구매 가능합니다!
+그리고 홈배달 서비스도 좋았어요~ 5천원 이상만 구매하면 무료로 방까지 배달해주고 라인업도 다양해서 밤에 방에서 야식 시켜먹기 좋겠더라구요! 하프 오션뷰에 딸린 스파 욕조는 양옆 객실이나 맞은편 건물에서 너무 잘 보이는 구조라 관람용으로만 뒀어요. 그 외에 정수기 있는거랑 냉장고 넓은점은 마음에 들었습니다! 가성비로 추천해요</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024.06.05</t>
+          <t>2024.06.29</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>해운대 갈시 필히 여기만이용삽니다
-가격대비 시설 최고..
-해운대 바다 바로 앞이라 이동도 편하고 주변식당도 가기 편해 불편 없습니다.</t>
+          <t>뷰맛집이에요! 1일만 묵으려 했는데 입실하자마자 생각보다 위치랑 뷰가 너무 좋아서 1일 추가했습니다.
+바닷가 바로 앞이여서 테라스문 열어놓고 멍때리기 너무  좋더라구요! ㅎㅎ 가성비 최고에요
+난방도 잘되고 물수압도 쎄서 좋아요 ㅎㅎ 
+간혹 리뷰에 세면도구 없다고 불평하시는 글 있던데 뭐 저희는 안내사항에 세면도구 없는건 원래 알았으니 전혀 문제 안됐고요! 오히려 객실 내 정수기가 있어서 물걱정없이 마셔서 편했습니다 ㅎㅎ
+대신 잘때보니 베개 아랫부분이 곰팡이가 좀 쓸어있더라구요 샤워실 개수대에서도 치우지못한 머리카락들이 뭉쳐져 있었고요 ㅠㅠ 청결도만 조금 개선되면 좋을 것 같습니다.
+나중에 광안리 오게되도 재방문 할것 같아요!</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -715,15 +739,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024.09.10</t>
+          <t>2024.03.29</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>부산 처음놀러갔는데 숙소 가격도 저렴하고 뷰가 일단 미쳤어요 해운대바다랑 시그니엘쪽 뷰가 한번에 들어오면서 아주 좋았어요
-딱한가지 단점이 저는 몸에 열이많은데 창문이 너무크다보니 햇빛을 직격으로 때려맞아서 겨울이지만 좀 더웠어요ㅠㅠ 그거말고는 아주 훌륭합니다!!</t>
+          <t>여친이 프로포즈 해준 특별한 날 전망 좋고 강풍이라 드론쇼를 못봤지만 리뷰에서 청결이 아쉽다는데 저희방은 깨끗했고 다만 타워식이라 주차가 오래 걸리고 엘리베이터 지옥이라 그거 감안 하시면 최곤닙니다</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -733,58 +756,64 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024.10.22</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>18층 고층이라 그런지 하프뷰도 훌륭했어요
-바로앞 해운대라 바다접근성 상가1층 gs,cu편의성 모두만족합니다
-주차도 널널하고 체크아웃후 출차는 2시까지라 주변구경하기도 시간이 프리하니 좋았어요
-다음 부산여행 있다면 재방문 100프로이예요 👍 ^^</t>
+          <t>장점)
+광안대교  오션뷰  제대로 충족시켜주는 숙소!
+테라스에 테이블이랑 의자가 있어서 편하게 볼수있엇고, 레지던스라 내부시설이 알찼다!
+특히 온냉정수기 최고, 넉넉한 냉장고공간 최고
+단점)
+방안에 테이블 없음ㅋㅋㅋ 뭐 먹으러면 베란다에서 오들오들 떨면서 먹어야햇다
+주차 카드11000, 어메니티 너무 비쌈
+수건 기본사이즈2장, 큰거1장 제공
+화장실 환풍기가 제대로 안돌아서 하수구 냄새 너무 심했다</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2023.11.16</t>
+          <t>2024.01.12</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>단점)엘리베이터 환승 불편 
-호텔 특유의 오래 된 냄새가 남
-화장실 문 안잠김 ㅡㅡ  
-일회용 칫솔이 없음 
-장점)뷰 쏘쏘 
-해운대 해변이 보임
-방음이 잘됨 
-방이 넓찍함</t>
+          <t>광안리 오션뷰 끝판왕 숙소 강추합니다.
+어메니티 무상은 아니지만 그 외에 침구나 빌트인 냉장고 빌트인 세탁기 기타 등등 시설은 깔끔하고 성능 굿굿 방도 안락하고 따뜻해서 😴 자기 좋아요!^^
+날이 추워서 외부 스파는 이용 못 했지만 선선한 날씨에 매우 좋을 것 같아요.
+탁 트인 전망 보고 광안대교랑 광안리 해수욕장 다이렉트로 보려면 이 방은 강추합니다 bb</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2023.12.24</t>
+          <t>2023.12.25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>룸컨디션은 좋은편이었으나 화장실 배수구주변 날파리기 좀.. 위치접근성은 아주아주좋구요 로비와 외부로 이동시 엘리베이터를 갈아타야하는 번거로움이있습니당 그래도 가성비 좋아요!</t>
+          <t>광안대교뷰 정말 멋졌어요~
+바로 앞 해수욕장이 있어서 베란다에서 파도소리도 즐기고 야경 즐기며 너무 좋았네요
+객실안에 키오스트 있어서 음식도 저렴한가격으로 바로 주문이 편했고 맛또한 좋았어요~^^
+정수기도있고 간단 음식 데우기좋게 전자레인지도있고 인덕션도있어서 놀랬고 여러모로 좋았네요^^
+단점은 머리빗이든 드라이빗이 없어서 긴머리인 와이프는 드라이를 못해 아쉽네요
+빗정도는 비치해시면 좋았겠네요</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -794,14 +823,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2023.11.05</t>
+          <t>2024.10.14</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>뷰가 맘에 들었고 직원분들 응대가 친절해서 좋았습니다~다만 객실이 환기가 안되서인지 먼지가 좀 있어서 창문 열고 있었어요 그것 제외하고는  맘에들어요~</t>
+          <t>다른 후기들 보면 더러웠다고 하는데 저희 객실은 엄청 깨끗했어요. 비가 많이 와서 조금 꿉꿉하긴 했는데 그래도 에어컨 트니까 괜찮아졌어요!
+뷰가 진짜 장난 없었어요..
+그리고 비에 젖어서 수건 많이 필요할 것 같다고 체크인때 말씀드리니 엄청 챙겨주셔서 좋았습니다
+단점은
+숙소 내에 있는 테이블과 의자가 엄청 불편했어요ㅠㅠ
+욕실이 밖에서 다 보여서 민망했습니다..ㅠㅠㅠㅠㅠ
+그리고 어매니티가 없어서 집에서 다 가져왔어요
+이거 세개 빼고는 정수기도 있고 다 좋았아요
+가격만 좀 내린다면 재방문 의사 있습니다!</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -811,37 +848,36 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024.09.17</t>
+          <t>2024.05.07</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>가성비 끝판왕 호텔이네요
-위치, 가격, 방크기 등 여행내내 만족~~
-지금과 같은 조건이면 담에 무조건 갑니다.!!</t>
+          <t>위치적으로 완전만족했어요
+약간의청결쪽으로  바닥이나 침구류에 머리카락외 다른게 좀 있었어요
+룸서비스도 키오스로 가능하며 그냥흔한 분식도 5000원이상이면 다 무료 배달서비스가되드라고요
+이런점은 매우만족이였어요
+ 방안에 전자레인지도 비치되어있고 나름 괜찮았어요
+바로앞광안리바다 먹거리많고 좋았어요</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024.01.17</t>
+          <t>2024.06.15</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>해운대해수욕장 바로앞이고 호텔뒤 번화가에 먹거리천국이죠 객실 뷰도 나쁘지않습니다
-체크인시 엘베 20분이상 대기해야됩니다
-여유있게 기다리실바랍니다
-이동성 좋은호텔입니다
-수영장은 락스냄새 쩌는거 빼면 좋네요</t>
+          <t>갓성비 숙소..! 진짜 나오자마자 광안리 해변이고 주변은 맛있는 집 잔뜩!! 숙소도 깔끔하고 침대도 편했어요 조금 아쉬웠던건 엘베가 2개인데 프론트가 20층인 점..!! 객실 청소가 조오오오오금 미흡해서 아쉬웠습니다 그거 빼곤 최고 짱짱임요 심한 편은 아니였지만 제가 위생에 예민한 사람이라 그럴 수도 있어용 측면 객실인데 뷰도 짱 예뿜</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -851,60 +887,38 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024.08.16</t>
+          <t>2023.12.05</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>오션뷰를 원하는 분께는 강추합니다
-수건걸이 고정 불량, 냉장고 문 개폐시 바닥 닿음 등 일부 노후된 부분은 있으나 지내는 데에는 전혀 문제될 건 없어 편하게 잘 지내고 옵니다~!</t>
+          <t>일단 광안리 풀 바다뷰 중에서 가장 저렴하고 가성비 좋아요 금렴산역에서 5분 거리에 교통이 편리한 위치에 있습니다 1층에는 와인샵 . 편의점이 있어서 멀리까지 갈 필요 없어서 너무 좋았어요 ! 
+처음에 6층 배정 받았을때 너무 낮은 층은 아닌가 싶었는데 고층보다는 저층이 뷰도 너무 예쁘고 좋았어요 ㅠㅠ 커튼 열어두고 있으면 아침 .저녁 .새벽 전부 예쁜 바다뷰 볼수 있었어요 꼭 풀 오션뷰 예약하세요 !</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2023.11.16</t>
+          <t>2024.03.13</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[솔직후기]
-소비자에게는 진실을 사장님에게는 조심스럽게~
-☆☆☆☆☆ - 세상에 이런 곳이 있었다니. 판타스틱!!!
-☆☆☆☆     - 여행가면 다시 방문할꺼야^^~
-☆☆☆         - 우리집 근처에도 이런 곳 있는데 ㅋ
-☆☆             - 내가 왜 여길 왔을까 ㅠㅠ
-☆                 - 도저히 못 참겠어. 
-{ 모든 평가는 금액을 기준에 의한 것임을 참고 }
-[객실 - 디럭스(하프오션뷰)]
-1. 숙소규모
-대략 11평쯤. 평수만큼이나 활동 공간이 넓음.
-2. 시설 편의성
-(외관)본 건물 넉넉한 지하 주차장.엘리베이터는 1~4층, 4~꼭대기층으로 각2대씩 운영.4층은 프런트. 
-(객실)비품은 비누, 샴푸, 바디, 컨디셔너, 바디로션, 소형냉장고, 핫플레이션은 있으나 전원이 연결되지 않아 작동되지 않음.
-3. 침구류
-적당한 쿠션. 무난함.
-4. 냉난방 및 급수시설
-냉방 잘됨(5월방문) 수압과 온수 원활함
-5. 청 결
-침구류, 욕실 깨끗한 편.
-6. 뷰
-16층에서 내려다 보는 해변과 야경은 정말 멋짐
-7. 건물 주변 편의성
-건물 맞은편은 해운대 해수욕장 다양한 식당 그리고 시장 근접 먹을거리가 풍부함
-8. 조 식
-08:20~08:50 사이에 투숙객들이 몰림.
-생각보다 괜찮은 조식.
-9. 재방문 의사
-금액만 맞다면 재방문할 의사 있음</t>
+          <t>어매너티 없음
+샴푸 린스 바디워시 치약 칫솔 꼭 챙겨오세뇨
+욕조 있긴한데 야외 테라스있고 가림막 없이 개방적이라서 밖에서 다 보임 절대 알몸 불가하고 수영복 입고 들어가는 욕조임
+침구류에 오염이 조금 있었음
+주방조리도구 굳
+전자렌지 굳
+위치 굳</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -914,20 +928,28 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2022.05.15</t>
+          <t>2024.07.11</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>진짜 와아아아아안전 친절하시고 시설도 좋았어요 ㅠ
-세면대 따뜻한 물 바로 나오는 거랑 샤워기도 따신물 바로 나고 수압쎄서 해수욕장 갔다가 모래 한 방에 제거 완료 .. ♡
-체크인할 때 종이 주시는데 따로 물어볼 필요 없이 종이만 보고 해결할 수 있어서 좋았어요 ! 
-배달시키실 때 1층까지 내려가야 한다는 게 쪼오끔 불편하지만 1층 바로앞에 편의점도 있어서 좋았어요
-뷰는 말할 것도 없이 왕 좋았지만 ! 장마철에 가서 비오거나 습할 땐 뿌얘지더라구용 근데 안 뿌열땐 뷰 맛찝 ... 에어컨도 빵빵하고 외출할 때 에어컨 키고 나가도 안 꺼져서 깜빡하고 에어컨 키고 수영 갔다왔는데 숙소가 냉장고가 되버려서 추었지만 더운 여름에 진짜 최고에요 ㅠㅠ 연박으로 2박3일로 놀다왔는데 체크인할 때 치워주는 서비스? 체크 안 했는데도 문 앞에 수건들이랑 샤워용품 챙겨주셔서 감동 ... 수영장은 그냥 다른 야외수영장이랑 비슷했어요 !
-진짜 다음에 또 갈 정도로 괜찮았습니다 !-! 
-너무 TMI가 남발했지만 제 후기가 도움이 되었으면 좋겠습니다 ㅠㅠ</t>
+          <t>출장으로 혼자 이용했습니다.
+7시 도착이라 카운터 마감 이후에 셀프 체크인 했어요.
+문자로 비밀번호와 숙소 위치 등 자세히 안내 주셨습니다. 3층 배정 받았어요.
+어매니티는 공지된 것처럼 없는 상태(클렌저 2개 제공)라, 주변 편의점서 샀습니다.
+장점
+- 뷰!!!!
+- 해변 접근성
+- 저렴한 가격(평일 특가)
+- 깔끔한 룸 컨디션(신축급)
+- 수건 및 침구 깔끔
+- 정수기
+- 냉장고 및 세탁기
+- 수압 및 물빠짐 Good
+단점
+- 보조 잠금장치 없음(여성 혼자는 무섭다 생각할수도 있을듯)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -937,17 +959,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2023.07.15</t>
+          <t>2022.12.07</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>대체로 만족한 숙소라 또 방문하고싶은 곳이에요 ! 
-장점 : 위치 너무너무 좋아요 ! 뷰도 완전 좋구요 ! 바다 바로 앞인데다가 번화가 옆이라 걸어갈 수 있는거리에 시장이랑 식당들이 즐비합니다. 그리고 2211호 22층 끝방이었는데 방이 엄청 넓어서 좋았습니다 ! 침대도 더블이었는데 거의 패밀리사이즈였어요 !
-어메니티가 좋았어요 샴푸랑 컨디셔너가 양이 조금 적긴 했는데요 ~ 평소에 집애서는 머리에 애센스를 발라야 좀 부드러워지는데 여기선 샴푸랑 컨디셔너만 했는데도 머리가 부드럽더라구요
-단점 : 외출할 때마다 엘베 환승을 해야하는거랑, 복도에 카펫이 안 깔려있어서 구두소리 잘 들립니다. 시설은 조금 낙후되어 있어서 옷장 왼쪽 문이 바닥에 닿아서 안 열렸구요, 화장실 문에 걸쇠가 있는데 문 높이가 안 맞아서 용을 써서 잠가보려고 해도 안 잠기더라구요 ㅜㅜ 그리고 일회용칫솔치약 등 보통 기본으로 제공되는 게 없어서 사야되더라구요 1000원 정도로 구입할수 있어서 비싼건 아니지만, 기본으로 제공해주시면 더 좋을 것 같습니다.</t>
+          <t>아늑한 집같은 편안한 분위기에 측면오션뷰였지만 바다도 꽤 잘보이고 좋았어요
+특히 테라스에 욕조가 큼지막해서 파도 소리들으며 반신욕도 잘했네요
+단, 옆방도 앞 건물도 사생활 보장은 하나도 안되게 너무너무 잘보이게 설계 되어 있으니 수영복은 꼭 입어야 합니다
+위치도 바다 바로 앞이고 대부분이 좋았는데, 밤에 자려고하니 내부소음(정수기소리, 냉장고소리)이 굉장히 크더라구요
+어디서 나는 소음인지 한참을 찾았는데 전자제품 소음이었어요
+호텔이든 펜션이든 층간, 벽간소음 때문에 시끄러운적은 많았는데 이런적은 처음이라 좀 놀랐어요
+그래도 재방문 의사는 있습니다~</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -957,15 +982,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2022.12.24</t>
+          <t>2023.01.15</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>가족인원이 5명이라서 10층 3인실, 14층 2인실
-사용했습니다 4층에서 갈아타서 6층에서 체크인해야되서 조금 번거러움이있고 차량가져왔으면 차량번호 적으면 주차무료입니다 그리고 샴푸,린스,바디워시,비누,휴지,타월은 하루 지나면 새로 바꿔주세요 그런데 머리숱많은 저는 샴푸,린스 양이 적어서 편의점에서 새로 구매했어요(1층에 GS,CU편이점 있습니다) 미리알았으면 집에서 챙겨가는건데...🤣 칫솔,치약,샤워타월은 구비되어있지않아서 챙겨가셔야됩니다 쓰레기는 재활용,일반,음식물 이렇게 분리해놓으면 알아서 치워주십니다 그리고 침구 청결이 약간 아쉽긴하지만 묻은 자국보면 그냥 빨래로는 안 지워질만한 것들이 더라구요 그래서 별로 신경안쓰고 사용했어요 그리고 오션뷰가 아니라서 기대안했는데 건물틈사이로 조금 보이는데 괜찮더라구요 약간 아쉬운점은 넷플릭스가 없다는점...또륵💦그래도 바다가 바로 앞이고 늦게 방을 잡았지만 싸서 무난하게 가족들이랑 잘지냈습니다:) 숙박할때 마침 빛축제?!인가 한다고해서 저녁먹고 사진찍으러 돌아다녔는데 좋았습니다!</t>
+          <t>측면뷰 객실로 갔지만 테라스에서 고개를 빼꼼 하면 광안대교가 보여서 만족스러웠어요! 광안리 해수욕장 바로 앞에 있어서 접근성도 좋았구요! 프론트 직원분이 계시는 시간이 짧으셔서 직원분들의 친절도는 잘 모르겠지만, 문자로 체크인 방법도 알려주시고, 숙소 이용 수칙도 알려주셔서 편하고 좋았어요! 제일 만족스러웠던건, 침구였어요! 침대 메트리스가 정말 푹신하고 좋더라구요 (딱딱한 메트리스 좋아하는 분은 싫어하실 것 같아요) 광안리 해수욕장이 바로 앞에 있는곳 치곤 가성비가 정말 좋은 것 같아요! 숙소 내부가 좁은것과, 욕실 샤워부스가 한명이 들어가도 꽉 차는것, 어메니티를 따로 제공하지 않는 점만 제외하면 가성비 측면에서는 정말 괜찮은 숙소라고 생각해요:) 광안리에 가면 재방문할 의사가 있어요☺️</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -975,15 +999,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2022.02.14</t>
+          <t>2023.05.09</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>가족인원이 5명이라서 10층 3인실, 14층 2인실
-사용했습니다 4층에서 갈아타서 6층에서 체크인해야되서 조금 번거러움이있고 차량가져왔으면 차량번호 적으면 주차무료입니다 그리고 샴푸,린스,바디워시,비누,휴지,타월은 하루 지나면 새로 바꿔주세요 그런데 머리숱많은 저는 샴푸,린스 양이 적어서 편의점에서 새로 구매했어요(1층에 GS,CU편이점 있습니다) 미리알았으면 집에서 챙겨가는건데...🤣 칫솔,치약,샤워타월은 구비되어있지않아서 챙겨가셔야됩니다 쓰레기는 재활용,일반,음식물 이렇게 분리해놓으면 알아서 치워주십니다 그리고 침구 청결이 약간 아쉽긴하지만 묻은 자국보면 그냥 빨래로는 안 지워질만한 것들이 더라구요 그래서 별로 신경안쓰고 사용했어요 그리고 오션뷰가 아니라서 기대안했는데 건물틈사이로 조금 보이는데 괜찮더라구요 약간 아쉬운점은 넷플릭스가 없다는점...또륵💦그래도 바다가 바로 앞이고 늦게 방을 잡았지만 싸서 무난하게 가족들이랑 잘지냈습니다:) 숙박할때 마침 빛축제?!인가 한다고해서 저녁먹고 사진찍으러 돌아다녔는데 좋았습니다!</t>
+          <t>올리고 싶은 사진은 많은데 용량때문에 제한되네요 숙박대전 5만원 쿠폰할인 받아서 평일 3만원에 결제했어요 오예 당일 입실시간 되니 문자로 위치와 방 비밀번호 보내주더라구요 비대면 입실 좋았어요 9층이였고 방에 들어가자마자 광안대교 보여요 사진은 방 테라스에서 본 풍경인데 나쁘지 않아요 굿굿 방은 오피스텔형식이고 비누랑 가운은 없어요 세탁기랑 냉장고 있고 냉장고 짱큼 침대도 푹신하고 넷플릭스도 됨 드라이기도 있고 괜찮았어요 여기 완전 추천합니다 근데 주말에는 가격 확뛰어버리네요 하하하하</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -993,56 +1016,49 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2022.02.14</t>
+          <t>2022.06.11</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>대체로 만족한 숙소라 또 방문하고싶은 곳이에요 ! 
-장점 : 위치 너무너무 좋아요 ! 뷰도 완전 좋구요 ! 바다 바로 앞인데다가 번화가 옆이라 걸어갈 수 있는거리에 시장이랑 식당들이 즐비합니다.
-어메니티가 좋았어요 샴푸랑 컨디셔너가 양이 조금 적긴 했는데요 ~ 평소에 집애서는 머리에 애센스를 발라야 좀 부드러워지는데 여기선 샴푸랑 컨디셔너만 했는데도 머리가 부드럽더라구요
-단점 : 외출할 때마다 엘베 환승을 해야하는거랑, 복도에 카펫이 안 깔려있어서 구두소리 잘 들립니다. 그리고 일회용칫솔치약 등 보통 기본으로 제공되는 게 없어서 사야되더라구요 1000원 정도로 구입할수 있어서 비싼건 아니지만, 기본으로 제공해주시면 더 좋을 것 같습니다.</t>
+          <t>자리도 바로 광안리바다앞이다보니까 편리성도 너무 좋고 저 뚜벅이인데 부산역까지 버스 하나로 슝가고 너무 좋았어요! 냉장고도 크고 세탁기도 있다보니까 옷도 세탁할수있고 편해서 좋았습니다 ㅎㅎ 세제 안가져간걸 후회중이에여ㅠㅠ 젖은옷,수건 건조기만 돌렸지모에여ㅠㅠ 할인할때 결제해서 너무 가성비 좋게 다녀왔습니다~ 좀 시원해지면 재여행예정인데 그때 또오려구여!!</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2022.12.24</t>
+          <t>2023.08.06</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>대체로 만족한 숙소라 또 방문하고싶은 곳이에요 ! 
-장점 : 위치 너무너무 좋아요 ! 뷰도 완전 좋구요 ! 바다 바로 앞인데다가 번화가 옆이라 걸어갈 수 있는거리에 시장이랑 식당들이 즐비합니다.
-어메니티가 좋았어요 샴푸랑 컨디셔너가 양이 조금 적긴 했는데요 ~ 평소에 집애서는 머리에 애센스를 발라야 좀 부드러워지는데 여기선 샴푸랑 컨디셔너만 했는데도 머리가 부드럽더라구요
-단점 : 외출할 때마다 엘베 환승을 해야하는거랑, 복도에 카펫이 안 깔려있어서 구두소리 잘 들립니다. 일회용칫솔치약 등 보통 기본으로 제공되는 게 없어서 사야되더라구요 1000원 정도로 구입할수 있어서 비싼건 아니지만, 기본으로 제공해주시면 더 좋을 것 같습니다.</t>
+          <t>날이 흐린날 가서 아쉽긴했는데, 진짜진짜 너무 좋았어요. 약간 자취방 느낌에 풍경이 뻥 뚫려있어서 진짜 이쁘더라구요. 방도 따뜻하고 그리고 생각치도 못한 식기들이 있더라구요!! 다음에 와서 요리해도 되겠어요ㅎㅎ 아 근데 그릇을 쓰려하는데 설거지를 안하셨나본지 케첩으로 보이는 소스랑 음식물이 묻어서 굳어 있더라구요ㅠ 그래도 퐁퐁있길래 씻어서 잘 사용했답니다. 바다소리도 들리고 밤에는 밖에 불꽃놀이 하는 사람들... 빛나는 다리...너어무 이쁘더라구요. 직원분들도 너무 친절해서 좋았어요ㅎㅎ
+아!! 화장실!! 유리문인데, 문을 닫아도 다 비치더라구요ㅋㅋㅋ 조금 민망할수도 있지만, 아주아주 좋았습니다. 다음에 정말 또 오고싶은 곳이예요!! 강추!!</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2022.12.24</t>
+          <t>2023.02.15</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>합리적인 가격에 잘쉬다가 갑니다.부산이 처음이라 난감했는데 제가사는 인천엄마들이 많이 하는 카페에서 추천해주셔서 이용하게 됐어요.
-부산에 와보니 주차가 거의 타워이용이더라구요.요긴 지하주차장이 있어서 쉽게 주차했구요.다른숙소 아무것도 모르고 예약했다가 여기로 바꾼게 주차가 이유가 젤컸어요.
-해운대 해수욕장 가깝고 시장가깝고 편의시설 주위에 다 있구요.객실방도 널찍하니 바다뷰라 딸아이가 더 좋아했어요.딸과 단둘이 첫여행에 너무 잘쉬고 갑니다.</t>
+          <t>사실 에어비앤비 원룸 형태의 숙소인지 모르고 예약한건데 방바닥 따시게 할 수 있어서 좋았음 주거형태 숙소다보니 배달주문할때 문 앞까지 오니까 좋았음! 야외 스파욕조 있었지만 태풍치는 날이라 문 꼭 닫고 잠듬 근데 세탁기는 있는데 왜 세재가 없는지 모르겠음 냉장고 커서 좋았고 화장실은 좁아서 문 닫을때 불편했어서 씻고 싸는거 빼고 그냥 전부 방에서 해결함 다음에 바다 갈 때 이용하면 좋을거같음 위치가 좋음 같은 건물 1층에 네컷과 포도와 편의점이 바로 있어서 다 이용했음</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1052,14 +1068,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2023.01.25</t>
+          <t>2022.10.20</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>해운대 해수욕장 진짜 바로앞이고 메인거리도 도보 2분이라 위치가 넘사벽으로 너무 좋았고 다른 후기보니까 청결도가 조금 떨어진다는거 봤는데 제가 이용한 방은 완전 깨끗했고 에어컨 빵빵하고 너무 좋았어요 솔직히 큰 기대 안하고 갔는데 너무너무너무너무 만족해요! 유일한 단점은 엘리베이터를 갈아타야한다는거였는데 혼잡한 시간 제외하면 이용하기 수월했어요! 수영장도 적당히 놀기 좋았고 제 기준 거의 완벽했습니다!</t>
+          <t>두번째 방문한 광안리^^
+숙소는 달랐지만 건물은 같네?
+오피스텔 건물을 여러 업체가 운영하는거 같습니다~
+바다 뷰, 근처 편의성은 그냥 만점^^
+주차는 처음 오시는 분들은 햇갈릴듯 하네요.
+자세한 설명이 부족합니다. 건물 뒷편 주차 관리소 가셔서 차량 등록하시고 기계식 주차... 전 카니발이라 등록하고 지하주차장으로~~ 주차만 마무리하시면 나머지는 만점^^ 근데 모기놈들은 어디서 나오는건지 ㅡㅡ 방이 따뜻해서 그런가... 밤에 헌혈 조심하시구요 ㅋㅋㅋ</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1069,14 +1090,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2022.08.14</t>
+          <t>2023.04.16</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>리뷰가 케바케인거 같아서 걱정했는데 다행히도 제가 간 방은 너무 깨끗하고 좋았어요! 층수도 23층이라 높고 좋았구요 ㅎㅎ 다만 오션뷰로 갔는데 하프오션 같은 느낌을 받아서 이 부분만 조금 아쉬웠네요 ㅠ 새벽에 정체모를 소음 때문에 계속 잠을 설쳐서 결국 카운터에 전화 드렸는데 알고보니 보일러 때문이었어요 ㅜㅜ.. 그래도 와서 바로 해결해주셔서 감사했습니다 !!! 그리고 방도 엄청 커서 너무 편하게 잘 놀다 왔네요! 가격대비 위치도 너무 괜찮아서 또 올거 같아요!!</t>
+          <t>최고예요 그냥... 뷰가 정말 좋고요. 방음도 잘되는지 옆방 소리 안 났어요.주변에 먹을 데 많고 편의점도 있고 내부 깔끔하고 편했어요. 사용하진 않았지만 인덕션, 세탁기, 전자레인지, 전기포트 있었고 정수기 있는 거 진짜 좋았네요. 드라이기, 고데기 있어요. 일회용수세미 있고 커트러리, 식기세트 있어요. 다만 갑티슈랑 물비누 없는 건 아쉬웠네요! 그거빼곤 다 좋아요. 정말! 다음에 또 올 거예요!!</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1086,14 +1107,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2022.12.25</t>
+          <t>2023.04.03</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>우선 해운대가 잘보이는 숙소중 가성비가 가장 좋은 곳인 것 같습니다 ㅎㅎ 숙박한 날이 날씨가 흐려 조금 아쉬웠지만 그걸 감안하고도 해운대 바다가 한눈에 내려다 보이는 거랑 직원분들이 친절하셔서 너무 좋았고 전반적인 시설들도 깔끔하고 좋았어요! 다만 엘리베이터가 한번에 숙소까지 올라가지 않아 숙소 들어가는데 너무 오래걸리는건 단점이예요 ㅠㅠ 그래도 숙소 자체는 문제가 없어 정말 만족합니다! 다음에도 또 예약할 것 같아요!</t>
+          <t>뷰는 당연 최고였구요. 침구도 잘 세탁되어서 깔끔했어요 ㅎ 근데 이제 날이많이따뜻해져서 이불이 너무더워서 에어컨켜고잤어요 ㅎ;   청결상태도 아주좋았지만 화장실물때는 솔질만 살짝해도 지워질것같은데.. 분홍곰팡이가 가득해서 그부분 빼고는 퍼펙트한 숙소였어요^^  약간의 식기류.드라이기.고데기.어메니티.수건 꼼꼼하게 구비되어있어서 좋았는데 휴지가 거의 다쓴거 하나만남아있어서 너무늦은시간이라 그냥 편의점에서 휴지사와서썼어요 ㅋ</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1103,19 +1124,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2023.03.02</t>
+          <t>2022.04.12</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>장점
-높은 객실과 하프오션뷰이지만 높아서 광안대교까지보이고 야경 깡패인 레지던스였어요 ㅎㅎ 체크인해주시는분께서 좋은방으로 해주셔서 더 감사했구요 ㅎㅎ
-단점은
-지하부터 4층까지가는 엘배타고 6층 체크인하는곳우로 엘배환승해야되요ㅠㅠ 그러고 다시 객실올라가야되요ㅜㅜ그게 좀 불편하더라구요
-어디 나갓다오려면 엘배를 두번타야한다는 단점ㅜㅜ
-그래도 분위기있고 가성비도 좋고 또 갈 의향있습니다</t>
+          <t>광안리 가시면 여기 무조건입니당 
+하루는 정면뷰, 하루는 측면 뷰 추천해용 
+미친 뷰 맞아여 ㅋㅋ
+저는 두번 자고 넘 조아서 하루 더 연장했어용 
+1층에 와인샵 카페 편의점 등등 필요한 편의시설 밀집되어 있구 소음은 없어용 
+바닷가에서 올려다봐도 이 숙소 말고는 가고싶은데가 없어용 뷰가 탁 트여서 넘 좋았고 
+내부에 있을꺼 다 있어서 숙소에만 있고싶어요 
+직원분들도 친절하셔서 강추합니다 
+조만간 또 갈꺼예용 ㅜㅜㅜ</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1125,14 +1149,16 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2022.01.16</t>
+          <t>2022.02.10</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>객실소개에 있는 사진과 동일해서 너무 좋았습니다. 해운대 해수욕장 바로 길건너에 있어서 접근성이 뛰어났구요. 객실 창밖으로 보이는 풍경이 진짜 예술이네요 ^^ 아쉬운 점은 체크인을 위해 프론트에서 기다리는데 냉방이 안되어 너무 더웠습니다. 체크인과 객실 엘리베이터를 갈아타야하는 번거로움이 있다고 해서 살짝 걱정했는데 붐비는 시간을 감안하여 이동했더니 큰 문제는 아니었습니다. 아이들과 와이프가 만족해서 담에 해운대 방문하게되면 다시 예약하겠습니다.</t>
+          <t>뷰가 예술임 여친이 아주좋아함
+아쉬운점은 체크인시간에 사람몰림+청소직원분들 청소카트 때문에 엘리베이터가 너무 느려요 20층건물인데 엘리베이터가 두개밖에없음ㅜ 또 화장실이 밖에선 다보이고 안에선 안보이게 반대로 설계된거같아요
+그러나 이것들을 다 무마시킬정도로 경치가 정말 좋음 나중에 부산놀러가면 또 갈예정 👍</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1142,32 +1168,50 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2023.07.30</t>
+          <t>2022.08.14</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>위치가 너무 좋아요.주변에 식당들도 많고,바닷가 바로앞이고.객실에서 바다도 잘보이고요. 가격대비 아주좋네요.다만 엘리베이터가 1층까지 안오는게 약간불편.4층에서 길아타야하는게 흠이라면 흠입니다. 와이프도 아이들도 대만족이에요. 다음에 해운대 또 가면 무조건 이곳으로 예약할 생각입니다.</t>
+          <t>일단 뷰 최고.
+이 말부터 시작할게요.
+뷰는 진짜 b!
+사진 더 많이 올리고싶은데 용량이 초과라서 업로드가 안되네요ㅠㅠ
+사장님도 친절하시고
+무엇보다 
+바다 바로 앞에 있어서
+광안리 중간은 아니지만 광안대교가 정면으로 보여서 좋았어요!
+고층인데도 불구하고 모래가 날아와서 그런지
+숙소 바닥, 욕조는 좀 모래가 있었어요.
+침구도 엄청 청결하진 않은..
+그런데 뷰가 진짜 미쳤어요..
+다 용서되는 뷰ㅠㅠ
+낮에도 욕조에서 광안대교 바라보며
+들어가있고
+밤에는 야경을 보면서 들어가 있었어요ㅠㅠ
+너무 좋았습니다!!!</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2023.02.19</t>
+          <t>2022.09.09</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>하프오션뷰라지만 실제 느낌은 오션뷰였어요.방에서 바다가 너무 환하게 잘보여서 좋았고,위치가 끝내줘요~숙소 바로 밑에 편의점도 2곳이나 있고,바로 뒤가 시장이고,바닷가도 길만 건너면 바로 나와요^^
-단지,공사중이었는지 복도에 공사할때 나오는 가루같은것이 쫙 깔려 있어서 좀 그랬어요.숙소안은 대체로 깔끔했는데,샤워부스가 너무 작아서 불편했습니다.그래도 대체로 만족스런 숙소였어서 담에 또 갈것 같아요~</t>
+          <t>전반적으로 만족! 세탁기. 냉장고. 냉동고. 전자렌지. 드라이기. 정수기 비치되어있고 원룸같은 숙소 편함
+담엔 바다 정면뷰 갈께요. 측면뷰라 좀 아쉽지만 이용성 좋고 베란다 냄새는다는 분들 지저분했다는 글 있어서 살짝 쫄았는데 갠찮았어요. 전. 바닥이 대리석이라 물티슈로 싹 닦으니 더 쾌적 ㅋㅋㅋ 전 방문의사 있습니다. 잘 쉬다 옵니다.
+참 !! 샴푸. 린스. 바디워시. 칫솔!! 꼭챙기세요. 
+20층 카운터에 자판기로 구매 가능한데 저희는 챙겨갔어요</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1177,92 +1221,107 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2022.11.11</t>
+          <t>2023.08.11</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>일단 해운대바닷가 해운대시장등등 위치 끝내줍니다 오션뷰로 했는데 24층이라 해운대바다가 한눈에 다보여요 아마 이보다 20층전부턴 앞건물에 가려서 뷰가 안좋을수도 있겠네요 근데 단점은 엘베를 3번타야 해요 엘베 갈아타는거 그리고화장실이 오래되서 욕조랑 세면대가 어설퍼요 그치만 나름 위치랑 객실 컨디션 그리고 가격에 모두를 만족할수 있었어요 다음에도 부산에 간다면 다시 갈꺼예요!</t>
+          <t>우선 광안대교 뷰 깡패라서 너무 이쁩니다
+레지던스형의 장단점이 있는데
+이미 공지되어있고 그에 따른 합리적인 가격이기에 
+매우만족합니다 주변에 맛집도 코앞이고
+인테리어도 모던하게 예쁩니다!사장님도 친절하셨습니다!
+아쉬운점은 해풍을 맞아서 그런지 습한날이여서 그런지 방안이 너무 습했습니다 ㅜㅜ
+여름이면 에어컨틀어서 제습이가능했을꺼 같긴하네요
+그리고 침대가 바스락거린다는 리뷰가있었는데 방수때문에 그런건지 모르겠지만 조금 불편하긴 했습니다 ㅜㅜ 
+아무쪼록 제습,매트리스만  보완되면 완벽한 레지던스형 숙소인거 같습니다!!</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2023.02.20</t>
+          <t>2023.04.20</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>후기처럼 낡고 좀 청결함이 부족하지만 바닷가 바로앞 상권최고 위치랑 어마어마한뷰가 모든걸 덮어줄정도 였고 직원들도 친절 체크인 아웃 외 2번정도만 외출을 해서 얼베 환승정도도 크게 불편하지 않았음 12만원에 진짜 이정도 가성비가 어디있으랴~~~~</t>
+          <t>광안리 한복판에 있어요
+간판이 없어서 설명을 잘 봐야해요
+20층 프론트로 바로 올라가서 예약한 곳 이름 찾으면 되요 엘베가 2개 뿐에요
+다른건 몰라도 뷰맛집은 두말할 필요없어요
+세탁기 냉장고 장롱 등 오피스텔같은 편안한 곳이에요
+전등이 좀 깜빡거려서 신경쓰이긴했지만 불끄면 뷰가 더 좋아요
+화장실문 벽이 유리라 내부가 다 보여서 익숙하지 않았고
+샤워실이 작아서 문 열고 닫느게 조금 불편했어요
+하지만 뷰가 진짜 끝내줘요</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2023.01.07</t>
+          <t>2022.12.04</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>청소가그렇게깨끗한편은아니었으나
-뷰가깡패라모든것이용서가됩니다
-해운대번화가와가까운거리 퇴실시두시까지무료주차가능
-등 다음에해운대온다면연박해서묵고싶을정도로좋네요
-다소시설이좀노후되고엘레베이터를중간에갈아타야하는번거로움이있지만뷰가너무좋아서 모든게맘에듭니다</t>
+          <t>친절해요, 공지되어있는 부분이랑 똑같아요,  
+프론트에 있는 일회용품 자판기 금액대가 꽤 나갔어요,
+가급적 챙겨오시고 필요하신 분만 사면 좋을듯해요,
+화장실 휴지가 절반밖에 없었는데 여유분이 없어서 저녁쯤 휴지가 떨어져 고객문의했어요,
+이미 프론트 운영시간이 지나서 해결방법이 없었던 듯, 퇴실할 때까지 휴지 없었어요 
+추워서 야외 수영은 이용할 수 없었지만 여름에는 오면 바다보면서 스파하기 정말 좋을듯해요,</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2022.06.05</t>
+          <t>2022.12.30</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>샴푸 린스 바디워시 샘플로만 있어서 가실때는 꼭 챙겨가셔야해용 거품도 잘안나요ㅠㅠ 바다전망은 정말 잘보여서 좋았어요 기왕이면 2박3일로 하셔서 하루는 숙소에서만 머물렀다가 가고 싶네요 대신 오션뷰로 갈려면 층수가 많이 높은데 엘리베이터를 갈아타야하는 구조다 보니까 밖으로 나가기가 어렵습니다ㅠ 한번 갈때 꼼꼼히 사서 들어와야해요! 그래도 바다 전망은 정말 좋아요</t>
+          <t>일단 특이했던게 문자로 입실관련내용이왔고 퇴근후 제대로안보고갔더니 퇴근하시고 안계셔서 문자를보고 입실했어요~약간 작은 오피스텔같은느낌?오션뷰 너무너무좋았구 고대기도 비치되어있어좋더라구요!냉장고에 물이없어서 정수기가있길래 사용했는데 냉수작동이안됐구 샤워가운이 아예 없어 조금당황하긴 했네요^^;그래도 전체적으로 깨끗하구 이금액에 오션뷰라니 최고인거같아요 . 잠시 일찍일어나 해뜰때 사진찍었는데 너무좋더라구요~잘쉬다왔습니다^^</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2023.02.03</t>
+          <t>2022.03.13</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>엘레베이터 갈아타는게 좀 귀찮고
-퇴실할때 6층 내려가는데 엘베가 꽉차서 10분넘게 기다리다가 올라가는거 타고 내려왔어요
-그것말고는 뷰도 좋고 가성비 좋았어요
-특히 해운대 바로 앞이고 1층에 발씻는곳도있고
-수영장도 잠깐 놀기 좋은것같아요
-전 사람들 피해 8시 오픈하자마자 갔다왔어요
-엘베 말고는 대체로 만족스러웠습니다.</t>
+          <t>너무 좋습니다 완벽해용 광안리오시면 여기 가셔야해용 뷰가 너무 좋은데 진짜 시설까지 완벽하고 예뻐요 저는 부산오면 여기만 올꺼예용 좋아서 며칠 더 이용했습니다 
+위치가 좋았고 미친 뷰인건 당연했는데 제가 이 룸이 좋았던건 벚꽃 욕조 흑흑 
+별 10개도 부족해용 이런 완벽한곳은 어딜가도 없을꺼같네요 직원들도 친절 ㅜㅜㅜ 덕분에 좋은 추억 만들구 갑니다 편안하도록 엄청 신경써주셔서 감사했어요 이 호텔때문에 부산이 더 좋아졌어요 
+봄에 또 올껀데 룸 없을까봐 걱정될정도입니다 
+별은 천개주고싶네요</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1272,32 +1331,43 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2022.08.13</t>
+          <t>2022.02.09</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>해운대 모래축제 작품을 객실에서 볼수 있어 만족했고
-아기가 있어 조용한 방을 원했는데 요구사항을 들어주셔서 감사합니다~ 화장실 작아도 있을건 다 있고 가성비 괜찮은것 같아요👍 조식도 나름 괜찮았어요 다음기회에 부모님 모시고 부산여행 온다면 여기 다시 오고 싶어용^.^ 전망 좋고 위치 good 추천드려요~</t>
+          <t>위치가 정말 좋아요. 광안대교 정면뷰를 제대로 볼 수 있었고, 광안대교 앞에서 불꽃놀이 하는 요트들 타이밍 맞으면 볼 수 있음..!
+고층으로 배정받았는데도 바다소리 ASMR 들으며 잘 수 있어요. 1층에 술집이나 카페 없어서 그런 것 같기도..
+뷰는 정말 좋기에 힐링하기 좋습니당..!
+식기/전자렌지/세탁기&amp;건조기/냉장&amp;냉동고/티비/비데
+시설도 다 좋았어요..! 또 오고 싶네요 ㅎㅎ</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2023.06.05</t>
+          <t>2022.10.07</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>해운대 가려는 사람들에게는 말해 뭐하겠습니까 진짜 접근성은 최고예요!! 주변에 워낙 화려하게 뭐 많으니까  더욱 좋아요! 하지만 약간은 오래된 시설이기 때문에 이런거 불편하신 분들은 어려울 수도 있을 것 같아요! 하지만 전 너무 잘 쉬다 갑니다! 짐 보관 서비스 있어요! 체크인 전, 체크아웃 후 이용하였고 안전하게 보관 해주셔서 감사합니다! 잘 놀다 갑니다!</t>
+          <t>비싸긴 했지만 연박 하면서 너무 편하게 
+잘 쉬다가 놀다가 왔습니다.
+주차가 주차타워 주차라서 좀 불편하긴 햇지만 
+엘베2개 빠르게 운행해서 오래 기다리거나 하진 
+않았네요!ㅎ 뷰 때문에 돈이 아깝지 않앗네요
+둘이 지내기 딱 좋긴한데 샤워하는곳이 좀 작아요
+문때문에...쩝ㅋㅋ에어컨 빵빵 티비 잘나오고 
+저녁엔 베란다에서 맥주한잔 기가 맥혓어요~
+재 방문의사 10000프로 입니다.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1307,138 +1377,148 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2022.10.16</t>
+          <t>2023.08.16</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>처음 전화응대 불친절 (나이드신분)
-통화응대 불쾌 하네요
-이후 다시 통화했을때 젋은분들 친절하시네요
-해운대 해수욕장 코앞이라고 근처
-인프라 접근성 (전통시장,해리단길,미포 등등)
-넘 좋네요</t>
+          <t>세번째 방문한 곳이네요~^^
+광안리 바다를 좋아해서 한달에 한번은 오는것 같아요
+최고의 장점은 군더더기 없는 바다뷰구요~
+청결도 제가 묵은 방들은 좋은 편이었고 물론 일회용품이 없고 주차비도 내야하지만 뚜벅이에 여행가는 기분으로 늘 일회용품 챙겨다니는 저로써는 단점이 아니네요ㅋㅋㅋ
+주말보다는 평일 숙박비가 훠얼씬 싸서 좋네요 좋아^^
+내사랑 광안리와 위더스 오션 최곱니당~^^</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2022.09.12</t>
+          <t>2023.04.21</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>새해 맞이로 친구들과 해운대에서 숙소를 잡고 놀았습니다. 고민하다 고른 곳인데 친구들한테  숙소 너무 잘 선택했다고 칭찬받았습니다 ㅎㅎ 내부가 깔끔하고 특히 침대가 폭신폭신해서 너무 잘 자고 갑니다~ 가위가 필요해서 직원분한테 빌리기도 하고 체크아웃도 키를 방에 꼽아 놓고 나왔는데 친절하게 안내해주셨습니다ㅠㅠ
-앗 그리고 1층에 편의점 2개 있는 것도 편리해서 좋았습니당</t>
+          <t>이 가격에 광안대교가 보이고 바로 앞에 있는 숙소는 이 숙소 말고 찾기 힘들것 같네요 젓가락이 1짝이 아닌 달랑 한 개가 있어서 조금 당황스러웠고 바디워시가 아닌 샤워젤이었어서 바디워시 챙겨가는게 도움이 됐어요 수건에 세탁을 잘못 돌리셨는지 어두운색 계열 수건인데 핑크색 이물질이 묻어있었어요 복도랑 방음이 잘 안 돼요 그거 말곤 다 좋았어요 !</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2022.01.02</t>
+          <t>2022.09.09</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>아직 앨베와 지하주차방에서 탄내가 가시진 않았어요
-그 외 직원 친철,  해수욕장 접근성은 최고에요
-다만 객실 청소는 한번 더 신경 써 줬으면 좋겠어요
-커피잔이 닦이지 않은채 있었고 화장실 청소도 꼼꼼하진 않은 것 같네요
-탄내만 안난다면 내년에도 여기 올 듯요</t>
+          <t>광안리 바로 앞에 있어서
+접근성 최고에
+체크인 할 때 안내해주신 남자분 친절해서 기분 좋았어요 !!
+3박 연박으로 묵었는데
+매일 낮에 수건 문고리에 걸어놔주셔서
+넉넉하게 사용했습니다
+뷰가 진짜 예쁘고 만족스러운데
+여름이라 그런지 쓰레기랑 음쓰 깔끔하게 처리한다고 했지만
+화장실 하수구에서 날파리가 많이 올라오는 것 같았어욥 ㅠㅠ
+그래도 좋았습니다!!</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2023.07.26</t>
+          <t>2023.08.25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>낡았다는 후기가 많아서 기대 1도 안하고 갔는데
-생각보다 깨끗 전망에 놀랐어요
-도배 장판은새로 했는지 나름 깨끗하나 누런 스위치 커버는그대로 .. 도배하면서 같이 바꾸시지 ㅠㅠ
-싱크대는 사용하지 않았으나 무지 낡았습니다
-베게 커버 2짝이 자세히 보면 안맞아서 ㅠㅠ
-조그만더 신경쓰면 가성비 좋은 숙소가 될것같아요
-침대 위 토퍼 (침대를 안 바꿨나봐요) 는 편히 절잤습니다</t>
+          <t>광안리 바로 앞에 있어서
+접근성 최고에
+체크인 할 때 안내해주신 남자분 친절해서 기분 좋았어요 !!
+3박 연박으로 묵었는데
+매일 낮에 수건 문고리에 걸어놔주셔서
+넉넉하게 사용했습니다
+뷰가 진짜 예쁘고 만족스러운데
+여름이라 그런지 쓰레기랑 음쓰 깔끔하게 처리한다고 했지만
+화장실 하수구에서 날파리가 많이 올라오는 것 같았어욥 ㅠㅠ
+그래도 좋았습니다!!</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2022.07.25</t>
+          <t>2023.08.25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>전망이 너무좋았고 단지 방까지 올라갈때 엘리베이터를 번갈아 갈아타야하는 불편함은 있었습니다.
-주방시설은 되어 있는데 커피잔2개, 커피포드외에는 암것도 없어서 좀 불편한것 같았습니다.
-그외에는 샤워시설이나 난방, 뷰등등 좋았고 바로옆에 시장이 있어서 넘 좋았습니다
-좋은 시간이 되었습니다</t>
+          <t>광안리 바로 앞에 있어서
+접근성 최고에
+체크인 할 때 안내해주신 남자분 친절해서 기분 좋았어요 !!
+3박 연박으로 묵었는데
+매일 낮에 수건 문고리에 걸어놔주셔서
+넉넉하게 사용했습니다
+뷰가 진짜 예쁘고 만족스러운데
+여름이라 그런지 쓰레기랑 음쓰 깔끔하게 처리한다고 했지만
+화장실 하수구에서 날파리가 많이 올라오는 것 같았어욥 ㅠㅠ
+그래도 좋았습니다!!</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2023.02.06</t>
+          <t>2023.08.25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>주니어 스위트 미오션뷰 에서 오션뷰로 바꿔서 주셨는데
-뷰 도 미쳤고, 방 상태도 너무 좋았습니다. 방 사진이 하나밖에 없어서 원룸형인가 했는데 방도 하나 있고 침대도 큰게 2개씩 있어서 더 크고 좋았네요! 부산가면 여기 또 갈려고해요 너무너무 좋았어요. 대신 교통은 차량이용하면 근처가 엄청막혀서 조금 불편하긴하지만 괜찮아요</t>
+          <t>객실뷰나  책크인 사무실 직원분 친절하시고 주차장 직원분 너무친절하시네요 아쉬운점은 5층통행 로에 세탁 짐가득 통행붋편하고 청소 아주머니 분들. 오전 9시쯤 5층객실앞에서 저희는 2박이라서 늣게 아직 자고있는데 청소아주머분들 너무시끄럽게 얘기하고 자기들끼리 목소리 크게 씨우고  너무 불편했네요 전혀교육이 안된분들 같아요 다른건 좋았어요~</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2022.07.19</t>
+          <t>2024.02.12</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>규정이 세세하여 까다롭게 느껴졌지만 덕분에 청소상태는 양호했어요
-3배드 침실 이용했고, 넓고 쾌적했으나 샤워부스 문이 떼어져 있는 등 세월의 흔적은 어쩔 수 없었어요
-이 외에는 대체로 가격대비 맘에 들었습니다</t>
+          <t>남자친구랑 부산 여행 가는김에 오션뷰 스파 하랴구 예약했어요! 이 가격에 이 시설을 이용할 수 있는 게 너무너무 만족스러웠습니다 객실 내에서 음식 시켜먹을 수도 있게 되어 있구 정수기 고데기 있는 게 좋았어요!!! 광안대교 딱 보이는 곳에서 행복한 추억 남긴 것 같아 좋아요 대신 일회용품 없고 수건도 부족하니 다들 가기 전에 비누 샤워용품 수건 챙겨가세요!</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1448,33 +1528,37 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2022.06.15</t>
+          <t>2024.02.02</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>해운대광장 길 앞에 있어서 하프오션뷰지만 바다도 보이고 좋고 침대도 엄청 넓어서 좋은데요~
-조금 오래된 건물이다보니, 욕실이 가장 취약한거 같아요~~ 욕실만 무난하다면 더 나은 숙소일텐데 그 점이 아쉬워요~~</t>
+          <t>고층배정받았고 뷰가 진짜 끝내줍니다~~♡♡
+파도소리 들으면서 깨는 아침이라니 ㅠㅠ 
+너무 힐링되고 행복했어요...ㅠㅠ
+눈과 귀 모두 호강하고 갑니다.
+청결도후기 때문에 걱정했는데 제 방은 깨끗하고 좋았습니다. 난방도 잘 되었고 정수기도 잘 이용했어요^^ 감사합니다♡♡
+다만, 엘레베이터가 두 개라 조금 답답했고, 샤워부스가 조금 좁긴 해서 체격있으신 분은 좁을 수도 있는 점 참고하세요^^</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2022.12.09</t>
+          <t>2023.12.29</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>부산 방문  때마다 들리는 이곳은 적어도 제 생각에는 가성비 갑이라는 평가를 합니다. 클린룸. 주차시설. 주변먹거리. 그리고 해운대 바다..,.
-하프오션뷰 업에 감살 뿐입니다.#^♡♡</t>
+          <t>숙소에서 찍은 광안리 해변인데 예쁘게 잘 나오네요- 숙소 자체는 좋고 편했지만 연박은 숙소 청소를 안 해준다는게 조금 아쉬웠어요… 엘레베이터가 너무 느려서 답답한 느낌도 있었지만 층이 낮아서 걸어다녔습니다 ㅋㅋ 방도 많고 넓어서 좋았어요 원룸방에서 바다를 즐긴거같아서 좋았습니다! 보일러도 엄청 뜨뜻합니다 굿굿
+답글 감사드려요! 청소부분은 분실물 있다는 이야기에 그럴수도 있다고 생각이 들었네용 그래도 손님 동의하에 침대시트만이라도 바꿀 수 있었으면 좋겠어요! 다음에도 찾아갈거같아요! 편히 잘 쉬다 갑니당!</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1484,17 +1568,20 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2023.10.19</t>
+          <t>2023.02.25</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>해운대에서 아마 제일 위치가 좋은 호텔 인것 같아요. 
-6층 프론트까지 가려면 4층에서 엘베 갈아타고 가야하는데 생각보다 헤매는 경우가 많은 것 같아요
-해운대 해수욕장, 먹자골목, 달맞이길 등등 접근성 좋고
-편의시설이 다 가까이 있어 매운 만족스럽습니다</t>
+          <t>늦게 입실하게 되었는데, 메시지로 예약 관련 문자 남겨주셨더라고요ㅎㅎ
+덕분에 바로 입실할 수 있었습니다!
+가운은 없어서 따로 잠옷 챙겨가시면 좋을 것 같습니다!
+뷰는 너무 좋았는데 늦게 입실해서인지 3층 배정받아서 도로 소음이 너무 잘 들리더라고요~ㅎㅎ
+테라스에서 광안리 즐기실 분들은 일찍 가시는거 추천합니다!
+정면뷰라 광안리는 정말 잘 보여서 만족했어요!!!
+침대도 완전 푹신푹신~~ 힐링 잘 하고 갑니다❤️</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1504,31 +1591,36 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2023.08.08</t>
+          <t>2022.11.14</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>일단 내부가 넓어서 좋아요 역이랑 바다랑 다 가까워서 이동하기 편해요 접근성 좋습니다 하프오션뷰라 바다가 애매하게 보이긴 하지만 나름 괜찮습니다 엘레베이터를 4층에서 한 번 갈아타고 방으로 이동해야하는게 번거롭긴 한데 적응하면 괜찮아요 이번에 묵었을 때 베개 쿠션이 너무 푹 꺼져서 조금 아쉬웠지만 해운대에서 가성비 좋은 숙소라고 생각합니다</t>
+          <t>측면오션뷰.거의 끝방이라 조금 아쉬운 뷰이지만 괜찮았습니다.
+주방시설.세탁기.정수기.전자렌지.헤어드라이어까지 잘 갖추어져  있었고,
+짐보관서비스도 이용가능해서 여행하기 좋았어요.
+다만 베란다  욕조는 옆과 앞에서  너무들여다 보이는 구조이니 참고해주세요.
+그리고 화장실 객실내 소등시 완전 다 보입니다..부끄부끄..- -;</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2022.06.15</t>
+          <t>2023.05.30</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>침대가 정말 크고 좋아요 고층이라 바다전망도 너무좋고 밤에는 시티뷰 야경도 잘 보여서 좋은거 같아요~ 낮에는 햇빛이 너무 강해서 좀 덥긴하지만 그래도 정말 좋네요 방도 사진보다 훨씬 넓고 커요! 나중에 해운대 오면 또 머물고싶은 호텔이네요!</t>
+          <t>2박했는데 오션뷰라 숙소에서 다 해결했고 아침 밤 풍경이 다달라서 그 맛도있었어용 ㅎㅎㅎ
+그리고 위치듀 좋고 주변에 편의점 맛집 술집 인프라 최고고 심지어 숙소에서 5000원이상 시키면 무료배달되는데 웬만한거 다 오더라구요 굿굿 ! 숙소에서 배달로 매드독 피자 꼭 드셔보세요 ㄹㅇ 극락 밤에 뷰보면서 피자 치즈 쭈우우욱 행복했다 부쏸~~~~!</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1538,33 +1630,36 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2023.02.05</t>
+          <t>2024.03.11</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>10층을 배정받았어요! 생각보다 해운대 바닷가가 숙소에서 잘 보여서 좋았고, 해운대 거리 바로 앞이라 접근성이 매우 뛰어나서 편했습니다.
-다만 커튼을 펼치는데 먼지가 장난 아니더라고요. 청결도 빼면 만족할만합니다.
-또 오게 된다면 올 듯하네요.</t>
+          <t>편하게 쉬고 좋은추억 잘 만들고 놀다갑니다.
+바다전망 광안대교 뷰도 좋고 시설도 깔끔합니다.
+근데 다만 아쉬운거는 화장실과 욕실안으로 들어가는 밖깥 유리문쪽이 문을 닫을때 심하게
+ "딱" "딱" 소리가 났었습니다.소리안나게 수리를 해주시면 좋을것같습니다.이것 외에는 전부다 시설이 마음에들고 깔끔했어요~특히 가장마음에드는건 냉장고와 바다전망 광안대교 뷰였습니다~^^다음에 또 오겠습니다~^^</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2022.08.23</t>
+          <t>2023.05.28</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>바로 앞에 바다와 사진 찍을 수 있는 곳, 음식점 등이 많아서 좋았어요 객실도 깨끗하고 6명애서 사용했는데도 엄청 넓었습니다 객실내에 전자레인지도 있고 냉장고도 커서 편했습니당</t>
+          <t>진짜 너무너무 좋아서 숙소 리뷰는 처음써봐요
+바다뷰 최고에 높은층이라 사람들 소리는 안들리고 파도소리는 잘들려서 힐링했어요ㅎㅎㅎ 숙소보다는 집같은 느낌이라 너무 편하게 잘쉬다 왓어요!! 
+간단한 취사도구 덕에 바다보면서 밥먹으니까 엄청좋아요❤️ 재방문의사 10000%입니당ㅎㅎㅎ 아쉬운점은 샤워기 수압이 약하고 물이 따뜻한정도로만 나오네용ㅠㅠ</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1574,17 +1669,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2023.05.21</t>
+          <t>2023.03.15</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>해운대가 바로 앞이여서 좋았어요 
-숙소도 깔끔하고 바로 오션뷰라 두근거려요
-다만 20층인가 부터 엘레베이터를 다른 엘레베이터를 갈아타야하는 점...
-1층에서 4층으로갔다 다른 엘베에서 6층데스크로 이동하고 또 다른 엘베에서 20층이상 가는 곳으로 여튼..엘베는 좀 정신 없었지만 이정도는 감수할만한 숙소에요&gt;.&lt;</t>
+          <t>뷰가 정말 다하는 숙소/서비스 등은 어차피 주인과 만날일이 없음!! 위치가 좋아서 주변즐길거리 먹거리 해변등을 다 즐길 수 있음 차량있는 사람은 주차비 별도 11000원이 든다는 단점이 있음/숙소에서 정말 저렇게 보임 바다보면서 와인한잔하기 너무 좋음</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1594,92 +1686,101 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2023.04.15</t>
+          <t>2022.03.21</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>방이 매우 넓은 편입니다 측면 오션뷰라 딱히 기대는 안했는데 매우매우 예쁘네요 대 만족했습니다
-깔끔하고 침대도 푹신해서 잠이 잘왔어요
-엘레베이터가 4층에서 갈아타야 하는게 조금 번거로웠지만 나머지는 대 만족 하고 갑니다~\</t>
+          <t>광안리 바로 앞이라 좋았어요!
+근데 해가 잘 들지 않는 방이라 그런지 눅눅하더라구요!
+욕조는 사용 못한다고 생각하시고 가면 됩니다. 
+그냥 해수욕장 바로 앞 가성비에 맞는 숙소라고 생각하시면 편할 듯 합니다. 
+숙소 찾는게 헷갈렸는데 프론트가 20층에 있어서 그랬던 것 같아요! 때문에 20층에서 체크인 하시고 배정박은 숙소로 가시면 됩니다. 
+방은 호텔이라기보다 오피스텔을 개조한 것 같네요!
+그래도 저렴한 가격에 재밌게 놀다갑니다!</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2024.09.18</t>
+          <t>2024.07.04</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>가성비는  너무  좋습니다.
-해운대해수욕장 앞이고 교통편도  좋습니다.
-시설이  좀  낙후된감이  있지만 비용대비  가성비가  좋아요.
-하프오션뷰에서  하루보냈는데  새벽에  파도소리에 깼지만  뷰가  너무좋았네요.</t>
+          <t>평이 안 좋길래 걱정했는데 그런거 치고는 잘 다녀욌습니다 가격에 비하면 조금 비싼편이긴 한데 위치 생각하면 이해됩니다 광안리 진짜 바로 앞이라 마실 다녀오기도 좋고 교통도 좋아서 편합니다 또한 주변에 술집이 워낙 많아서 저녁에 바다 보면서 마시기도 좋습니다 5층이였는데 그렇게 시끄럽지 않고 좋았어요 청결이나 비품 없는건 안 좋지만 위치 하나 때문에 다시 갈 의향 있습니다</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2022.03.19</t>
+          <t>2024.02.14</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>부분 바다전망이라 별 기대없었는데 넓고 뷰도 좋았습니다 청결은 좀 미흡했지만, 친절하고, 해운대와 동백섬이 근접해 있고 주변에 편의점 시장이 있어서 다양한 먹거리도 즐길수 있었고, 4층에서 환승하는게 좀 불편하긴 했지만 다음에도 또 가고 싶은 곳입니다 편하게 잘 쉬었다 왔습니다</t>
+          <t>뷰가 진짜 미쳤고 문에 방충망 있어서 파도소리 들으면서 잘 수 있어서 너무 좋았어요  근데 화장실은 밖에서 내부가 다 보이고 어메니티 없는게 아쉬웠지만 괜찮았어요 욕조 물 받을 때 화장실 물 수압이 좀 약해지고 주차비가 좀 비싸긴 하지만 다음에 또 이용 할 것 같아요</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2024.06.26</t>
+          <t>2023.05.12</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>가성비 쵝오네요
-해운대 바로 앞에다가 교통 접근성 좋습니다
-넓은 방사이즈에 베딩도 괜찮고
-그러나 룸에 있는 건 컵, 물 밖에 없네요
-씽크대는 인테리어용일 뿐, 접시 냄비 일절 없습니다
-참고하세요</t>
+          <t>뷰너무좋고 광안리바로앞이라 너무좋아요
+침구별로라는후기보고걱정했는데
+포근하고 엄청 좋았어요 조명도 3단계라좋았고 넷플되서 너무좋았어요
+모든게만족인데 청결에민감하신분은 참고하셔야될것같아요 긴머리카락이 욕실이랑 거실,휴지통위 눈에띄었네요.생수가 따로없어서 사가셔야해요 참고하세요.
+다음에도 다시 묵고싶어요.청결만 깨끗하게 관리해주시면 너무좋을것같아요</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2024.03.25</t>
+          <t>2022.11.24</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>엄마랑 이모와 함께 1박 묵었엇는데 하프오션뷰라해도 해운대 바다가 잘 보엿으며 방이 넓어서 답답하지 않다고 좋아하셧어요~~</t>
+          <t>여기 왜 평이 안좋죠?
+후기 때문에 걱정 많이 했는데
+정말 너무 편히 잘 묵고가요
+수건도 새거인지 엄청 뽀송 깨끗했고
+일반 3개 샤워타올 1개 충분했어요
+드라이 고데기 다 있고 멀티탭도 좋음
+리모컨 완벽했고 담에 와도 또 이용할 예정입니다
+뷰 최고구요 평이 안좋아서 며칠 맘고생했는데
+화가나네요ㅋㅋㅋ 그래서 후기를 남깁니다
+여기 아주 괜찮아요!!!</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1689,14 +1790,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2024.10.08</t>
+          <t>2022.10.27</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>나가면 바로 시장과 바닷가가 있어 편리 단지 엘베 갈아타기가 조금 불편 성수기때면 장난 아닐듯해요 담날 2시까지 주차되서 체크아웃하고 점심까지 즐길 시간은 될듯</t>
+          <t>단점을 찾을 수없었던 좋은 곳, 뷰는 물론 시설하나까지 다좋았던곳, 큰건물덕분에 입실이나 퇴실시 사람이 많은 것은 당연하지만 엘리베이터가 두대여서 수월하게 다닐 수있었습니다. 비밀번호라서 키형태가 아닌것이 더 좋았고 룸 업그레이드해주셔서 생일날 더욱 기분좋은 하루를 보냈답니다 감사합니다~</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1706,35 +1807,33 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2024.01.24</t>
+          <t>2022.02.17</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>숙박업그레이드한거라 넓게 잘묵었어요
-하프오션이라 해운대바다도 보이고
-다만 시설이 쫌 노후된것과 레지던스지만 식기가 준비안되어있고 돈을 지불해야 대여할수있는게
-조금아쉬웟어요..
-엘베 환승은 크게 불편하진않았어요^^</t>
+          <t>방이 작다는 평이 많아서 걱정했는데 하루만 지내는거니깐 괜찮아었요 그리고 화장실과 샤워부스가 가까이 있어 열고 닫는데 좀 힘들고 딱 한명이 쓰기 딱 좋아요 그리고 화장실 가까이 가면 안쪽 다 보이더라고요
+멀티탭이 없는줄 알았는데 있었고
+정면 스파는 스파기능이 있는 욕조는 아니고 그냥 욕조이고 가끔 한쪽 벽이 없는 곳에도 걸릴수있어 미리 전화를 드리니 양쪽 벽이 있는 곳에 걸려서 매우 재밌고 심지어 욕조에서 누우면 드론쇼까지 볼수있어서 매우 즐거웠어요~</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2023.11.21</t>
+          <t>2022.05.17</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>위치 편의시설 모두 만족합니다 해운대 투숙시에는 씨클라우드 레지던스만 투숙합니다 다만 이번투숙때는 청결에 조금 아쉬움이 있긴했지만 가성비면에 있어서는 아주 만족합니다</t>
+          <t>개인적으로 현실적인 리뷰 할게요 가격면에서 바다가 보이는 오션뷰 반밖에 안보인다고하지만 보일건 다보이네요 욕조 에서 반신욕도 즐겼어요 온도가 살짝 아쉬운부분 그리고 화장실 세면대 물이 잘안애려가는부분  그외는 너무 좋네요 다음에는 더 좋은 뷰 로 가고싶어요 오션뷰 가 어떤늤낌인지ㅡ알려주는 숙소엿어요 굿</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1744,17 +1843,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2022.02.05</t>
+          <t>2022.01.24</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>생각보다 객실이 엄청 넓어서 좋았어요 ㅠㅠ
-짐이 많았었는데 편하게 풀 수있었거든요 !
-바다뷰도 넘 좋았고 저녁에 아침에 보는 오션뷰는 느낌이 확연히 달랐어요
-위치로도 너무 좋았고 주변에 구경할 곳도 많아서 일석이조 !</t>
+          <t>친구 오피스텔에 간 느낌이라 편하고 좋아요!! 다른 호텔 방 보다 훨씬 나은 것 같아요! 사진으로만 보고 결정하기엔 겁난다 하시는 분들 걱정 안하셔도 될거같아요!! 타지라 어떻게 해야할지 잘 모르겠다 하시는 분들 추천해요!! 스파도 물 따듯하게 너무 좋았습니다!! 스파는 입고 들어갈 반팔 반바지 챙겨가셔야 해요!! 정수기도 있고 냉/온수 다 나와서 좋았고 기본 식기가 있어서 너무 편했어요!! 도어락이라 카드키나 열쇠 분실 걱정이 없어서 좋아요!! 늦게 일어나서 급하게 나오느라 냉장고에 두고 온 알로에 음료수 세병... 눈물나네요..ㅜ</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1764,15 +1860,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2023.02.28</t>
+          <t>2022.01.17</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>한건물에 2개의호텔이 나눠져있습니다 코오롱씨클라우드랑 씨클라우드해운대 / 다좋은데 엘리베이터가 좀 혼잡스럽네여 ㅎㅎ
-조식 인당 2만5천원 먹을만한데 조식드시려면 다른사이트에서 조식포함상품으로 비교결제 어떨까싶어요 ㅎㅎ</t>
+          <t>후기보고 기대반 걱정반으로 갔는데 전 너무 만족하다 왔습니다 ! 쾌적하고 교통도 편리하고 저희가 여섯 시 이후에 입실했는데 까먹고 미리 연락 못 드렸는데 저희가 문자하기도 전에 미리 문자 주셨더라구요 ㅠㅠ 👍🏻 다음에 광안리 또 온다면 여기 또 올거같아요 !! 아주 만족하고 갑니당 🩷🩷</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1782,31 +1877,38 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2022.07.28</t>
+          <t>2023.09.08</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3일 동안 푹 쉬다가 왔습니다. 창 밖으로 보이는 해변 경치 아주 굿 입니다. 침대 푹신하고요. 일부 좀 낡은데가 있지만 풍경이 모든 걸 용서합니다. 직원 친절하구요</t>
+          <t>아들이랑 엄마랑 1박으로 부산여행갔었어요
+오션뷰가 바로 보이는 호텔레지던스로
+쵝오였구요 그날 마침 핼로윈축제라서 구경하기 좋았구 드론쇼도 운좋게 보게되서 넘 좋았어요
+객실 컨디션은 보통입니다
+특히 화장실문이 안에서 닫아지면 잘 안열리구요
+침대난간 모서리가 튀어나와있어서 몇번이나
+부딪혀서 다리에 멍들었어요
+그리구 세제용품이 부족하니 따로 챙겨가셔야됩니다</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2023.04.25</t>
+          <t>2022.11.09</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>가족 모두 같이간 여행! 그누구도 불만없이 모두 엄지척한 최고의 가성비 숙소! 부산 해운대는 여기만 생각해도 되는곳입니다.</t>
+          <t>우선 전부 5점을 주긴했는데.. 사실 매번 정면뷰만 예약했다가 측면으로 했더니 실망이 큰게 사실이었슴다ㅠ 정면뷰랑 비교가 안되네요~ 아쉬웠지만 그래도 극성수기 주말에 너무 저렴하게 예약을 잘해서 그걸로 만족합니다~ 이 숙속의 가장 큰 장점은 요리를 해먹을수있다는점!!ㅋ 뷰는 실물보다 사진이 잘나왔어요</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1816,51 +1918,51 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2022.05.24</t>
+          <t>2022.10.21</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>숙도 시설은 좋았으나 2인 침대 시트에 립스틱 자국 그대로 남아있고 베개 뒤에도 머리카락이 3가닥정도 남았던게 아쉽네요 그것만 제외하면 정말 좋았습니다!!! 특히 프런트 담당자님이 친절하셔서 너무 좋았어요!</t>
+          <t>야경 최고 ! 4인 예약했지만 이불은 하나, 추가 이불을 요청했을땐 이미 7시가 넘어서 이불 하나로 하루를 보냈네용 그 부분 빼고는 전체적으로 만족! 그 외 다들 친절하셔서 저는 주차비 11,000정도는 아깝지 않았어요! 다음에 또 방문하고싶어요</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2023.02.19</t>
+          <t>2022.07.11</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>해운대 가성비 최고 호텔인 것 같아요. 레지던스라서 방도 널찍하고, 인티니티풀도 너무 좋아요. 해운대 해수욕장도 너무 좋고, 하프오션뷰였는데 충분히 좋은 뷰였어요. 굿굿!!</t>
+          <t>무인으로 되있는데 관리자분 일처리 깔끔하고
+방음도 걱정과는달리 잘됐습니다
+그리고 바로앞 뷰는 두말할꺼없이 완벽 해변을보며 술한잔 퍼펙트 건물 바로앞에 편의점도 있어서 좋고
+주차시설은 헬입니다...마감 한시간전쯤 미리 나오시는걸 추천드립니다</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2024.08.08</t>
+          <t>2022.07.11</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>해운대 해수욕장 바로앞에 있어서
-좋았고 창문으로 바다쪽광장도 보여 좋았습니다.
-다만 잘때 밖의소리가 조금 시끄러울수있으니
-참고하시면 좋을듯해요</t>
+          <t>야외옥조가 있어서 파도소리들으면서 힐링하기 너무 좋았어요 주방도있어서 밥해먹을수도있는거도 좋았고 광안리 바로앞이어서 주변에 할것도많았고 친구 집 놀러온 기분으로 편안히 휴가보내고왔습니당 다음 부산여행때도 여기로 올것같아요🥰</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1870,16 +1972,16 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2024.06.30</t>
+          <t>2022.02.08</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>4년만에 방문한곳 ㅎㅎ 부산 오면 여기서만 머물러요 프론트 언니분 너무 친절하세여^^
-위치도 교통도 앞에 버스정류장있어서 뚜벅이 여행도 편하실듯해요 뷰도 너무좋고요 ㅎㅎㅎ
-짧은 2박이였지만 담엔 좀더 길게 휴가오고 싶어요^^</t>
+          <t>속소가 너무너무 좋아요! 뷰가 미쳤어요~~~ 들어오자마자 딱! 바다뷰 + 광안대교! 그리고 드론쇼 명장입니다! 
+안에 좀 넉넉하고 시설도 너무 깔끔하고 좋아요~ 정수기도 있고, 침대도 깔끔하고 배달 기계도있어서 너무 편하고 좋았어요~
++ 일찍 도착해서 짐보관도 해주시고, 퇴실할때 시간이 좀 애매해서 잠깐 짐 맡아도되는지 문의했는데 흔쾌히 보관해도 된다고 하셔서 너무 감사합니다~ ^^</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1889,91 +1991,92 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2023.01.13</t>
+          <t>2024.06.16</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>방이 정말 크고 침대도 정말 크고 냉장고도 크고 좋은데ㅠ
-화장실은 진짜 ,,, 너무 작고ㅠㅠ 샤워부스도 너무 작네요
-그리고 아침에 햇살이 직빵이에요…….;;;;;;;;;
-와 겨울인데도 더워 죽는줄 ^^. 커튼을 열수가 없었어요</t>
+          <t>급하게 예약 잡았는데 뷰가 너무너무 좋았어요!
+밤에는 광안대교랑 바다 앞에서 요트타며 불꽃 놀이 하는 것도 보여서 분위기가 더 좋네요
+방음도 괜찮은 것 같은데 화장실은 굉장히 좁고 어메니티는 하나도 없어서 다 준비하거나 프론데스크에서 사야 한다는 건 단점이지만 그거 외에는 정말 좋은 곳!</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2022.12.20</t>
+          <t>2023.09.22</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>해운대 해변가 호텔중에서는 
-위치나 가성비는 아마 최고인듯~
-청소 상태가 약간 아쉬워서 글치만
-몇일 묵기에는 넘 굿임</t>
+          <t>방컨디션 좋고 / 광안리해변 바로 앞이여서 접근성은 최고입니다 /다만 야외욕조의 위치가 옆건물이 바로 보이고 옆객실이 보이는 구도라서 아쉬움이 남았습니다. 만약 다음에 이용하게되면 굳이 야외욕조는 선택안할 것 같네요.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2022.12.18</t>
+          <t>2023.06.08</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>위치좋고  부분 바다뷰이지만 충분히 좋았어요 객실이 넓고 깨끗하며 1박에 전혀 지장 없이 잘 지냈어요
-불편한 점은 엘리베이터가 한번에 가지 않고 4층에서 다른 엘베로 갈아타야 1층 갈 수 있다는게 불편한점입니다</t>
+          <t>정면 측에서 봤을 때 숙소뷰 입니다 진짜 뷰 하나는 끝내줘요 광안리에서 몇번 자봤는데 여기가 찐 근데 다만 시설도 깔끔하고 좋았는데 뭐 고데기나 가운 같은 건 없어요 ㅠ 그리고 웬만하면 집에서 칫솔 가지고 오세요 ㅠ 이 점만 빼면 만족스러워요</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2023.07.11</t>
+          <t>2022.10.21</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>후기가 안좋아서 걱정하고 갔지만!! 너무 좋았습니다~~^^청결도 안좋다고 그랬는데 깨끗했어요~~ 특히 뷰가 최고입니다!!^^ 바로 앞에 해운대가 있어서 산책하기도 좋구 좋았어요~~ 
-다만..퇴실할 시간에 엘리베이터를 오래 기다렸지만.. 좋았습니다^^
-다음에 또 오고 싶을정도입니다😉</t>
+          <t>가성비로 광안리 바다 보기 가능
+한번 주차하면 다음날 빼야됨
+주차비 따로11000원 청구
+안에 전자레인지 조리기구 있음
+욕조에 누우면 전망 안보임
+주차 뺄때 대기자 많아 오래걸림
+주차빼고 만족합니다</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2022.10.02</t>
+          <t>2024.09.01</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>해운대하면 여기만 가네요. 시설은 최신은 아니지만 그 어떤걸로도 대체할수 없는 바다뷰와 위치! 가성비좋다는 말은 이럴때 쓰는 거라 생각됩니다.</t>
+          <t>광안리 바다 바로 앞이어서 접근성 너무 좋구요 방은 좀 좁고 샤워부스도 좀 작지만 좋았어요ㅎㅎ
+음식먹는테이블 없는거랑 침대 이불이 너무 고정이 안되는게 불편했지만
+정수기 있는거, 방에 키오스크로 바로 주문하는거 등등 너무 좋았습니다~! 다음에 또 오고싶어요</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1983,14 +2086,18 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2022.05.24</t>
+          <t>2024.06.10</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>교통.주변환경으로의 접근성.주변 편의시설. 전망등 모든것이 다 좋습니다. 덕분에 생각보다 훨씬 감동적으로 여행을 하게되어서 만족스러워요</t>
+          <t>덕분에 남자친구랑 환상적인 부산여행 보냈습니다
+낮이나 밤이나 둘다 풍경이 너무 아름다워서 겨울이라 넘 추웠지만 밖에서 바다를 볼 수 밖에 없었네요 ㅎㅎ너무 행복한 시간이었습니다....🌉🌅😌
+어메니티 없어서 미리 챙겨가시길 바랍니다
+제 인생최고의 숙소뷰였습니다 
+감사합니다 사장님</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2000,33 +2107,31 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2022.03.29</t>
+          <t>2024.02.10</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>진짜 좋았어요 
-바닷가바로앞이고 해운대 중심 시내도로가 쫙펼쳐져있고 밥집 맛집 다~~~모여있어서 정말 다시가고싶어요
-숙소  컨디션도 좋았어요</t>
+          <t>위치가 너무 좋았어요! 가성비갑이고 컨디션도 좋고 침구도 깨끗하고 너무 좋아유 두번째 방문인데 만족하고갑니다 ㅎㅎ 다만 엘리베이터가 두대뿐이라 아침에는 엘베 타는게 쫌 오래걸려요ㅠ ㅠ 단점은 하나지만 그 외의 장점이 너무 많아서 엘베정도는 괜찮답니당&gt;&lt; 잘묵고가요!!</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2022.12.20</t>
+          <t>2023.08.08</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>가족여행이었는데 가성비 너무너무 좋았어요 위치 교통 너무 좋았고 하프오션뷰였는데 바다 뷰 진짜 너무 이뻤어요 하나 아쉬운건 엘베가 좀 불편해요 한 번 갈아타야 돼서 그러나 지인한테 추천할 만큼 괜찮습니다!</t>
+          <t>위치 , 뷰 , 평일기준 가격 도 좋아서 평일에 광안리 갈때 여기만 이용해요! 다 좋은데 테라스 유리 청소를 하든 바꾸든 유리만 깔끔하면 진짜 최고의 숙소 일거같아용 ㅜ</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2036,48 +2141,56 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2022.03.01</t>
+          <t>2024.09.13</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>오션뷰 객실이 아님에도 불구하고 바다가 조금 보여서 좋았어요 ㅎㅎ 그리고 확실히 넓어서 객실 이용에 불편함이 없었어요 다만 아쉬운건 어매니티! 샴푸랑 바디워시가 거품이 잘 안나요 ㅠ담에 거품 잘 나는걸로 바꿔주시면 감사할 것 같아요!</t>
+          <t>진짜 뷰 맛집이예요.
+광안대교 직관 1열👍🏻👍🏻
+진짜 친구집 놀러간 느낌!
+주차도 편하고 방도 깨끗.
+평일이라 가격도 너무 저렴했어요.
+단 한가지 아쉬운 점은 
+세면대 물이 좀 늦게늦게 빠져요.
+그거 빼면 다 좋아용</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2022.02.25</t>
+          <t>2022.12.07</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>헤운대 바로 앞에 가성비 좋은 호텔입니다. 방음 잘되고 침대도 푹신하니 좋았어요~ 다만 트리플룸인데 수건이 2인용밖에 구비가 안되어 있고 추가 수건은 구매를 해야한다는 점이 아쉬웠네요.</t>
+          <t>급으로 간 여행이였는데 바로 앞에 광안리해수욕장이 사진 처럼 펼쳐지고 침대도 이쁘고 귀엽게 되어있었어요 안에 간단하게 음식
+해먹을수 있게 냄비,그릇같은것도 배치되어있고 베란다에 욕조가 있어서 바닷소리 들으면서 몸 담구면 힐링이 제대로 되더라고요 욕실은 좁지만 그래도 좋았아요 어메니티 없으니까 챙겨가시는기 좋을거예여</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2022.07.03</t>
+          <t>2023.05.06</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>교통도 편하고, 주변에 먹거리 볼거리도 많고 뷰도 되게 좋아서 즐거운 여행을 했습니다.  재방문 의사 있습니다! 꼭 이용해보세요. 가성비 최고!</t>
+          <t>진짜 숙소 들어가자마자 모든 스트레스가 뚫기는 기분이였어여 진짜 탁트인 뷰에 앞에 버스킹을 해서 테라스에 앉아서 멍때리면서 힐링 제대로 했어요ㅜ 불편한것 하나없이 잘 이용했습니다 주변에 번화가라 먹고 바닷가 걸으면서 오기 딱좋구요 가격도 비싸지않아서 다음에 또오면 여기 올것같아요!</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2087,38 +2200,34 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2024.06.03</t>
+          <t>2023.04.04</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>오래된 호텔이지만 해운대 바로 앞이라 위치는 정말 좋아요
-엘리베이트를 갈아타야 하는것이 살짝 마이너스
-숙소는 넓고 좋았습니다
-시설이 좀 낡아서 리모델링 한번 하면 좋겠다는 생각이 드네요</t>
+          <t>뷰하나로 끝남 문 열어두면 들리는 파도소리가 최고임!!!¡!
+엘베도 빨라서 좋았음
+대신 화장실이 좁아서 문 열고 닫기가 불편함
+침대프레임이 커서 그런가 벽쪽에 공간이 살짝 비는데 거기 먼지가 잔뜩이었지만.... 나머진 싹 다 만족</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2022.03.01</t>
+          <t>2023.03.16</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>위치 좋아요 
-해운대 바로 앞이라 식당도 많고
-쓰리 베드 룸 찾기 어려운데
-친구 3명이서 머물기에 딱이 었어요😊
-가성비 좋은 숙소 입니다👍</t>
+          <t>바로 앞이 광안리여서 너무 좋았어요!!호텔 내부에서도 보이고 체크인 하자마자 우아~~이랬습니다!!객실두 깨끗했어요 다만 샴푸 린스 비누가 없어서 또오끔 아쉬웠어요🥺그래도 다음에 부산 가게 되면 또 이 곳에서 머물만큼 만족합니다ㅠㅠ</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2128,16 +2237,15 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2024.01.19</t>
+          <t>2023.03.06</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2박3일동안 좋은 숙소에 머물러서 좋았습니다!!!
-20층 배정받아서 시티뷰랑 오션뷰 둘 다 보였어요!
-재방문 의사 100프로이고 직원들도 상냥하셨어요 깔끔하고 시설 잘 구비되어 있습니다! 장점만 가득한 숙소 입니다 뷰가 끝내줘요~!☺️</t>
+          <t>역에서 걸어서 5분도 안걸리고 바로 앞에 바다 볼 수 있어서 좋았어요
+근데 옆에 건물 공사 기간이랑 겹쳐서 진짜 아침에 깡깡거리는 소리때문에 깼어요ㅠ 그래도 숙소 자체는 오피스텔 느낌이고 깔끔해서 편하게 쉬었습니다 공사만 아녔음 완벽했어요</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2147,17 +2255,15 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2023.10.04</t>
+          <t>2022.12.02</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>해운대 시장이랑두 가깝고 해변 뷰도 잘 보여서 너무 좋았습니당, 담에 또 방문할게요ㅎㅎㅎㅎㅎㅎㅎㅎㅎㅎㅎ
-엘베 환승 불편하다고 햇는데
-전혀 불편함이 없엇어요
-잘 쉬다 갑니다</t>
+          <t>전망하나로 모든걸 커버해줍니다 화장실이 좁지만 쓸만하고 그리고 어메니티없지만 챙겨와서 다행이였고 
+키오스크도 있는데 불가여서 못했지만 사용했으면 편했을거같고 전망이 모든걸 답해줍니다 계속 발코니로 나가더라고요</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2167,55 +2273,58 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2023.09.20</t>
+          <t>2024.10.18</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>가족 여행으로 숙박하였습니다
-접근성 은 굿
-시설도 굳이 나쁜건 없습니다
-전 개인적으로 만족합니다
-재방문 할 생각 90퍼</t>
+          <t>청결에 대한 후기가 꽤 있던데 음 입실했을땐 밤이라 몰랐는데 아침 되니까 살짝 보이긴 하더라구요 ㅎㅎ 하지만 숙소나 뷰 보면 사실 다 까먹을 정도에요 암튼 재방문 의사 완전 있음 또 갈래요 ㅠㅠ</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2024.01.15</t>
+          <t>2022.01.12</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>위치 서비스는 나무랄데가 없이 좋았습니다 다만 침대는 더블베드 하지마시고 꼭 트윈으로 하시길 추천드려요 매트리스가 많이 별로더라구요 ㅜ 그 외에 나쁜점은 없었던거 같아요</t>
+          <t>대체적으로 깔끔했어요.
+뷰가 정말 👍
+길 건너 바로 바닷가라서
+너무 좋았어요🤭
+숙소에서 배달 할 수 있고😀
+정수기가 있어서 좋았어요.
+주방 세재는 있는데 
+수세미는 없었네요;;
+체크인시
+종이로 주의사항 안내를 해주시지만
+주차 관련 해서는 이야기를 해주시면 좋을것 같아요.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2022.08.08</t>
+          <t>2024.05.20</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>23층 오션뷰 진짜 대박이었어요
-비가왔지만 야경도 좋고
-방도 넓어서 편히 지내다왔어요(성인3명)
-엘리베이터 환승 불편은 미리 감안하고 간거였고 위치나 뷰가 너무 좋아서 만족합니다</t>
+          <t>바다가 보이는 오션뷰에 저렴한 가격, 숙소 내부에는 건조 기능까지 들어간 세탁기와 비데가 있는 변기 커다란 냉장고에 홈서비스까지... 나무랄데 없는 숙소였습니다. 앞으로 부산 여행 간다면 이 숙소에서만 묵고 싶어요.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2225,18 +2334,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2023.05.08</t>
+          <t>2024.02.16</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>프론트 직원분들도 너무 친절하셨고
-방 뷰도 좋았어요!!
-침대도 엄청커서 2명이서 엄청 편하게 잤네요
-다른 지인들한테도 추천 할정도로 만족했습니다
-유명관광지랑 다 걸어서 다녀도 좋을정도로 위치면에서도 만족했어요!</t>
+          <t>4시 입실이라 맞춰갔더니 주차와 엘리베이터가 조금 밀리긴 했으나 다른분들의 평과 같이 뷰가 모든걸 용서해줍니다 다음에 또 방문 예정입니다</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2246,17 +2351,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2023.03.06</t>
+          <t>2024.10.07</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>숙소가 넘 좋았어요~~25층 이여서 해뜨는 모습까지 장관입니다요😅
-접근성도 해운대해수용장 도보 1분 뒤길 시장 넘 좋았어요~~
-잘쉬다 가요~~
-다음에 또 갈께요</t>
+          <t>뷰 때문에 가요
+물론 시설도 너무 깨끗하고 좋아요
+이번이 두 번째 이용인데 비싼 비용으로도 가고 싶을 정도고 다음에 또 방문할 수 있으면 할거에요
+그런데 샴푸, 린스가 거품이 너무 안나고 세면대 물이 잘 안내려가요ㅠ
+이것만 보완 부탁드립니다ㅠ
+다음에 꼭 또 방문할게요~♡</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2266,16 +2373,15 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2023.01.30</t>
+          <t>2022.06.08</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>오션뷰 숙소라 야경이 진짜 멋졌습니다.
-다른후기처럼 엘베를 탈때 4층에서 내려서 다른 엘베로 갈아타야하는데 얼베가 금방와서 크게 불편함은 못느꼈습니다. 시설은 오래되긴했으나 깨끗하게 청소되어 괜찮았습니다.
-해운대와 가까워서 이동이 편리했습니다.</t>
+          <t>침구류도 깨끗한데 야경까지 너무 이쁘게 볼 수 있는 숙소여서 너무 만족하면서 숙박했어요 !!
+다만 세면도구는 따로 구매를 하거나 챙겨가야 해서 처음 가는 분들은 참고하시면 좋을거 같아요!</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2285,31 +2391,35 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2022.08.31</t>
+          <t>2024.10.04</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>정말 위치 최고예요 방도 넓고 좋았어요!!! 숙소 금액이 위치와 수영장 등등 모든걸 따져봤을때 매우 합리적이라고 생각해요!</t>
+          <t>당일예약한거라 안좋은 방이 배정될거라 어느정도 예상했는데 바닥 타일이 하나 빠져있었고 스탠드엔 전구가 없고 테라스엔 불이 안켜졌네요.
+4층이여도 오션뷰가 제대로 보여서 머무는데에는 크게 불편하지는 않았지만 수리해야할 부분은 수리를 해주셔야할 것 같습니다.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2022.08.22</t>
+          <t>2024.05.03</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>해운대 해수욕장이랑도 너무 가깝고 31일에 바다에서 폭죽 너무 멋있었어요. 호털 하프오션뷰인데 진짜 너무 멋있었고 주차도 너무 편했어요 주변에 먹을곳도  많아서 작년에도  여기  이번년도도 여기왔어요</t>
+          <t>숙소가 참 깨끗하고 전망도 너무 좋았습니다
+어메니티가 미리 없는걸 알아서 샴푸 이런건 없는게 이해가 됩니다
+근데 숙소에 도착해서 로비에 갔을때 사람이 아무도 안계셔서 로비에 15분동안 대기해야했지만 오자마자 어물쩡 넘어가시더라구요😂
+교대시간이 안맞으셨는지 모르겠지만 아쉬웠습니다</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2319,31 +2429,31 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2022.08.06</t>
+          <t>2024.10.09</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>가성비 매우 좋고 해운대 바로 앞이라 위치도 최고. 올라가는 길이 번거로운 게 그나마 단점이지만 나머지 장점들에 묻힙니다.</t>
+          <t>여기 찐 뷰 맛집입니다!숙소 이정도면 깨끗하고 침구도 뽀송뽀송하니 좋았고 광안대교 바로 보이고 다시 광안리가면 무조건 여기로 픽할껍니다~~~~담엔 무조건 연박!아침일찍  배가고파 배민으로 우동까지 주문해서 먹을수있는 숙소 짱입니다👍🏻잘 쉬다 갑니다^^</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2023.02.11</t>
+          <t>2022.06.30</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>급하게 잡은 숙소였는데 위치랑 청결도를 제일 중요하게 여기는 입장에서 최고였어요, 가격도 착했구요. 방을 잘 배정받은 것 같기도 해요ㅎㅎ에어컨은 틀질 않았어서 이것까진 어땠을지 모르겠어요!</t>
+          <t>광안리바다에 풍덩~~시원하게 물놀이하고 숙소로 체크인. 뷰가너무좋고 세탁기에건조기능까지 물놀이를해도 갈아입을옷 걱정이 없었어요. 방도 화이트톤의 깔끔해요. 저녁에 욕조에 물받고 야경의 광안대교를 보면서 또한번 좋았어요. 다시 오고싶어요😊</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2353,15 +2463,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2022.05.17</t>
+          <t>2022.06.24</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>해운대 바다도 잘 보이고 객실도 깨끗했어요
-엘레베이터는 2대 뿐이라 조금 오래 기다려야 하네요</t>
+          <t>정말 좋아요! 위치도 좋아서 뚜벅초들도 오기 좋아요.
+방도 엄청 깔끔하고 비품도 넉넉히 챙겨져있었어요.
+욕조 따뜻한물 엄청 잘 나오고 밤 야경이 진짜...👍👍
+아침에 베란다 열어놓고 침대에 누워 있으면 바다도 잘 보이고 파도소리도 잘 들려서 힐링그자체에요..</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2371,52 +2483,48 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2024.09.21</t>
+          <t>2022.01.10</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>일단 향기가 너무 좋아요 
-그만큼 관리를 잘한다는거죠
-저는 냄새나는곳은 아무리 이뻐도 못지내거든요
-앞으로도 지금처럼 아름다운 호텔 부탁드립니다. 
-해운대 최고의 호텔 씨클라우드 영원하라~ ^____^</t>
+          <t>따뜻함과  배려 없는 사무적인 비지니스 호텔로서 최고 조망 기대 없이 왔다면 별5게 반대편 오피스 반바지 여사님 조망 민망함에 올 커튼 깜깜이 호텔</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2022.04.08</t>
+          <t>2023.11.24</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>지하철역이랑 가깝고 주변에 올리브영 스타벅스 등 인프라가 좋아요! 직원 분들도 친절하시고 잠깐 자고 가기 좋습니다! 가격 대비 좋은 호텔이였어요~너무 건조하지도 습하지도 않고 따뜻하게 잘 자다가 갑니다!</t>
+          <t>체크인이 20층인데 숙소는 4층인 것이 번거로웠고, 어매너티가 수건과 헤어드라이어 밖에 없다는 것이 아쉽다.대신 건조기능까지 있는 빌트인 세탁기가 구비되어 있었다.광안대교 전망이 좋고 바다가 아주 가까우며 편의점과 식당이 주변에 많아서 편리했다</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2022.02.24</t>
+          <t>2023.11.17</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>위치는 진짜 바로 해운대 해수욕장 바로 앞이라 너무 좋았어요. 아무래도 오래된 호텔이라 방 상태는 낡은 느낌이 들지만 1층에 편의점도 있고 해운대역이랑 가깝기도 하고 만족합니다!</t>
+          <t>시설은 상당히 관리가 잘되어 있어 깨끗하고, 좋았습니다. 다음에 또 방문할 의사가 있고요, 다만 건물 입구에 별다른 안내가 없어서 헤맨 것과 샴푸등 물품을 사러 20층에 올라갔지만 9시 이후에는 문을 닫는다는 안내가 없어서 다시 1층의 편의점으로 가야했던 점은 아쉬웠습니다.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2426,53 +2534,49 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2022.06.22</t>
+          <t>2023.10.15</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>좀 비싸지만 오션뷰와 도시뷰를 동시에 느낄 수 있었고 편안하게 잘 이용.다만 호텔시설이 좀 낡았다는 느낌과 엘레베이터를 4층에서 환승해야 함은 불편.</t>
+          <t>뷰는 최고에요! 바로밑에 편의점 카페 식당 회타운도가깝고 해수욕장도가깝고요!
+근데 좀 잘때 예민하신분은 파도소리랑 숙소옆에 강아지가 좀 짖어서 시끄럽긴해요 주의하면되실듯</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2024.06.02</t>
+          <t>2023.01.25</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>가성비  짱! 짱! 짱! 
-침대가  살짝  불편했지만   하프오션뷰 치곤  넘  좋았어요
-직원분들  다들  친절하세요 ^^
-바다, 먹자골목, 지하철  바로 앞이예요  ㅎ ㅎ</t>
+          <t>광안대교 뷰 정말 좋아요 연박하기도 좋고 방 컨디션도 좋아요 다만 주차가 좀 불편해요 건물 지하주차장이 아닌 뒷편 기계식 주차장 이용해야해서..그리고 세면도구는 따로 챙겨야해요</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2022.03.27</t>
+          <t>2023.09.07</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>해운대 바로앞이라서 좋고 가격대비 룸컨디션도 좋았어요 직원분들도 친절하세요
-악간 불편한것 엘벨 갈아타는거 정도입니다
-담에도 또 이용할께요</t>
+          <t>광안해수욕장 바로 앞에 위치하고 있어서 놀기 좋고, 객실과 침구류가 깨끗해서 좋았어요. 다만 욕실 거울 옆에 누가 적어놓은 글씨가 그대로 적혀있더라고요 좋은 글이 아니었어서 청소하실 때 유리도 봐주시면 좋을 것 같습니다</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2482,88 +2586,99 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2024.01.07</t>
+          <t>2023.08.07</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>진짜 대애박 숙소입니더 엘리베이터 조금 불편한거빼고는 완전 대만족이고요 수영장은 성수기에 기대하시진 말고 가시는걸 추천드립니다</t>
+          <t>샤워실뜨거운물은 뜨끈 베란다욕실은 살짝따뜻 추워서 욕조방예약했는데 쓰지도못함 겨울엔 그냥 테라스테이블있는곳이나음 돈더쥐고예약한건데 후기들봤지만 역시나설마설마했는데 못함 그래도 뷰가가장좋은곳이라 또가고싶음</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2023.08.08</t>
+          <t>2022.03.01</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>넓고 미친 오션뷰, 편안한 침대까지 너무 좋았습니다  해수욕장30 초컷은 더할 나위없이 굿~^^</t>
+          <t>지하철역과 광안리해수욕장 가까운 것 좋았습니다
+17시~01시 홈서비스도 가능해서
+합리적인 가격에 이용하고 맛도 좋았네요
+오션뷰도 아침, 밤 다 좋았고요
+청결 관련 후기 보고 걱정했는데 쏘쏘했어요
+샤워부스 좁고 엘베 2개 뿐인 것 빼면
+전반적으로 괜찮았어요</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2024.10.07</t>
+          <t>2024.04.15</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>뷰는 하프오션이어도 좋았어요
-친절도는 보통
-룸컨디션은 오래됨
-교통 위치 접근성은 최고
-제가격 주고는 안 올듯</t>
+          <t>지하철 역에서 걸어서 10분 정도 걸리며
+시설은 깨끗했으며 냉난방 시설도
+잘되어 있어요
+광안리 보이는 숙소를 찾던 와중에
+위더스 오션을 보게 되었고 
+뷰가 너무 마음에 들어서 예약했습니다
+와..뷰가 정말 끝내줍니다
+바다만 하루종일 보고 있어도 
+좋을 정도 입니다 
+아주 마음에 들었어요</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2024.01.26</t>
+          <t>2022.05.09</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>다좋았어요 근데 딱 하나 보일러가안되서 추워 죽는줄 새벽에 추워서 이불꽁꽁 말아서 잘정도였음 그리고 조식은 숙소 머무는사람들에겐조금이나마 저렴했음합니다 그거말고는 전반적으로 다좋았어요</t>
+          <t>바로 앞에 광안리해수욕장이 보이고,
+인근상가들과 매우 밀접해있어 편리합니다
+엘레베이터 이용객이 많아 조금 기다려야하는점이 있습니다 😅😅</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2024.01.23</t>
+          <t>2024.10.07</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>배정받은 방이 불량이어서 말씀드렸더니 뷰가 더 좋은방으로 바꿔주셨어요
-해운대뷰 짱이구요 근처에 순두부찌개 가게 있는데 거기 맛있어요 !!
-버스 타기도 좋고 아주 좋습니다</t>
+          <t>침대도 폭신하구 바로 앞이 바다여서 경치 좋은 곳에서 편하게 쉬다 가요! 20층 프론트 갔더니 다른 호텔이랑 같이 있길래 조금 놀랬어요 잘못 들어온 줄 알구..ㅎㅎ</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2573,34 +2688,31 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2023.02.19</t>
+          <t>2024.02.23</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>위치가 너무 좋았어요. 바다수영하고 오기도 좋고 동백섬 산책후 더베이101야경보며 차 한잔도 좋았습니다.힐링 잘 하고 왔습니다.  하프오션 좋아요</t>
+          <t>침대 근처에 콘센트랑 콘솔이 없어요  그리고 화장실 문앞에 서면 화장실 안쪽이 보여요 그것 외에는 저렴한 가격에 최고의 숙소입니다. 뷰가좋아요~~ 문열면 파도소리가 들려서 좋아요</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2023.06.08</t>
+          <t>2024.01.27</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>차 없이 가도 편하게 해운대 볼수있습니다
-교통편 좋습니다
-직원분 친절하셔서 너무 만족스러웠습니다 :) 👍
-엘베를 두번 갈아타고 내려간다는 점이 아쉬웠습니다ㅠ 엘베 타러 가는길이 에어컨이 없어서인지 너무 덥고 힘들었습니다</t>
+          <t>오션뷰 너무 좋아요 .! 드라이기,고대기,기본식기,전자렌지 있어서 좋은데 어메니티가 하나도 없는건 좀 그렇네요 그리고 여기 여러번 지냈는데 가끔 넷플,유투브안되는 방있어요 뷰하나로 끝장나는 숙소에요 !</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2610,15 +2722,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2022.09.20</t>
+          <t>2023.08.01</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>처음 7층 입실시 담배냄새가 나서 바로 말씀드렸더니, 좋은층 바다뷰로 업그레이드 해주셨습니다.
-사장님 빠른 대처 감사드립니다.</t>
+          <t>따뜻하게 푹 쉬고 왔어요~ 같은 건물 다른 업체도 이용했었는데, 안에 어매니티는 없어도 정수기가 있어 더 편하더라구요, 불편사항도 잘 해결해주시려하고 감사했습니다, 무엇보다 12시 체크아웃이라 여유있게 나와서 덜 피곤했네요, 담에 또 일정 잘 맞춰서 방문할게요</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2628,14 +2739,20 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2022.09.10</t>
+          <t>2023.03.28</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>엘리베이터가 약간 불편한 감이 있지만 그래도 직원분들이 친절하고 객실도 진짜 좋았습니당 첫 부산여행이였는데 정말 만족하고 편안하게 지냈습니다😘</t>
+          <t>문을 딱 열자마자 너무 좋았어요! 
+날씨만 좋으면  뷰도 이쁘고 바루 앞 해변가에
+너무 좋은 숙예요! 
+아 사진올렷는데 날라갔네요! ㅠㅠㅠ
+엄마랑 오랜만에 여행이었는데
+저렴한 가격에 잘 쉬다 갔습니당!!!
+부산오면 꼭 또올꺼예요!</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2645,33 +2762,31 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2024.08.21</t>
+          <t>2023.03.25</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>해운대바로앞이라 위치가너뮤좋았어여 다만 엘베를 2번씩 갈아타고 좀 혼잡했어요 ~~건물은 낡은느낌이지만 숙소는 넓고 쾌적했어요</t>
+          <t>시설좋고 위치도 전반적으로 너무 좋아요. 다만 체크인하는 곳이 20층인데 건물 1층에서 파악이 잘안된다는 점과 칫솔, 기타 세면도구가 없으니 챙겨가야한다는 것 빼면 최고입니다</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2022.12.12</t>
+          <t>2023.01.10</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>뷰시설 다 좋았어요. 교통편도 자차를 이용했지만 주차공간도 넓어 주차편했구요
-막힘 없는 바다뷰를 정말 원없이 보고왔네요
-담에도 또 이용할거예요</t>
+          <t>완전 완전완존 좋아요!!!!!! 이런 방을 싼가격에 숙박했다니 대박이에요 대박대박 너무 이쁘고 조명도 밝고 여러개라 좋고 화장실도 깔끔 침대가 겁나 크고 주방도 있고 냉장고가 크고 냉동고도 있고 고대기도 있고 테라스에 욕조도 엄청 크고 이뻐요!!!!!! 진짜 여기만 가려구요ㅠㅜㅜㅜ 짱짱~~~</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2681,14 +2796,16 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2022.01.31</t>
+          <t>2022.09.02</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>시설이 깔끔하고 좋았어요~ 친절하시고 다 좋았어요~ 다만 샴프,린스, 바디워시는 질이 조금 떨어지는거 같아요 거품도 안나도 치약칫솔은 없으니 가져가거나 꼭 사셔야 해요~</t>
+          <t>기대이상으로 너무 좋았어요
+광안대교도 잘보이고 편의시설이 바로 앞에 다 있고 좋았어요 직원분들도 친절하시고 무엇보다 제가 화장실 결벽증같은게 좀 있는데 편하게 쓰다왔어요!
+따듯한 물도 잘 나오고 방음,냉장고 기능,세탁기 너무 좋았습니다!</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2698,15 +2815,21 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2022.01.23</t>
+          <t>2022.06.11</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>오래된 시설과 엘베환승은 익히 알고있어서 불편함도 많이 못 느꼈고 오래된 시설인만큼 청결에 신경 많이 쓰신것도 눈에 보이고 직원분들 모두 친절하시고 위치도 좋아서 부산에 간다면 또 갈 의향이 있어요.
-그리고 조식 맛있어용ㅋㅋㅋ</t>
+          <t>장점
+-바다랑 가까움
+-가성비
+단점
+-이중잠금장치 없음
+-위생문제(침대시트에 모래있었음)
+-바디워시 등등 배치는 안되어있음
+그래도 가격 따지면 만족 !</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2716,51 +2839,54 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2022.06.27</t>
+          <t>2024.02.03</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>쓰리베드라서 너무 편했고, 생각보다 방이랑 화장실도크고, 냉장고랑 수납 공간이 넉넉해서 좋았어요.
-담에 부산 가게 되면 또 묵고 싶어요^^</t>
+          <t>추가인원1명더 해서 침구류를 받았는데
+바닥에 까는매트가 아니구 얇은 이불2장
+주시는데 바닥에서 어케자야할지 많이 놀랐어요
+세면도구가  아예없어서 좀 불편했구
+나머진 넘 좋았어요.
+그중에 뷰는 최고였어용.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2024.03.29</t>
+          <t>2023.12.10</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>생각보다 너무좋았구요
-하프였는데도 바다가 거의 다 잘보여서 좋았어요
-해운대바다도 바로앞 완전가깝고 지하철역도 가깝고 편의시설까지 암튼 전반적으로 맘에 들었었어요~~</t>
+          <t>야경이며 정수기, 세탁기, 식기 다 완벽했어요 그치만 주차비 만원에 어메니티가 없어서 당황.. 화장실이 좁고, 화장실 변기에 곰팡이땜에 좀 아쉬웠ㅇㅓ요 
+그래도 다시 이용하고 싶어요!! 넘나 좋았습니당ㅎㅎ</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2024.01.31</t>
+          <t>2023.07.30</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>해운대해수욕장 바로 옆이라 위치와 교통은 아주 좋습니다..시설은 보통이고 가성비 좋은 호텔입니다</t>
+          <t>걱정한 요소들도 있었는데 교통도 편리한 편이고 시설도 기대했던 것보다 깨끗하고 쾌적해서 만족했어요! 샤워부스나 전체적인 공간이 좁은 느낌은 있었지만 친구랑 둘이서 갔을 때 큰 불편함은 못 느꼈던 것 같아요. 오션뷰라서 테라스에 준비된 의자에 앉아서 오션뷰 보는 것도 좋았어요!!</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2770,34 +2896,32 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2024.07.14</t>
+          <t>2023.06.26</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>엘레베이터 갈아타기 힘들다고하던데 그렇게 오래걸리거나할 정도는 아니었고 숙소뷰랑 컨디션이 정말 좋았습니다.</t>
+          <t>바다랑은 진짜 가깝고요
+근데 오션뷰 욕조래서 바로 보이는 뷰가 오션뷰일줄 알앗는데 발코니 끝자락이 오션뷰라,,, 넘 무서웟어요 18층이어서ㅜㅜㅜ 그외에 식기류,정수기,세탁기 등등 편의시설이 너무 잘되어있었어요!!!</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2024.09.17</t>
+          <t>2023.04.06</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>시설도 깨꿋하고 넓고 괜차나요
-엘베 갈아타는 것만빼면 로데오 바로 앞이고
-해운대 바로 앞이라 조아요
-담에 부산가면 또 갈께요</t>
+          <t>도롯가에 해변가라 좀 시끄럽긴하지만 뷰가 끝장나게 좋습니다 바로앞에 편의점이랑 번화가라 먹을곳많고 방도 뜨뜻하고 좋았어요 근데 베게랑 이불속에 듬성듬성 까만먼지가 보이네요 근데 아무리 친환경이라지만 방에 티슈나 비누정도는 있음 좋겠어요</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2807,15 +2931,18 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2024.08.04</t>
+          <t>2023.02.04</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>가격 대비 위치와 뷰가 너무 좋아서 감탄했어요 ㅜㅜ
-룸 크기도 넓은편이고 싱크대도 있고 수납공간이 되게 많았어요! 근데 엘베를 환승해야해서 조금 불편하긴 했는데 그 외엔 만족합니다 🤍</t>
+          <t>급하게 예약했는데 정말 싸게 예약했어요!ㅎ
+그래서 청결도는 감수했습니다^^; 접근성 좋고 하프라했는데 웬걸 바다 직관이었습니다👍
+가격대비 너무 만족했네요
+야외욕조랑 침구만 깨끗했다면 자주 이용할거 같아요!
+담번에 기대할게요^^</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2825,17 +2952,14 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2022.09.26</t>
+          <t>2024.06.07</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>사장님 예약 따로 했는데 친절히 연박으로 전환시켜주셔서 너무 감사해요 :) 
-씨클라우드 항상 이용하지만 해운대서 
-단연 최고입니다. 리뉴얼 해서 더 멋있네요 
-감사합니다 ^_______^</t>
+          <t>사장님들  친절하시고 위치도 해변 초근접이고 편의점 식당 모두 코앞에 있습니다.  객실, 욕조 청소도 깔끔하구요 재방문 의사 있습니다.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2845,14 +2969,14 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2022.07.07</t>
+          <t>2024.05.13</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>하프 오션뷰라고 해서 반정도 보이는 줄 알았는데 오히려 옆에 있는 호텔도 보이고 너무 예뻐서 좋았어요. 해운대 여행오면 다시 이용하겠습니다!! 스탭분들도 정말 친절하세요☺️</t>
+          <t>광안리 해변 바로 앞이고 광안대교를 큰 창 가득 볼수있어서 좋았어요ㅎㅎ 아침에 암막커튼 걷을때 쾌감쩔어요ㅜㅜ 나중에 부산가면 또 갈거에요</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2862,16 +2986,20 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2022.04.10</t>
+          <t>2024.04.17</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>해운대가 횡단보도 하나만 건너면 바로 있습니다.
-해변뷰도 멋지고, 제대로 힐링했네요~
-해운데 가게 되면 재방문 의사 있습니다~^^</t>
+          <t>아주 만족
+주차비는 만원 별도 있음
+욕조는 야외 테라스에 있음
+추울때 이용 어려움
+전반적으로 쾌적하고 편하게 쉴수 있었네요
+광안리 바로 앞이라 걸어 나가서 먹을데도 많고 
+편해요</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2881,31 +3009,36 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2022.03.28</t>
+          <t>2024.03.20</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>위치만 생각하면 참 좋은 호텔이고 나머지는 검색을 해보고 감수할 수 있으면 좋습니다. 저녁먹고 해운대 한 바퀴, 밤에도 둘러볼 수 있고, 언제든지 나갈 수 있어서 좋았습니다.</t>
+          <t>급하게 예약했는데 가격대비 완전만족합니다
+비가왔는데도 테라스 스파에서  광안리바다를 보면서
+반식욕 완전 행복한 여행이었습니다
+주위에 맛집들도 많아서 담에 꼭 다시한번 방문하고 싶어요</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2022.05.23</t>
+          <t>2024.02.06</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>해운대도 바로 앞이고, 방도 쾌적해서 너무 너무 만족합니다, 다음 부산 방문시에도 이용할 예정입니다. 굿굿</t>
+          <t>문 열고 들어가자마자 보이는 뷰 보고 감탄했어요..☺️ 
+방도 깔끔하고 냉장고도 크고 침대도 푹신해서 너무 좋았고 해수욕장 바로 앞이라 접근성도 최고였어요!
+덕분에 즐겁게 잘 놀다갑니다 다음에 또 놀러올게용</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2915,15 +3048,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2024.07.12</t>
+          <t>2023.08.07</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>하프오션뷰지만 실제로 바다가 잘보여서 놀랐어요!!
-침구류도 지금까지 갔던곳들중 제일 만족이에요~</t>
+          <t>객실 침대사이에 모르는 사람팬티 있더라고요 근데 뭐 저도 퇴실때 알았어용 ㅎ 그거 말고는 베리굿 전망굿 그냥 가세요 여기가 뷰집입니다</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2933,15 +3065,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2024.06.24</t>
+          <t>2023.07.13</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>하프오션뷰지만 실제로 바다가 잘보여서 놀랐어요!!
-침구류도 지금까지 갔던곳들중 제일 만족이에요~</t>
+          <t>목~토 연박으로 수건을 어떻게 요청 드려야 할 지 몰라서 연락 드리려고 했는데 나갔다가 숙소 다시 돌아오니까 문고리에 수건이 봉투에 담아서 있더라고요ㅠㅠ 뭐 따로 신경 쓸 필요도 없었고 그만큼 친절하고 신경 써주시는 것 같아서 좋았습니다 :)</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2951,14 +3082,16 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2024.06.24</t>
+          <t>2023.06.04</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>주차장 각 면이 좀 작았고 객실 이동 동선이 좀 복잡하고 오래된 느낌이 드는 시설 이외에는 좋았습니다.</t>
+          <t>바로 앞에 광안대교가 보여서 너무 좋았어요 ㅜ 
+야경도 너무너무 예쁘규 아침에 들어오는 햇살도 너무 예뻐서 행복한 여행 되었습니다 :)
+앗 엘리베이터가 두대뿐이라서 체크아웃 시간에는 조금 혼잡해요 ! 참고하시면 좋을것같아용 !</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2968,14 +3101,17 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2024.02.08</t>
+          <t>2023.05.01</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>해변바로 앞이고 숙소깨끗하고 좋은데 4층에서 엘베 바꿔타는게은근귀찮았네요..퇴실시간엔 엘베 계속만차요ㅜㅜ</t>
+          <t>뷰가 미쳤어요👍🏻👍🏻👍🏻
+광안대교 정면뷰라 저녁에 빛들어오면 예쁘게 볼수있구요 방에서 이런뷰 쉽지않은데 다음부산여행 오면 또 방문할래요
+난방도 잘되어있어서 오히려 더웠어요 
+정수기가 배치되어있어 따로 물 사지않아도되 편했습니다 기본식기도구있어용</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2985,16 +3121,17 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2023.12.31</t>
+          <t>2023.02.07</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>가구가 생활감이 있긴하지만 방도 넓고 위치도 좋아요.
-연인보다는 가족이나 친구 여행 숙소로 추천합니다.
-만족해요.</t>
+          <t>생각보다 깔끔하고 층도 높고 뷰도 좋았습니다
+주변 시설도 좋고 길 바로 앞이라 바다도 바로 보이고 광안대교도 바로 보여서 좋아요!
+다만 아쉬운점이 있다면 샤워용품이 없다는 점이에요ㅜㅜ
+참고해서 챙겨서 가세요~~</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3004,16 +3141,16 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2023.10.16</t>
+          <t>2023.02.04</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>처음 가본곳인데 하프뷰여도 너무 좋았어요 
-그치만 엘레베이터 사용이 어려워요
-다음에 재방문 의사 있어요</t>
+          <t>너무 좋았어요 이 가격에 광안대교 뷰 보며 스파하는거 너무 값진 경험이에요 ㅎㅎ 
+근데 스파 트니깐 무슨 잔여물같은게 나오던데 제발 입욕제 하지 말라면 하지 맙시다.. 
+다음에 부산오면 또 방문할 것 같아요!!!!</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3023,17 +3160,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2023.07.07</t>
+          <t>2023.01.26</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>가성비 득템인거같습니다
-혼자서 푹잠잘잤어요
-하프오션뷰지만  금요일 금액대비 괜찮았어요^^
-착한가격에 깔끔하니 푹잠 잘잤습니다</t>
+          <t>너무너무 뷰 맛집 !!! 그치만 샴푸린스바디워시 모든게 없고 일찍 카운터가 끝나고 티비가 시간이 되면 안나와용 ㅠㅠ 빼면 최고 세탁기도 있어서 너무 편했어요 다음에도 또 이용할거에요</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3043,15 +3177,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2023.01.08</t>
+          <t>2024.08.31</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>오랜만 가족과 부산여행이라 해운대해수욕장 동선 생각하여 정하였고 만족합니다 
-주차 괜찮았고 해운대시장과도 가까워 놀거리,먹거리를 한번에 해결 했답니다ㅎ 또 길것같아요^^</t>
+          <t>광안대교 정면뷰 너무 좋아요 비품 샴푸 바디워시 린스도 전부 사거나 가져가야 해요 치약 칫솔 클렌징폼 아무것도 없고 심지어 비누도 없습니다! 저는 프론트에서 다 샀어요ㅠ</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3061,14 +3194,16 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2024.08.04</t>
+          <t>2024.01.16</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>엘베가 달라서 어렵다고 했는데 안내도 잘해주시고 지하주차장도 괜찮아서 다 만족하고갑니다ㅎㅎ 부산 또가면 재방문 의사 있습니다ㅎㅎ</t>
+          <t>위치 말할필요없고 뷰 최고입니다
+아쉬운점은 방음이 약간 아쉽고 화장실이 좁다는점, 그리고 세탁기는 있지만 문을 뜯어내서 이용이 안된다는점 정도에요
+부산에서 시그xx, 파라xx스 다 묵어봤는데 뷰는 진짜 여기가 최고에요</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3078,14 +3213,16 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2022.11.29</t>
+          <t>2022.07.12</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>굿굿 가격대비 굿.하지만 청소기를 대충 돌러서 그런지바닥에 밝히는 모래.?이런게 있다.바닥 빼곤 침대고 화장실이고 다 깨끗함</t>
+          <t>숙박 잡기전 이미지와 동일했어요 ! 
+주차할때가 헤깔리고..주차비 있었지만;
+숙소는 오피스텔 느낌에 깔끔하고 음식도 해먹을 수 있고, 세탁기도 있었어요 ! ㅎㅎ 물놀이는 안해서 이용하진 않았지만 바다뷰 보면서 아침을 맞이하니 좋았습니당 ! ㅎㅎ</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3095,14 +3232,15 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2022.08.31</t>
+          <t>2022.06.02</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>고층이어서 그런지 가격대비 크게 만족했어요~~ 엘리베이터 갈아타는건 좀 번거로우니 짐 많이 이동하실분은 미리 각오하셔야합니다요</t>
+          <t>진짜 여태가본 광안리 오션뷰 숙소중에서 제일 뷰가 좋았어요!! 뷰 미쳤습니다 
+후기 보고 조금 걱정했는데 전 너무 만족했어요 깨끗하고 좋았어요 잘 쉬었다가고 새해맞이 잘했습니다 이제 광안리 오면 여기만 갈 것 같아요!!!!!</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3112,14 +3250,20 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2022.08.17</t>
+          <t>2022.01.01</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>인위적인 향기가 나서 아쉬웠지만 방도 깨끗하고 위치도 좋고 해운대랑 가까워서 바다도 자주 보고 맛있는 것도 쉽게 먹을 수 있어서 힐링되는 여행이었습니다!!</t>
+          <t>마지막 남은 자리 예약해서
+3층에 묵었네요
+고층 원하시면 일찍 예약하셔야해오
+역시 뷰가 다했습니다!
+침대 메트리스가 푹신해서 편히 자고왔어요
+객실 청결에 조금더 신경 써주시면 좋겠습니다
+^^</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3129,14 +3273,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2022.07.05</t>
+          <t>2022.03.03</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>위치는 최고네요. 나오면 바로 해운대 바닷가 입니다. 가성비 생각하면 괜찮은듯..청결이 조금 떨어지긴 했어요</t>
+          <t>뷰 맛집!!  바로 앞에서 파도가 출렁 거리고 베란다에 까마귀도 놀러 옴!!  화장실이 많이 많이 좁은거 말고는 딱히 불편한건 없었네요!!  사용은 거의 안했지만 큰 냉장고와 조리도구가 있던것도 좋았네요</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3146,37 +3290,32 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2022.09.10</t>
+          <t>2023.08.19</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>뷰가 너무좋아요~
-휴가철이 지나서 한산하게 잘다녀왔어요
-타기힘들다는 엘베도 빠르게 탔구요
-방도 깨끗했습니다.
-담에도 이용할께요~</t>
+          <t>하프라 아쉬웠지만 정말 예뻤고 입실 하기 전에 에어컨 틀어져있는 센스 너무 좋았고 위치도 정말 좋았고 정수기가 있던 점이 좋았어요
+단점은 어메니티가 단 하나도 없다는 점 그리고 깨끗한 편은 아님~ 모기 자국 짱 많...</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2024.09.10</t>
+          <t>2023.06.21</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>모든면에서 좋았습니다 
-다만 드라이기가 노후돼서 사용이 불편했네요
-다음에 또 기회가 되면 다시 묵을겁니다</t>
+          <t>방에서 시켜먹을수있는 태블릿잇어서 너무 편했어요, 가격도 적당햇구.. 화장실이 조금 좁고, 바깥에서 안이 보이는 구조라ㅠ 그거빼곤 뷰 짱이고, 위치 짱이고 쉬기 너무 좋았습니다!!또갈게요~~~~!!!</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3186,14 +3325,14 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2024.05.30</t>
+          <t>2024.04.29</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>어머님 생신으로 다녀왔는데 하루 묵기 좋았습니다. 근데 청소상태가 살짝 안 좋긴하네요, 그래도 괜찮은 가격에 오션뷰는 최고에요!</t>
+          <t>하프오션뷰였는데 생각보다 잘 보여서 만족했고 일찍 예약해서 그런지 고층으로 배정되서 좋았어요 가격대비 괜찮은 곳이라 나중에 욕조 있는 곳으로도 다시 와보고싶네요 따로 제공되는 어매니티는 없다는 점 유의해주세요</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3203,14 +3342,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2024.03.23</t>
+          <t>2023.11.04</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>두번째 방문인데 직원분들도 친절하고 객실도 깨끗하고 이용할때마다 만족도가 높습니다 담에 또 이용할 계획입니다</t>
+          <t>방은 작은 편이었지만 잠만 자기위한 곳이라 상관없었고 무엇보다 바로 광안리앞이어서 바다뷰인게 정말 좋았어요!! 부모님도 정말 좋아하셔서 숙소 잘잡은것 같아 뿌듯했구요!! 프론트는 20층이었고 직원분도 친절했어요~ 또 오고싶네요!</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3220,33 +3359,39 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2024.03.09</t>
+          <t>2023.07.11</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>가격이 저렴해서 좋았으나 시설이 노후된건 어쩔수없는거같아요 해운대 바로앞이라서 그점은 좋은거같아요</t>
+          <t>바다가 건물틈사이로 절반은 보이네요
+옆건물 테라스가 보여서 커튼으로 닫고 있었지만 뷰상관없이 숙박만하기에는 너무좋네요
+지하철역에서 멀지도 않고, 광안리는 광안역보단 금련산에서 내려야 가까워요
+걸어서 금방이라 좋았어요
+방상태도 깨끗하고 시원하고 잘묵고 갑니다!</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2024.06.28</t>
+          <t>2023.06.18</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>뷰가 참 좋고 객실이 넓어서 좋아요
-해운대 바로 코 앞이라 위치도 좋구요
-화장실 수압이 약한 점은 아쉬웠어요</t>
+          <t>생각보다 좋았어요
+깨끗하니 룸상태도 좋고 정면뷰 정말 멋집니다
+수저가없다는 리뷰봤는데 식기도구도 있고 코앞에 편의점이라 물건구입도 쉽고ㅡ
+이래저래 잘 묵고 갑니다
+나중에 또 예약10000000%</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3256,31 +3401,33 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2024.02.10</t>
+          <t>2023.06.18</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>위치와 뷰가 정말 좋았구요 청소상태는 좋았고 아쉬운점은 엘리베이터를 갈아타야하는점과 세월의흔적으로 시설들은 낡았습니다.</t>
+          <t>예상했던것과 똑같았고 친구집원룸놀러간크기라고생각하심되요~! 
+다만이쉬운건 저는욕조방이엇는데 바로옆집은 그공간에 테이블이잇어 욕조에들어가면 얼굴이 보이게되는게아쉬웠네요~!</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2024.05.26</t>
+          <t>2023.04.18</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>노후된 부분이야 가격을 생각하면 충분히 감내할 부분이고 자주 오지만 위치는 그 어느 호텔보다 최강입니다</t>
+          <t>기분 좋은 여행을 할 수 있는 멋진 숙소였어요~!
+뷰도 너무 예쁘고~교통편도 가까워서 여기 저기 수월하게 다닐 수 있었어요~주변에 맛집도 많아서 다음에 이용 할 수 있는 기회가 있다면 또 방문하고 싶네요~^^</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3290,14 +3437,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2023.08.25</t>
+          <t>2023.04.05</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>남편과 함께 준비한 시부모님과의 호캉스를 잘 누리다 갑니다. 타지에서 전입온 저로서는 부산의 매력을 느끼기에 적합한 곳이었습니다.</t>
+          <t>오션뷰며 편의시설 위치며 해안가까지 ㅠㅠ 너무 최고였어용 다만 침대시트 위 이불 위 먼지랑 머리카락이 좀 많았어요 테라스에서 보는 뷰 미쳤어요 짐짜 ㄷㄷ</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3307,31 +3454,35 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2023.06.12</t>
+          <t>2023.03.01</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>늘 가던 곳이라 ㅎ 그런데 전보다 시설운 더안좋아요 공사중이라 먼지가 ㅠㅠㅠ 욕실도 머리카락이 있어요</t>
+          <t>시설이나 청결도는 매우 좋았습니다!! 욕조있는 곳을 예약했는데 욕조는 사용 못해서 너무 아쉬웠어요..ㅠ 다음에 또 오고싶은 곳이였고 이만한 가성비는 또 없는 것 같았어요!! 진짜 근데 야경은 지렸,,</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2023.03.13</t>
+          <t>2024.06.03</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>전체적으로 친절해요. 근데 엘리베이터 환승이 넘 귀찮았어요 ㅠㅡㅠ 그거 제외하고는 방도 생각보다 엄청크고 침대가 진짜 크더라구요!! 좋았습니당</t>
+          <t>오션뷰가 정말 좋았어요!
+아침에 일출도 보고 좋앗네요~
+담에 또 갈 거 같아요!!
+유의사항에도 써있긴 햇는데
+샴푸 린스 바디클랜저도 비치되어 있지않아서  챙겨가심 좋을 거  같아요~</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3341,51 +3492,55 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2023.01.09</t>
+          <t>2023.01.04</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>해운대 해수욕장 바로 앞이면서 주변에 먹거리 즐길거리가 쫙~~ 지하철역도 가까워서 Good</t>
+          <t>바닷가 바로앞이라 너무좋아요~
+세탁기도 있어서 2박 이상 하시는분들 좋겠어요!
+단, 주차타워에 유료주차를 해야하고 차량사용에 좀 제약이 따르네요.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2023.01.01</t>
+          <t>2024.04.17</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>해운대랑 가깝고 위치도 좋았어요! 다만 시설이
-오래돼서 청결하단 느낌은 부족했지만 편하게 잘 쉬었습니당</t>
+          <t>수압이 좋습니다.
+청결합니다.
+주말 로비에 모닝토스트 컵라면 제공됩니다.
+가성비 좋습니다.
+전철역 접근성 좋습니다
+재방문의사 있습니다</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2022.12.21</t>
+          <t>2022.12.10</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>숙박대전으로 잘 다녀왔습니다~
-레지던스라 일반보단 좀 상태는 낮지만 
-그래도 가격대비 너무 잘 쉬고왔습니다!!</t>
+          <t>청결도 매우 좋구 무엇보다 뷰가 미쳤음. 보통 뷰 좋으면 어디 하자가 있기 마련인데 주변 시설도 좋고 화장실 등 매우 깨끗함. 광안리 간다면 여기 매우 추천함</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3395,70 +3550,67 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2022.07.16</t>
+          <t>2022.11.26</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>시설이 조금 오래되었지만 가격대비 만족이라 종종이용해요. 서비스도 좋고 은근히 수영장도 괜찮구요.</t>
+          <t>장점 : 뷰 / 뷰는 날 좋으면 가성비 제일 좋을 거 같아요
+단점 : 화장실 / 문 여는 구조랑 환기가 안되는 지 냄새가..
+뷰 하나로 만족하고 갑니다.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>3점</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2022.06.14</t>
+          <t>2023.02.18</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>가성비 좋고 뷰 끝내주고 위치며 다 만족합니다 
-4층에서 환승하는것도 불편하지 않았어요 
-다만 화장실에 샤워기가 다 터져서 너무 불편했어요</t>
+          <t>너무좋았습니다 세탁기 있는거 ㄹㅇ로 진짜 행복 방이 좁아도 뷰가 미쳐서 다 괜찮아요 진짜 근데 들어가자말자 화장실 세면대에 머리카락 한개가 있긴했는데 뭐 뷰보면  마음의 안정이 댐ㅎㅅㅎ... 세탁기 최고 진짜루</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2022.06.11</t>
+          <t>2022.09.29</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>밑에 편의점 있는거 너무 편리하고 바닷가도 가깝고 근처 맛집도 가까워서 좋아요 근데 약간 낡아보이는건 그렇긴해요
-근데 방도 크고 셋이 지내기에 너무좋았어요</t>
+          <t>침대시트에 담배꽁초가 끼어 있었어서 좀 당황스러웠어요..ㅎ 근데 그것빼고는 위치랑 숙소안에 음식 주문 키오스크? 있어서 너무 편했어요! 청결에만 좀더 신경써 주시면 참 좋을거 같아요!!</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2024.02.23</t>
+          <t>2024.01.21</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>숙소에서 보는 뷰도 너무 좋았어요ㅠㅠ
-생각보다 바다랑 가깝고 축제 기간이여서 숙소에서도
-빛 축제를 볼 수 있어서 너무 좋았습니다</t>
+          <t>아 여기 너무 좋아요 ㅠㅜ 싼가격에 에어0엔비 잡은 느낌 단점은 테라스에 욕조 있는데 옆사람 다 보이고 맞은편아파트에서 저희 방이 너무 잘 보입니다 ㅎㅎ</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3468,71 +3620,76 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2023.12.28</t>
+          <t>2022.07.05</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>바로 해운대해변을 볼수있고 옆에 해운대시장이 있어서 부모님과 아이들까지 같이 여행하기 좋았어요~
-무엇보다 직원분들이 친절하시고 좋았습니다~</t>
+          <t>오션뷰 야외욕조에서 수영복입고 인생샷 찍기 성공!
+여자혼자 호캉스하기에도좋아요!!
+침대도 포근하이 잠잘와요 
+아쉬운점은ᆢ퇴실시간딱되니 비번누르고 문을 확열어서 씻고있는데 당황했어요ᆢㅠㅠ그점빼곤 좋았어요</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2023.11.20</t>
+          <t>2023.07.14</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>깨끗하고 넓고 좋아요
-핸드 캐리어도 받고 바다 바로 앞이라 접근성도 좋아요
-재방문 의사 200프로입니다</t>
+          <t>뷰는 정말 말할것도 없고
+위치도좋고 정수기 세탁기부터 없는게없습니다
+단점은
+화장실에서 담배냄새 시궁창?냄새같은게 올라오는데 이건어쩔수없는거같아요
+그외다맘에들고 다음에도 또오고싶어요</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2023.11.08</t>
+          <t>2023.01.02</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>로비찾음이 다소 불편했지만
-그외는 만족 만족 객실도 생각보다
-넓었구 뷰도 짱~~
-감사합니다</t>
+          <t>샤워장이 좁고 어메니티가 없어요~~
+출장시 세번째 방문이라~~^^ 3~5층 해변쪽은 광안리해수욕장 전조등 때문에 눈이 부실 수 있습니다</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2024.06.16</t>
+          <t>2024.04.04</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>해운대 해수욕장 접근성이 너무 좋았고 멋진 야경이 펼쳐진 뷰가 환상적이었어요~ 해운대 방문시 또 묵고 싶어요~</t>
+          <t>밤에는 광안대교 뷰 
+아침에는 해돋이보고 너므 좋았습니다. 
+전날 예약해서 저렴한 가격에 잘 다녀왔어요! 
+방 컨디션도 좋았고 어메니티는 없지만 정수기와 세탁기도 있고 저는 너무 편리했어요!</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -3542,89 +3699,96 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2023.07.26</t>
+          <t>2024.03.29</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>부산에서 처음 호텔 잡고 논건데 너무 만족스럽게 잘 잤습니다! 다음에도 부산을 오게 된다면 다시 여기를 찾을 거 같아요 ㅠㅠ!</t>
+          <t>우선 광안리에서 접근성이 너무좋고
+뷰가 좋은게 가장 큽니다.
+그거외엔ㅋㅋㅋㅋ 화장실 후기로만 작다작다 했는데
+작고, 에니머티 없어요 챙겨가야하고... 그거외엔 접근성도 바다뷰도 가성비맛집 입니다.
+따듯하게하고 내집처럼 편히쉬다가 갑니다.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>3점</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2023.06.30</t>
+          <t>2023.11.07</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>다 좋아요 뷰도좋고 가성비도좋고. 엘베환승은 할만하구요 근데 가장큰단점 화장실이 너무좁아요ㅜㅜ 씻을때도 허리아푸그ㅜ 그것만빼면 좋아요</t>
+          <t>침대 주위에 콘센트가 없다는 점이 매우 아쉬웠고
+약간의 위생 문제도 있었으나
+모든건 뷰가 커버합니다
+그냥 5점만점에 6.5</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2023.09.01</t>
+          <t>2023.12.14</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>전반적으로 깨끗하고 조용햇는데 전에도 느꼈지만 엘베가 너무 불편합니다
-두번 갈아타는게 생각보다 많이 불편햇어요
-나머진 다 만족해요</t>
+          <t>아담하지만 있을 것 다있고 그중에서도 14층에서 바라보는 바다뷰 대박입니다.
+지하철, 바다, 편의시설, 먹거리 모든 곳이 완벽합니다.
+아~ 배민이 되더라는...</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2023.08.30</t>
+          <t>2023.11.30</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>접근성너무 좋아요
-엘베가 좀불편했지만 가성비 좋았어요
-다음에 기회가되면 다시 이용할 생각입니다</t>
+          <t>바다 앞이라 진짜 위치가 짱인 거 같아요 ㅎㅎ!! 화장실이 밖에서 보여서 살짝 부담인 거 빼고는 좋은 가격에 만족스럽게 이용하고 갑니다</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2023.08.13</t>
+          <t>2023.08.24</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>시설도 깨끗하고 청결청결 관리 잘 되어 있어요
-접근성 좋아요
-프론트 직원분들 친절해요
-아쉬운점은 화장실이 오래된 느낌이고 좁았어요</t>
+          <t>오션뷰가 좋아서 예약한 숙소 💓
+방이 작을까 걱정했는데 생각보다 크고 깔끔해요
+여자3명이서 방문 했는데 이정도면 충분한듯!!
+넥플도 가능하고 무엇보다 뷰가 미쳤어요 !!
+여기로 오길 잘했다 생각함 ◡̈
+다음에 재방문 의사 100000000</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3634,14 +3798,15 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2023.04.02</t>
+          <t>2023.08.10</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>전망이 다 합니다. 연식은있지만 깨끗하게 관리됩니다. 밤에 건조함을 조금느꼈어요.그것빼고는 만족합니다. 위치도매우좋아요.^^</t>
+          <t>뷰는 언제나 최상 냉장고나 옷장도 좋음
+2번째 방문인데 이번엔 테라스 책상의자가 조금 청결이 아쉬웠음!</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3651,31 +3816,32 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2023.03.03</t>
+          <t>2024.09.04</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>비록 하프 오션뷰였지만 이것도 예뻤습니다 ㅎㅎ 배부르면 산책 나가기도 좋고 근처에 식당이 많아서 대충 나가서 먹기 딱 좋아용</t>
+          <t>방은 생각보다 괜찮았습니다 다만 쓰레기하나가 남아있었고 배게커버에 좀얼룩인지 곰팡이인지 있었던거같았습니다ㅜ 주차는 사람많고 혼잡하고 주차 하기가 너무불편해서 그거말고는 괜찮습니다</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2022.09.08</t>
+          <t>2024.07.15</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>뷰도 해운대 해변, 주변 맛집 접근성도 아주 좋아 마지막 여름을 즐겁게 보낼 수 있어어요~~</t>
+          <t>깨끚하고 안에서 창문열면 바다가 보여요.
+그리고 베란다에 욕조가있어서 발담그거나 입욕하고 놀기 너무좋아요앞건물이랑 너무 마주보여서 꼭 물놀이 복장옷을 입고 들어가야해요.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3685,51 +3851,54 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2022.08.21</t>
+          <t>2023.03.23</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2006호 머물렀습니다
-넓고 뷰 좋고 재밌게 잘 놀다갑니다
-수영장 티켓도 무료로 제공받았는데
-아침에 물놀이 재밌게 했습니다 감사합니다</t>
+          <t>위치가 정말 좋습니다
+다만 측면 욕조라 다른건물에서 보이니 주의하시길 바랍니다
+광안리 해변 걸어서 10초라 정말 접근성은 최고입니다 일층에는 세븐일레븐도 잇고 좋아요
+욕실이 너무 작긴하고 제가 머무른 방은 환풍기가 작동되지않았네요 ㅠ
+잘 머물다 갑니다</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2022.07.29</t>
+          <t>2024.04.29</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>기대 안하고 갔는데 방 컨디션도 너무 괜찮고 넓었는데 한가지 아쉬운 점은 1층으로 내려가려면 엘베를 두번 갈아타야되는 점이 불편했어요 그래도 만족해요!</t>
+          <t>이곳은 처음 부터 끝 까지 뷰 입니다
+화장실과 욕실은 작아서 좀 불편했지만 불편함을 모두 잊을수 있는 오션뷰가 있습니다.
+저녁 노을 잊을수 없을듯 합니다</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2022.10.14</t>
+          <t>2023.01.29</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>하프오션뷰라 해운대가 바로 보이고 걸어서 근처 여기저기 다닐수 있는곳이 많아서 좋아요. 위치 짱</t>
+          <t>광안리 바로 앞에 있어서 좋았고 사실 프런트가 20층이래서 엘베 느릴까봐 걱정했는데 안불편했어용ㅋㅋㅋ 아 그리구 일회용품 없는건 알고갔는데 비누도 없습니닷! 다들 참고하세용ㅎㅎ 뷰도 좋고 저렴하고 전자레인지 있어서 좋았어요!</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3739,14 +3908,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2022.05.22</t>
+          <t>2023.01.16</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>기대한것보다 더 넓고 좋았어요. 해운대 바로앞이라 모래축제개막식 불꽃축제를 숙소에앉아 볼수있어서 좋았어요.</t>
+          <t>3박4일 부산여행갔다와서 마지막 숙소였는데 저를 절대 실망시키지않았습니다! 교통편도 너무 편리하구 오션뷰룸도 너무 이뻣어요 다만 난방이 에어컨형식으로 돼있는건 조금아쉬웠습니다</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -3756,86 +3925,84 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2022.05.22</t>
+          <t>2023.01.09</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>창문밖에 건물들이 보여서 오션뷰가 조금 아쉬웠어요.
-그리고 커튼이나 이불에 누런 자국이 있어서
-아쉬웠어요.
-서비스는 친절해서 좋았어요!</t>
+          <t>뷰가 일단 다 합니다 ㅜ 광안대교 정면으로 보여서 낮이고 밤이고 이쁩니다.
+화장실은 좀 좁지만 침대 폭신하고 간단한 요리도 해먹을 수 있어 좋습니다.</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2022.07.31</t>
+          <t>2022.12.23</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>위치가 진짜 좋아요 해운대 도보3분 거리여서 물놀이하고 돌아오기 편했어요 시설이 조금 오래된 느낌은 있지만 만족합니다!!</t>
+          <t>뷰 맛집 맞네요ㅠㅠ 다음에 또 이용할게요! 주차도 미리 알아보고 가서 쉽게 잘했어요. 실내 춥지 않았고 따뜻해서 좋았어요!! 겨울이라 욕조가 춥긴 했는데 좋았어요. 여름에 오면 정말 좋을 것 같아요! 완전 강추!</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2022.06.18</t>
+          <t>2022.12.23</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>뷰도 괜찮고 친절합니다 침대 컨디션은 영 아니네요 숨만 쉬어도 흔들리는 침대 
-다시 이용은 절대 노노</t>
+          <t>진짜 뷰는 끝장납니다 ㅋㅎㅋㅋㅎㅋㅎㅋㅎ 프런트가 20층이고 엘베가 두개밖에없어서 기다리기 좀 힘든거 빼면 다 너무 좋습니다 객실안에서 시켜먹는거도 너무 좋고 세탁기도 있어서 물놀이하고 세탁하고 건조까지 하기 완벽합니당♥️</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>2022.04.22</t>
+          <t>2024.09.02</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>저렴한 가격에 잘 다녀왔습니다! 해운대 바닷가 앞이라서 접근성도 좋아요! 하지만 소음이 많이 들려요 저렴한 가격에 이정도면 만족합니다!</t>
+          <t>바다 앞 뷰가 진짜 좋아요!! 근데 샴푸,린스,비누 등이 없어서 좀 아쉬운 부분이 있었어요 뷰 덕분에 커버 가능!</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2024.06.08</t>
+          <t>2024.01.12</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>하프 오션뷰 였는데 층이 높아서 바다가 너무 잘보여서 좋았어요👍👍 해운대해수욕장 바로 앞이라서 완전 좋았어요</t>
+          <t>뷰는 정말 좋고 주변에 식당,교통이 모여있어 뚜벅이여행자에겐 편했어요.
+다만 테라스쪽이 사이트에 올라 온 사진과는 달라서 당황스럽네요. 따로 사진을 올려주면 더 좋을 것 같네요.</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -3845,31 +4012,32 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2024.05.12</t>
+          <t>2024.01.08</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>뷰도 너무 좋고 해변가랑 가까워서 모든 이동이 너무 편리하고 좋습니다 해운대 오실거라면 여기 적극 추천!</t>
+          <t>해변 바로 앞이라 위치랑 뷰 너무 좋았어요🌉✨
+세면도구 삼푸 린스 등 일회용 어메니티를 따로 구매해야하는 점만 빼면 완벽했습니다 ! :)</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>2024.01.15</t>
+          <t>2024.01.02</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>엘레베이터 환승이 불편하고 시설이 살짝 노후되긴했지만 접근성은 용이하고 베드타입이 맘에 들었어요</t>
+          <t>바로 앞에 바다가 있고, 세탁기도 있어서, 다 좋았는데 욕조는 따뜻한 물도 안 나오고 수영복이 필요하더라구요ㅠㅠ 욕조가 테라스에 있어서 다른 사람들도 볼 수 있을 것 같아요</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -3879,14 +4047,14 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>2024.01.15</t>
+          <t>2022.10.14</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>위치가 아주 좋은 곳에 있어서 왓다갓다 하기에 아주 편한 곳입니다. 체크 아웃 시간에 사람이 엄청 많아서 엘레베이터가 많이 붐벼요 ㅎㅎㅎ</t>
+          <t>괜찮았던 것 같아요 근데 체크인 할 때 주는 종이를 여기에도 등록해두면 좋을 것 같아요 칫솔 치약 폼클렌징까진 없다쳐도 샴푸 없는줄 모르고 갔다가 가서 다 샀어요 제 불찰이죠 뭐 공지 잘 읽어보시고 가세요</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -3896,16 +4064,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2024.03.25</t>
+          <t>2023.12.08</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>그냥 말그대로 베스트입니다~
-뷰가 끝내주고 직원분들도 친절하시구
-다음에도 방문 의사있습니다~^^</t>
+          <t>깨끗하고 뷰 좋아요 처음 이용해보는데 잘쉬다가 갑니다 직원분들이 모두 친절하셔서 기분좋았습니다 다만 체크인 체크아웃시간엔 사람들이 몰려서 엘리베이터 사용이 쉽진않았지만 그래도 기다렸다 이용할만했어요!</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3915,14 +4081,14 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>2023.07.30</t>
+          <t>2022.08.05</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>엘리베이터 갈아타고 사람들이 많아서 기다리는거빼고는 괜찮았습니다~~방도 업그레이드 해주시고 시설,친절도가 좋았습니다~</t>
+          <t>금련산역에서 조금걸어야하고 호텔 근처에 놀거리나 atm 있는 편의점, 식당이 많아요 프론트에 올라가서 일회용품을 개별로 구매해야하는 번거로움이 있었지만 숙소도 청결하고 가구들도 깨끗하고 무엇보다도 뷰가 좋아서 굉장히 만족합니다</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3932,16 +4098,14 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2023.06.18</t>
+          <t>2023.08.08</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>주중이라 저렴한 가격대에 트윈으로
-게다가 하프오션뷰라서 넘넘좋앗어요
-가성비에 대만족</t>
+          <t>광안리 바로 앞이고 후기 사진들이 좋아보여서 선택했는데 편의도 많이 봐주시고 방 시설도 좋았어요! 방도 완전 뜨끈뜨끈하고 욕조도 따듯한물 나와서 잘 놀았어요~~~ 좋은시간 보냈습니다 :)</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -3951,14 +4115,14 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2023.01.21</t>
+          <t>2022.01.22</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>임영웅때문에 부산갔는데 날씨 숙소 먹거리 다 좋았어요  숙소도 깨끗하고 전망도 좋아습니다 담에 또 방문할께요</t>
+          <t>안좋은 리뷰 많은데  그냥 세면도구 챙기고 빨래하고싶으면 세제없으니까 세제 조금 챙겨가면 아주 좋아요 넷플릭스도 되고 뷰는 정말 끝내줘요 냄비도 있고 그릇 수저 다 있어서 아주 좋았습니다</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -3968,14 +4132,14 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2022.12.04</t>
+          <t>2024.08.04</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>엄마아빠가 급하게 부산 가셔서 예약해드렸는데 바다도 가깝고 괜찮았다고 하십니다~ 다음에도 갈 거 같아요~</t>
+          <t>하프오션뷰라서 스파있는데 가서 보면 진짜 힐링 지대루에요.. 앞에 편의점도 바로 있고 셀프사진관들도 많아서 좋아요. 음식점도 당연히 많아서 부산광안리 올 때마다 매번 갑니더 ㅎ</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -3985,82 +4149,95 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2022.10.25</t>
+          <t>2022.04.22</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>친절하셨고 실내수영장도 온수풀이 따로있어 더 좋았구요 깨끗하고 기분좋은 침구도 좋았어요 세탁기도 안에있어  잘놀다왔어요</t>
+          <t>바다가 바로앞이지만 측면뷰는 정말 뷰가
+없다고 생각하면 된다 뷰를 보고 싶음 정면뷰 하시길 옆에 공사를 하고 있어서 공사장 소리에
+일찍 일어났음 가격대비 괜찮음</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>2022.08.11</t>
+          <t>2023.05.30</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>뷰가 너무 좋아요 야경도 미쳤어요 스위트룸이 20층부터라고 하셨는데 29층으로 주셔서 너무 좋았고 넓어서 좋아요.. 여기보다 더 좋은 뷰 호텔은 없는듯합니다 ㅎㅎ</t>
+          <t>청결은  대체로 좋았으나  침대와 벽사이에 먼지가 보였고
+치약도 없고 베란다에 슬리퍼가 없어서  불편했음 
+오션뷰는 넘 좋았음</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>2022.07.13</t>
+          <t>2024.10.12</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>이곳은 세번째 간곳인데 룸이 넓고 바다가 잘보이는 곳이라 부산갈땐 가는곳이에요.가격대비 맘에 드는곳이라 만족하고 왓어요</t>
+          <t>오션뷰 좋았어요
+광안해수욕장 보면서 하는 욕조가 좋았어요
+다만 구석에 먼지가 좀 있고
+화장실이 많이 작아요 그것만 빼면 좋은곳이라고 생각해요
+어메니티 물품 없는게 많아 확인 잘하고 가는거 추천할게요
+다음에 또 올게요</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2022.06.28</t>
+          <t>2023.03.04</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>객실이 깨끗하고 서비스고 최고예여!! 심지어 해수욕장 도보 1분거리....최고...다최고...연박할껄 후회하는중ㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠ</t>
+          <t>광안리해수욕장 바로 앞이라 좋아요
+객실도 작지만 괜찮고 욕조는 오픈되어 있어서 
+수영복 입고 하라는게 아쉽네요
+주차는 주차타워 추가 만원 이였어요
+가격대비 괜찮아서 추천해요~~~~</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2022.06.08</t>
+          <t>2022.12.11</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>3인실인데 비품이 2인용로 되어있어서 추가요청이 좀 번거롭긴했지만 가격대비 넓고 깨끗했어요</t>
+          <t>깔끔합니다 그런데 주차시설이랑 엘리베이터 이용이 혼잡한건 어쩔 수 없는 것 같네요 하지만 교통 및 접근성 청결이 좋아서 불편함이 불편으로 느껴지진 않았습니다 ^^</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4070,53 +4247,48 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2022.07.20</t>
+          <t>2022.08.26</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>내부가 11평이어서 넓고 쾌적하게 잘 쉬었습니다.
-전체적으로 좋았습니다 :)
-위치도 좋아서 이용하기도 편리했구요.
-다음에도 또 방문할께요.</t>
+          <t>조큼 더러운거빼고(비누없는거, 찌린내,물, 수건보풀큰것들, 이불 더러운거) 진짜좋아요. 광안대교보이고 밖에 욕조있고 엄청좋아요. 저는 프론트안갔지만 따로 문자도 주시고 편하고 원룸같았었어요 너무좋습니다</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>2022.04.04</t>
+          <t>2022.08.17</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>오션뷰 + 오션사운드  최고였어요👍 
-위치도 좋아서 정말 재방문 200번 하고싶은곳~~!@</t>
+          <t>좋았어요! 근데 퇴실시간 안됐는데 자꾸 청소하시는 직원분이 문을 두번이나 열고 들어오셔서...한번은 옷 갈아입고 있어서 당황했네요...ㅜㅜ구석에 머리카락이 조금 있긴 했지만 대체로 만족 했습니다!!</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2022.02.26</t>
+          <t>2022.01.26</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>혼자 여행하고 왔는데 위치도 좋고 전반적으로 만족했습니다.
-처음 방 배정에 실수가 있었지만 잘 대처해주셔서 특별한 불편함 없이 지내고 왔어요:)</t>
+          <t>바로 앞이 바다라 접근성이 좋아요 내부가 오피스텔 같고 바디워시 샴푸는 객실에 없어요 젤 중요한 담배냄새 하나도 안나서 넘 좋아요</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4126,52 +4298,52 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2022.02.24</t>
+          <t>2024.06.04</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>엘리베이터가 너무 불편했어요 심지어 체크인도 잘못하셔서 두번을 왔다갔다ㅡㅡ 
-좀 낡긴했지만 방음도 잘되고 깔끔한 편이었어요</t>
+          <t>일단 숙소뷰가 정말 좋았고 후기중에 숙소위생이
+별로라는 말이 있어 걱정했는데 생각보다 깨끗했고 무엇보다 어디든 도보로 이동하기에
+위치가 너무 편하고 좋았습니다.</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>2022.01.23</t>
+          <t>2024.05.20</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>위치가 참 좋습니다~ 오래돼보이긴하지만 우선 가격이 저렴하니 가성비가 좋다고 하는게 맞을듯하네요 잘 쉬다가 갑니다</t>
+          <t>호텔인줄 알았는데 딱 오피스텔같은 깔끔한 방에 전자레인지 세탁기 다 있어서 넘 편하고 방에서 보는 야경도 넘 이쁘고ㅜㅜ부산오면 여기 다음번에 꼭 다시와야겠어여!!</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>2022.04.25</t>
+          <t>2024.04.25</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>해운대가면 자주 이용하는 곳중 한곳입니다
-엘베를 갈아타야하는 번거로움이 있지만
-위치가 너무 좋아요ㅎㅎ
-또 이용할게요^^</t>
+          <t>뷰맛집 입니다 낮에도좋고밤야경은 더 좋아요 스파물도 따뜻한물 잘나오고 애들이 덥다고 밖에날씨가 추웠는데도 
+덥다고 하더라구요 시설도 깨끗하고 괜찮았어요
+광안리좋아하는데 다음에 또 방문하고싶네요</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4181,15 +4353,21 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2024.06.15</t>
+          <t>2024.03.26</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>오션뷰 이쁘고, 전반적으로 만족스러웠습니다.
-투숙객중에 새벽까지 발망치로 걸어다니고, 부부싸움은 복불복이다보니ㅠㅠ</t>
+          <t>두번째 이용인데 요번에는 정면오션뷰라서
+넘넘좋았어요~~^^
+청결은 쫌 미흡하더라구요
+욕실이랑
+베란다는
+쫌더신경써야될듯 합니다~~
+다음에 또 광안리오면
+애용할듯합니다~~^^</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4199,14 +4377,14 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2024.05.21</t>
+          <t>2024.03.25</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>하프  오션뷰라고 해서 기대 안했는데, 생각보다 뷰가 너무 에뻤오요! 시설은 좀 노후했지만, 넓고 좋았습니다</t>
+          <t>출장, 여행시 너무 편리한곳, 다만 욕실이 좁고, 주차가가 불편함. 그 외 가성비가 너무 좋습니다</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4216,32 +4394,33 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>2024.05.16</t>
+          <t>2024.03.20</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>침대가 푹신하고 침구류가 너무 좋아서 대만족했어요
-해운대에서 이정도 숙소 아주 괜찮은 듯요!!</t>
+          <t>시설 깨끗하고 좋았는데 샤워할때 따뜻한물이 안나와서 그게 좀 불편했어요 그것만 빼고 나머진 좋아요</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>2024.02.28</t>
+          <t>2024.09.23</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>최고의 오션뷰였어요. 해운대와의 거리도 도보로 가까웠고 웬만한 편의시설은 주변에 다 있어서 좋았습니다.</t>
+          <t>17층 뷰도좋고 방도딱 좋앗어요 아쉬운거는 화장실이 너무 쫍아요  샤워용품은 개인적으로
+챙겨와야대요  다음에도 이용할게요
+ (언제또갈지는 모르겠지만요)  뷰 쵝오엿어요</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4251,31 +4430,35 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>2024.01.15</t>
+          <t>2024.02.29</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>하프 오션뷰라서 기대 안했는데 바다도 정말 잘보였고 좋았는데 엘베는 살짝 불편했지만 괜찮았어요</t>
+          <t>오션뷰,, 대박이였습니다! 
+기분전환 할 겸 무작정 그냥 예약하고 갔던 
+숙소인데 만족스러웠어요~ 
+근데 후기에 청결 관련해서 말이 많던데,,, 
+이건 진짜 해결해주시면 좋겠습ㅁ니다 ㅎㅎ ..!</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>2024.03.04</t>
+          <t>2024.01.07</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>룸 컨디션도 좋고 해운대 백사장이랑 가까워서 위치적으로 만족합니다. 재 방문 의사가 있습니다.</t>
+          <t>바로앞에 광안리이고 바로 밑에가 유명한 비엔나커피가ㅜ있어요 !! 근처에도 맛집 많구요 걸어서 여행 오신 분들은 딱 여행하고 가기 좋은 곳입니다 !</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -4285,15 +4468,14 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>2023.09.06</t>
+          <t>2023.12.28</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>교통이나 위치는 너무 맘에들고 숙소도 넓고 좋았어요
-단 프론트와 객실가는것이 너무나 불편했어요</t>
+          <t>갑자기 오게 되서 보고 그냥 막 잡은 거였는데 깨끗하고 바다도 보이고 들어가자마자 시원해서 갑자기 온 거 였는데도 너무 좋았어요 덕분에 좋은 여행 됐어요 다음에도 또 갈 거 같아요 :)</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -4303,14 +4485,15 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2023.08.23</t>
+          <t>2023.08.20</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>수영장때문에 갔지만 사람이 조금 많은 것 만 빼면 너무 좋았습니다..!  갹실도 깨끗하고 친절하시고 감사합니당</t>
+          <t>측면뷰인데도 나름 광안대교 잘 보이고 좋았어요
+세탁기, 인덕션, 싱크대, 전자레인지 등 필요한거 다 갖춰져있어서 제 원룸으로 삼고 싶었어요ㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4320,15 +4503,14 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>2023.08.14</t>
+          <t>2023.06.27</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>주위에 먹거리와 놀거리가 많아서 좋았어요..
-해운대도 횡단보도 건너면 바로있고 위치는 정말 좋은거 같아요</t>
+          <t>비대면 체크인(비밀번호 알려주심)이었고, 여행객에게 필요한 시설이 많이 비치돼있습니다. 칫솔,치약,클렌징폼,샴푸,컨디셔너,바디워시,비누,드라이기,고데기,스트레이트기,전자렌지,세탁기,주방용품,일회용 수세미,비닐봉지 까지!! 세심한 배려가 느껴집니다. 침구류도 깨끗했고. 다만 건물 1층이 관리가 안되어 아무나 들어올 수 있고, 바닷가 바로 앞이라 좋은데, 밤에 취한 사람들이 많아 좀 위험한거 같아요. 관리인이 계시거나 비밀번호로 출입하면 더 안전 할 거 같아요.</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4338,14 +4520,15 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>2023.08.09</t>
+          <t>2022.03.20</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>할아버지, 이모들 첫 부산여행으로 이 호텔을 예약해주었는데 너무 너무 너무 만족스러웠습니다!! 깔끔하고 행복한 기억 남겨주셔서 감사합니다~</t>
+          <t>매트리스는 좀 그랬지만 그거 빼곤 레지던스로 생각하면 가성비 좋았어요~! 오션뷰 숙소를 이가격에~~~~~! 광안대교, 파도소리 완벽!
+저층아니라서 감사했습니다!</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4355,32 +4538,37 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>2023.04.22</t>
+          <t>2023.05.31</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>뷰가 넘 좋았어요~~주변을 다 걸어다니고 다음날 2시까지 주차를 할 수 있어서 아주 좋았구요</t>
+          <t>방 완전 깔끔함 
+빛의 속도로 빠른 체크인 
+뷰 사진과 같음
+가운, 일회용품 없으니 미리 구비해서 가져가는게 좋음
+만족</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>2023.02.20</t>
+          <t>2023.05.30</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>넓고 깨끗하고 조용했어요 전망도 좋구요 
-4층에서 다시 6층갔다가 11층까지 가는데 길이 복잡한게 유일한 단점이었네요</t>
+          <t>숙소가 생긴 지 얼마 안되었는지 엄청 깨끗해요! 
+바로 앞 건물이 다 보이는 건 좀 아쉽지만
+완전 광안리 바다 바로 앞이라 위치 만점이에요 !!</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4390,34 +4578,36 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2022.05.22</t>
+          <t>2023.05.10</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>로비랑 엘레베이터가 불편해서 아쉬웠고요 
-오래된 느낌이었어요 
-위치는 정말 정말 좋았어요 
-야외수영장도 무난했고요</t>
+          <t>바다와의 거리가 가까워좋고 앞에 가리는곳이 없어서 창문열고 숙박할수있어서 좋았습니다
+바다소리도 잘들리고 베란다에서 잠들뻔했어요
+다시 예약하고싶어요</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2022.07.13</t>
+          <t>2024.10.02</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>항상 잘쉬고 갑니다 언제나 쾌적하고 향기로운 호텔 감사합니다 ^___^ 씨클라우드 인스타도 흥하시길</t>
+          <t>뷰 하나만으로도 가치가 있어요.
+광안리라고 같은 광안리가 아니에요.
+정면뷰라야 진정한 광안리뷰 같아요.
+바디워시 샴푸 없는 건 아쉬운 점이네요.</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4427,14 +4617,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>2022.04.22</t>
+          <t>2023.03.21</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>바다가 생각보다 가까이에서 보이더라구요 너무 좋았고 숙소도 깔끔해서 좋았습니다 재방문하고 싶어요</t>
+          <t>일단 전망이 진짜 최고입니다~ 성인2 아이들2 자는데 좁지않았구요~ 광안대교 야경과 일출이 일품이었습니다~ 부산가면 또 들리겠습니다~^^</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4444,33 +4634,35 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>2024.06.22</t>
+          <t>2023.03.16</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>엘베 갈아타는게 좀 번거롭기는 합니다
-퇴실때는 엘베 줄서서 기다려야해요
-그 외는 좋습니다~~</t>
+          <t>룸 컨디션도 좋았구요
+날씨가 좋아서 테라스에서 와인 마셨는데 버스킹하는분 덕분에 노래도 듣고 뷰도좋고
+드론쇼도 볼수 있었어요
+민락회센터 걸어서 30분? 회포장 하기도 좋구요
+만족합니다</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>2024.07.08</t>
+          <t>2023.03.05</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>오션뷰 경치가 정말 좋아요. 접근성도 매우 좋고요. 티비가 너무 작은 거 빼면 다 좋습니다</t>
+          <t>청결도와 객실 크기는 다소 아쉽지만 해수욕장 바로 앞이어서 접근성이 좋았고 하프오션뷰였지만 광안대교가 훤히 잘 보이는 뷰여서 가성비로 방문하긴 좋을 것 같아요!</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -4480,84 +4672,85 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>2024.08.08</t>
+          <t>2024.02.09</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>해운대뷰에 주차도 편리하고 스파패키지라 가성비 좋게 이용했습니다. 어머니랑 함께 여행이었는데 어머니도 만족해하셨습니다!</t>
+          <t>좋아요 대신 어메니티가 하나도 없으니 유의하고 가야할 거 같고 침대가 끼익거리는 소리나요 그치만 뷰는 예쁘고 가격도 좋고 광안리 바로 앞이라 좋아요</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>2024.01.19</t>
+          <t>2024.01.30</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>그런데로 잘 지내다왔어요. 밑에 편의점있고 해운대가 보이는 뷰~ 저렴하게 잘 이용 하였네요</t>
+          <t>해수욕장 바로 앞이라 좋았어요 야외 테라스는 밖이 너무 춥고 바람이 너무 많이 불었기에 봉인 ㅎㅎ 내년 여름에 다시 와서 테라스 욕조에 몸좀 담그고 있고 싶네요</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>2023.08.12</t>
+          <t>2023.01.20</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>좋긴한데 방 바닥이 너무 지저분해요ㅠㅠ
-먼지가 저벅저벅 밟히는..그것 말고는 모두 만족합니다.</t>
+          <t>모든 면에서 최고였습니다. 시설, 청결, 위치, 서비스, 방음은 말할 필요도 없이 좋았고, 무엇보다 가장 좋았던 건 미친 뷰입니다.</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2023.06.19</t>
+          <t>2022.11.26</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>해운대서 술마시다~급하게 지인들숙소로 잡았는데~깨끗하구 바다도 살짝보이구 접근성두 죠았어요^^</t>
+          <t>2명이서 놀다가기 딱 좋았어요
+좁았다는 후기를 보고가서 그런지 생각보다 넓었습니다:)
+바다가 바로 코앞이라 놀다 들어가기 너무 좋았어요
+다음에도 이 숙소 이용할 것 같습니당ㅎㅎ</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2023.04.24</t>
+          <t>2022.10.03</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>오션뷰도 좋았고 해운대 해수욕장과 가까워 교통도 편해요:)
-엘리베이터를 갈아타야 한다고 해서 걱정했는데 엄청 빨라서 불편하지 않았습니다~</t>
+          <t>진짜 바로 바다 정면이고 냉난방 개별이어서 편리하구요. 접근성도 최곱니다. 해변에 나가 놀기도 편하고 왔다갔다 하는 것도 편리해요. 쓰레기 처리도 간단해서 잘 놀다 왔어요!</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -4567,31 +4760,35 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>2023.01.08</t>
+          <t>2022.09.10</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>중간에 엘리베이터 갈아타야되서 불편하긴 했는데 숙소는 전반적으로 너무 만족입니다 감사합니다</t>
+          <t>뷰가 진짜 최고에요 편하게 잘 쉬다갑니다 하지만 이불에 얼룩이 있어서 아쉬웠어요.ㅠ 거기다 주차 공지도 좀 더 상세하게 해주시면 좋을 거 같아요</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>2022.11.21</t>
+          <t>2022.08.25</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>예전에도 갔는데 좋아서 이번엔  호캉스로 갔어요 아웃백이 옆에 있어 테이크아웃해서 호텔에서 먹으니 최고~오션뷰 좋아요</t>
+          <t>여행하면서 숙소 선택은 여행지만큼 중요하죠
+위치 좋고 주변맛집 다 좋았어요.
+재방문 100% 입니다
+좋은숙소 선택하시여 여행의 즐거움 배가 되시길
+악플쓰는 분들은 5성급 호텔가도 쓸듯</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -4601,14 +4798,15 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>2022.07.06</t>
+          <t>2022.08.03</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>첫 부산여행이었는데 숙소가 너무 좋아서 만족도 높은 여행이 되었습니다! 다음에도 이용할게요 :)</t>
+          <t>진짜 미친뷰..진짜 이 가격에 놀라운 오션뷰로 힐링너무 잘하고가는거같아요ㅠ̑̈ㅠ̑̈ㅠ̑̈ㅠ̑̈ 다음에 또 묵을예정입니다 완전 좋았어용!
+다만 주차비용따로받는것이 조금아쉽네요ㅜㅜㅜ</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -4618,17 +4816,17 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2022.07.06</t>
+          <t>2022.07.22</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>엘리베이터 갈아타는게 번거로워요
-늦으면 주차자리 없을 것 같아요
-해운대해수욕장과 접근성은 완전 좋아요
-숙소 좋아요</t>
+          <t>가성비굿이에요
+청소를조금더신경써주시면좋을듯요
+바닥은머리카락들이있어서제가휴지로
+쓸었어요 가성비는굿입니다</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -4638,14 +4836,21 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>2022.06.22</t>
+          <t>2022.07.06</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>매번 이용하는 호텔입니다. 희망하면 좋은 위치로 주셔서 감사합니다:) 매번 너무 잘해주셔서 감사합니다:) 오래오래 번창하세요</t>
+          <t>직원분들 친절하고
+상세하게 안내해주셨고
+룸컨디션도 후기보고 걱정했지만
+정말 깨끗하고 좋았어요
+기념일 맞아 광안리 방문했는데
+성공적이었습니다
+지인들에게도 추천하고
+다음에 또 놀러올께요</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -4655,14 +4860,14 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>2022.06.02</t>
+          <t>2022.07.05</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>리모콘이 좀 위생적이지않고 화장실에 뜨거운물이 잘 안나와서 추웠어요 그치만 바닥이 따뜻해서 좋았어요</t>
+          <t>광안리 바로 앞  분위기 좋고, 깔끔하고 좋은데..어메니티 없고. 야간에 방음이 안돼서 잠을 못젔네요...장단점이 있는 곳..야경은 굿....</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -4672,14 +4877,17 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>2022.02.28</t>
+          <t>2023.06.06</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>진짜 오션뷰 너무 이뻤어요! 해운대해수욕장이랑 거리도 가깝고 위치가 좋아요! 방도 넓어서 편하게 잘 있었어요!</t>
+          <t>뷰가 너무 멋져서 또 오고싶어요
+일출보려고 여기숙소 잡은 건데 대만족이에요
+다만 청소부분이 미흡했고 화장실 세면데가 막혀있어서 불편했어요ㅠ
+방크기는 좁았지만 둘이서 자기엔 괜찮았어요</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -4689,15 +4897,14 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>2024.02.17</t>
+          <t>2022.01.22</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>해운대랑 가까워서 너무 좋았어요 서비스도 넘좋아습니다 편하게 2박3일잘놀고 갔습니다.
-다음에도 이용할 생각입니다~♡</t>
+          <t>객실에서 광안리 해수욕장의 뷰가 너무 좋았습니다. 프론트 찾아갈때 조금 헷갈려서 헤맸는데, 안내표지 한두개만 더 해두면 좋을거 같아요. 그 이외 대단히 만족하였습니다.</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -4707,14 +4914,14 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>2023.11.23</t>
+          <t>2022.01.13</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>싸고 좋게 다녀왔습니다 !! 엘레베이터가 조금 느리지만 다른거에서 다 만족해서 담에 또 가고 싶습니다 !! 잘 놀다 가요~ 👍🏻</t>
+          <t>뷰가 끝남. 숙소도 컨디션 좋고 위치자체가 최고임. 인원 추가로 수건과 이불도 넣어주시고 주차도 불편할줄 알았지만 처음만 버벅이고 잘 이용했습니다</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -4724,14 +4931,14 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>2022.07.28</t>
+          <t>2022.05.01</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>해운대역에서 가깝고 해운대 해수욕장하고 가깝고 시끄럽지않고 가격도 이정도면 싸구 만족했습니다.</t>
+          <t>저번에 급하게 당일 예약했는데 기대 이상으로 너무 좋고 만족해서 또 방문 했어요 ㅎㅎ 뷰 맛집 진짜 ㅠㅠㅠㅠ 가성비 최고에요👏🏻👏🏻</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -4741,14 +4948,14 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2022.06.07</t>
+          <t>2022.04.13</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>해운대가 잘보이고 1층에 편의점이 있어서 이용하기 편해요!  체크인은 6층에서하고 엘리베이터 갈아타는건 4층에서 해야되지만 엘리베이터가 빨리 움직여서 괜찮아요~</t>
+          <t>오션뷰가 측면이여서 별 기대 안하고 체크인 했는데 들어가자마자 너무 좋아서 2박3일동안 편안하게 부산 여행 했습니다 ☺️☺️ 다음에 또 부산 오게 된다면 여기 또 들릴게요!</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -4758,14 +4965,14 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>2022.01.17</t>
+          <t>2024.08.04</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>오션뷰 객실 너무 좋았어요. 엘레베이터를 4층에서 갈아타야하는게 좀 불편하긴 했지만 잘 쉬다 왔습니다.</t>
+          <t>다음에도 재방문의사가 있습니다 탁 트인뷰에 너무 좋더라고요 조금만 더 고층이였으면 좋겠단 생각도 있었습니다 ㅜ 하지만 너무좋았고 방도 깨끗했으며 자세하게 문자로도 설명해주시더라고요 좋았습니다</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -4775,14 +4982,14 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>2022.04.25</t>
+          <t>2022.03.29</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>해운대 해수욕장이 너무 가까워서 좋았어요 뷰도 너무나 좋아서 2박3일동안 편하게 지내다 왔어요^^</t>
+          <t>내부도 깨끗하구 너무좋앗어요 아쉬운점이잇다면 스파할때 수용복이나 옷을챙겨달라는 말씀을 조금만더 일찍해주셧다면 가서 햇을텐데ㅜㅠ 그치만 방도 따뜻하구 너무좋앗어요!!!!</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -4792,14 +4999,14 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>2022.08.15</t>
+          <t>2022.03.25</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>뷰도 매우 좋고 프론트 직원분도 매우 친절하시고 요구사항 다 들어주시고 잘 이용하고 갑니다 ~~~~</t>
+          <t>전망이 되게 아름답구여 바다두 볼수 있구요 아이와함께 좋은 추억 만들어 주셔서 감사드림니다 디음에 기획되믄에 또 다시 방문드릴께요 ^^^^</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -4809,14 +5016,14 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2022.01.01</t>
+          <t>2024.08.31</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>해운대랑 가까워서 좋지만 엘레베이터 너무 불편해요ㅠㅠ그래도 방 넓고 깨끗해서 좋았습니다~~</t>
+          <t>총 3박 했구요~ 좁았지만 저는 혼자라 괜찮았어요! 테라스 나가면 측면으로 광안리 바다 보여서 일출도 볼 수 있어서 좋았어요!</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -4826,18 +5033,14 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>2022.08.09</t>
+          <t>2023.03.17</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>너무 좋았어요!!
-남자친구랑 크리스마스 여행으로 왔는데 너무 좋았어요!! 숙소에서 내려다보면 바다뷰도 보이고, 크리스마스에는 빛축제도 해서 너무 이쁘더라구요.❤️❤️
-그리고 내려가면 편의점도 바로 있고, 그리고 바로옆에 아웃백도 있더라구요. 진짜 데이트하기 좋은 숙소인것 같아요!! 
-단점은 호텔 3개가 붙어있는것 같더라구요. 그래서 프런트 찾는데 헷갈리는게 있었어요! 그거 말곤 없어요!!
-진짜 잘 쉬다가 가요🥰🥰👍 다음에 또 이용하겠습니다!!</t>
+          <t>위치도좋고 깔끔하고 좋았어요 이전에는 정면 숙박해봤고 이번에는11호 숙박해봤는데 확실히 비싸도 정면이 좋네용! 사진은 11호 뷰에용 방크기도 11호가 훨 작아서 두명이상은 정면 추천합니다!</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -4847,31 +5050,35 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>2024.01.04</t>
+          <t>2022.02.25</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>룸업그레이드도 해주시고 넘넘 편하고 재밌게 즐기다 왔습니다 또다시 해운대올때 이용할래요!!!</t>
+          <t>주차는 뒤편 주차타워에 현금 만원 카드 만천원  내고  주차해야하는데     12시 이후로는  차를 뺄수가 없다는점   참고해주세요  정면 오션뷰는   만족 합니다.</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>2022.02.24</t>
+          <t>2022.10.12</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>너무좋았습니다. 너무좋았습니다너무좋았습니다너무좋았습니다너무좋았습니다. 너무좋았습니다너무좋았습니다너무좋았습니다너무좋았습니다. 너무좋았습니다너무좋았습니다너무좋았습니다너무좋았습니다. 너무좋았습니다너무좋았습니다너무좋았습니다</t>
+          <t>위치도 좋고 바다도잘보여요
+해수욕장서 놀다가 바로들어와서 씻기도편하고
+음식점도 가까워요 방음잘되서 잘때 조용해요
+여름이라 뜨거운물 안나와서 아쉽
+주차가 힘듭니다ㅠㅠ...</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -4881,31 +5088,36 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>2023.01.08</t>
+          <t>2024.08.02</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>해운대 바로 앞이라는 장점은 있지만 숙소까지 가는데 엘레베이터만 두번을 갈아타고 세개의 엘베를 타야돼서 외출하기가 귀찮았습니다. 나이드신 부모님과 가시는 건 비추합니다. 그래도 하프오션뷰라도 바다가 보여서 좋았고 오래된듯 했지만 숙소가 깨끗했습니다. 직원들도 친절했습니다. 1층에 편의점도 있고 스타벅스도 있고 접근성이 좋았습니다. 가격도 적당했구요! 친구들끼리 놀러갈 때 추천합니다.</t>
+          <t>엘리베이터가 좀 느린거빼곤 다 좋았어요ㅜ 바로앞이 바다고 광안대교도 잘보였어요 자기전애 무슨 벌레가 나와서 겨우 잡았는데 잡고나니 벽지에 몇마리 죽인흔적이 보이더라구요..ㅎ</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>3점</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>2022.06.29</t>
+          <t>2024.04.17</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>진심좋어요 여자친구랑 부산 휴가차간건데. 너무 뷰도 맘에들고 직원분들도 친절하시고. 여러가지로 완벽 ㅎㅎ. 단점이라면 굳이. 화장실에. 샴푸가없어섶당황한거말고눈 모둔게 완벽했어요. 또 갈게요</t>
+          <t>깨끗하고 이벤트가로 저렴하게 숙소잡았는데 생각보다너무좋았습니다
+위치도 움직이기 편했어요
+덕분에잘쉬다갑니다
+수건은준비해주시고 
+씻는건따로준비하고가셔야돼요
+숙소잡는분들참고하세요</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -4922,40 +5134,26 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>몇 년만에 다시 부산 여행 갈 일이 생겨서 친구들과 숙소 이용을 위해 코오롱을 잡았습니다. 🙂‍↕️ 간단하게 숙소 요약하자면 이렇습니다.
-장점
-1. 끝내주는 교통편. 바로 앞 해운대와 시장들 많음.
-2. 방음이 생각보다 잘됨. 조용했음.
-3. 노뷰를 잡았으나 아주 찌끔 정도 바다가 보임. 
-4. 프론트 직원은 적었으나 친절하셨음.
-5. 화장실 매우 깨끗하고 비데있음. 수건도 매우 넉넉하게 주심. 
-단점
-1. 시설 자체가 노후 됐으며 로비와 숙박 공간이 연결 돼있음. 근데 에어컨은 낡은 에어컨 몇 대가 전부라 ★★건물 전체가 습함★★ 
-2. 습기 관리가 안되는 것으로 인해 방도 습함. 이불, 침구류 대다수에서 걸레 덜 마른 것 같은 냄새가 은은하게 남+담배와 기타 사람 냄새가 빠지지 않음. 2-1. 정확하지는 않으나 창문이 방충망 또한 없어서 환기도 어려움. 에어컨 소리도 매우 컸음... 
-3. 상가 건물 중간에 있어 엘리베이터 두번 이용의 번거로움.
-4. 안에 냉장고, 세탁기가 오피스텔 수준으로 있으나 대다수 낡았음. 냉장고는 그럭저럭 괜찮았지만 세탁기 옆에 맨 시멘트 바닥에 드러나는 공간이 보여 비위생적으로 보임. 세탁기 탈수 소리 매애우 큼! 
-5. 침대 시트나 냉장고 곳곳에 닦이지 않은 얼룩과 양념 자국이 종종 보임. 
-수영장은 기상 악화로 이용 못해서 이부분은 넘어가겠습니다. 접근성이나 가성비는 좋지만 관리가 잘 되지 않는다는 느낌이 큰 숙소였습니다. 겨울이면 몰라도 저는 다시 이용 안할 것 같네요.</t>
+          <t>뷰가 정말...와 사진에서 본거랑 똑같네요
+광안리 대교가 너무 잘보이고 좋았어요~
+침대도 방도 다 깔끔한데 한가지 아쉬운점...엘베가 두개뿐이라 겁나 오래걸리는것빼곤 다 좋았어요~</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>2024.07.19</t>
+          <t>2024.08.15</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>바다뷰가 가성비 최고인것 같고 위치도 아주 좋아요.
-다만 엘레베이터 갈아타는것과 1층이 편의점 있어 좋지만 
-사람들이 많이 드나들고 담배피고해서 좀 깔끔하진 않아요. 
-그 점 빼면 가격대비 갖출것 다 갖춘 호텔인듯요</t>
+          <t>샤워실 물이 안빠져요....세면대는 더 안빠지고요....청소상태도 많이 안좋지만 전망은 좋습니다.해수욕장 바로 앞이라서 놀기 좋아요 청결하기만 하다면 굿입니다.</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -4965,83 +5163,71 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>2024.08.09</t>
+          <t>2022.06.27</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>무슨 이유가 있었겠지요
-3시 30분 정도 
-입실하자 마자
-전반적인 객실 및 화장실 내의 
-락스 냄새가 침구류까지 배어 있어
-침구류 재세팅 후
-환기를 뤼햐 창문열고 
-5시 외출 후 해변 산책 및 저녁을 먹고 
-8시 30분에 샤워 후  빵집 옵스에서 몇 개 가지고
-9시에 다시 들어와 빵을 두조각 먹다가 
-이미 코에 쩌들은 
-락스 냄새로 도저히 먹지 못하고
-10시에 퇴실하였습니다.
-무슨 이유가 있었겠지요.</t>
+          <t>사진이랑 똑같이 광안리 오션뷰가 넘 좋았고
+인덕션/정수기/냉장고/세탁기 등이 있어서 펜션 느낌도 나고 넘 편리했어요 ㅎㅎ
+바로 앞에 편의점도 있고 넷플릭스도 돼서 좋았어요 ◡̈</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>1점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>2024.07.29</t>
+          <t>2022.06.24</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>화장실 나방파리가 수건에 붙어있고 죽여도 또 나오고 소름이고 엘리베이터 4층에서 환승하는데 환장합니다.
-너무 습하고 더운데 엘리베이터 환승줄은 엄청길고 지하철보다 더 기다리는 것 같아요  진짜 두번 다시 안가...
-접근성빼면 빵점주고 싶음</t>
+          <t>3박 4일 지냈는데 뷰 미쳤고 시설도 좋았습니다 다만 첫날에만 치약제공이 되서 사무실가서 치약달라고 했는데 없다고해서 편의점가서 샀네요 그점빼고는 추천이요</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>2024.07.27</t>
+          <t>2022.01.22</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>시설이 엄청 좋고 그러지는 않지만 깔금하고 좋습니다. 해운대 해변과 해운대시장 바로 앞으라 접근성 하나만은 최고입니다. 주차도 건물지하에 하면 됩니다. 참고로 제가 있었던 기간에는 실내수영장 무료입장권을 주시네요.</t>
+          <t>정면 뷰는 진짜미쳤고 좋고 해수욕장바로앞이고 편의점도있어서 좋은데 주방용품 관리 너~무인되어있고 너무더럽고 손씻을비누없는게 너무아쉽네요</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>2024.07.25</t>
+          <t>2022.04.17</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>1. 주차 가능( 지하주차장 있어요)
-2. 4층에서 내려, 엘리베이터 바꿔 6층 데스크로 가서 체크인
-3. 배달음식 가능( 6층에서 픽업하기)
-전체적으로 좋았고, 휴가철에 오면 너무 좋을거 같아 재방문 의사 높아요^^</t>
+          <t>은근 뷰가 좋았고 
+깔끔했으나 방도많고 층수도높은데...
+엘베가작은거 두개뿐이라 엘레베이터이용이
+조금불편했어요ㅠㅠ 세면도구도 다 구매해야
+하니 참고하세요~!</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -5051,60 +5237,51 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2024.04.25</t>
+          <t>2024.07.06</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>객실규모는 큰편입니다
-해운대 바다가 보이는 22층이였습니다만 다른 건물들 간섭이 조금은 있네요
-화장실..과 샤워룸이 비교적 작아서 가성비가 좀 아쉽게 느껴집니다
-호텔 및 레지던스가 총 3개 사업자가 한 빌딩을 쓰다보니 헷갈리고 우왕좌왕하게 되는 부분이 있어 불편함을 초래합니다 
-엘레베이터를 4층에서 갈아타야만 하는 것도 객실이 만실일때는 다소 기다려야하는 불편함이 있습니다
-해변 접근성이나 근처 시장이나 식당이 가까워 좋습니다
-주말 비용으론 이용하기 많이 아쉽고 평일 가격이면 훌륭하다고 봅니다</t>
+          <t>청소가 좀 덜된느낌이 있긴하고 사실상 거의 야외 욕조는 못쓴다고 보면될거같아요 입룍제도 사용불가라하고 므ㅓ 가림막이없어서 건너편 다보이고 좀춥고 아무튼 그래도 싸서 좋아용</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>2023.05.16</t>
+          <t>2024.03.16</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>19층이어서 해운대 뷰 너무 좋았습니다. 욕실냄새, 세면대 물빠짐 개선은 필요합니다
-*특히 분리수거 안내문 있는데 분리수거 장소 준비가 안되어있네요.</t>
+          <t>뷰 하나 때문에 모든게 좋았어요
+다만 칫솔부터 시작해서 샤워용품을 따로 챙겨가거나 구매해야해서 불편했습니다.
+다른 건 다 좋았어요</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>2024.07.21</t>
+          <t>2024.03.06</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2일숙박..편히 쉬엇습니다만..
-세면대 수전은..바꾸셔야할듯해요..
-온수나 냉수 번갈아가며 졸졸세고
-소음이 심해서..아예 밸브를 잠궈버렷네요..
-엘리베이터 환승이 불편한점 이외에는
-꿀잠자고 잘 머물고 갑니다.</t>
+          <t>뷰만으로 충분히 멋진숙소에요. 하지만 체크인시간 대기하는 시간을 절약할수잇는방법이있었으면 좋겠어요
+체크인하려는인원수대비 일층엘베앞 줄서는 웨이팅공간이협소합니다</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -5114,35 +5291,35 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>2024.05.11</t>
+          <t>2024.01.13</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>바닷가 앞에 위치도 너무좋고
-근처에 먹거리 볼거리 다 좋습니다
-시설도 깔끔하고 대만족입니다</t>
+          <t>편하게 체크인, 체크아웃 할 수 있었습니다.
+뷰도 엄청 끝내주고, 덕분에 좋은 추억을 만들었네요.
+주차타워에 자리가 없어서 지하에 주차했는데, 주차료 무료였습니다.</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>2024.07.28</t>
+          <t>2023.12.09</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>바다를 바라보며 잘 쉬다왔어요.
-시설은 깨끗했어요.
-저녁에 도착했더니 숙소근처가 거의 홍대앞 분위기였습니다. 바다가 보이도록 밤새 불빛이 비추어져서 파도를 볼수있었습니다.</t>
+          <t>부산 출장 올 때마다 이용해요
+뷰 환상적이고 접근성 좋아요
+객실청결상태, 시설관리상태 좋아요</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -5152,31 +5329,31 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>2024.02.12</t>
+          <t>2023.11.17</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>엘리베이터 횐승 빼고 괜찮았어요. 냉장고 안에 작은 생수 유료라고 붙어있던데 문의해보니 무료라고 합니다.</t>
+          <t>정말뷰는좋으나 안에 시설이 깨끗하지않고 베란다욕조가 바닥에 물이세서ㅠ그래도 뷰가 좋고 위치가 좋으니 ^^~</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>2024.05.19</t>
+          <t>2024.10.06</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>위치는 괜찮은데.. 밤에 바로 앞 포차음악소라 너무 시그러워요.. 잠 못잠.. 내부는 걍 모텔</t>
+          <t>광안리 바로 앞 숙소라 좋았어요 정수기나 냉장고 커서 좋아요~~일회용품은 꼭 챙겨가세요! 밤에 보는 뷰가 진짜 좋았어요 다음에도 부산오면 올거같음</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -5186,14 +5363,16 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>2023.12.15</t>
+          <t>2023.07.08</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>좋습니다. 개인적인 업무로 인하여 가족끼리 묶고 갑니다. 위치적으로는 해운대에서 갑인것 같습니다</t>
+          <t>풀오션뷰는 가격대비 너무 좋아요
+대신 화장실에 손닦을 비누 하나정도는 있었으면 합니다
+아무것도 없어서 불편했어요</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -5203,15 +5382,16 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>2024.04.15</t>
+          <t>2024.02.28</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>오션뷰 끝내주네요
-주변 편의성도 매우 좋습니다. 단 숙소 청결은 조금만 더 신경써주셨음 하네요</t>
+          <t>남친이랑 처음가는 여행이었는데 너무 즐거운 추억만 쌓고 편하게 쉬다갑니다.
+안내해주셨던 직원분도 너무 친절하시고 방도 깨끗했어요.
+소파같은게 없어서 바닥에 앉아 티비를 봐야하는 거 빼고는 완전 만족만족대만족</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -5221,32 +5401,32 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>2023.12.29</t>
+          <t>2023.03.21</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>부산여행 갈때마다 이용하는 숙소입니다.
-교통도 편리하고 근거리 편의시설이 있어 좋아요^^</t>
+          <t>바로 앞에 뷰도 너무너무 잘 보이고 보일러도 잘 되고 냄비랑 각종 그릇도 있어서 뭐 해먹을수도 있고 최고였어요ㅠㅠㅠㅠㅠ진짜 뷰가 너무너무무 최고였어요</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>2024.02.27</t>
+          <t>2023.02.19</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>전망이 진짜 좋습니다! 바다가 한 눈에 보여서 정말 좋았고, 객실도 넓어서 가족 단위로 숙박하기에 정말 좋네요. 단, 엘리베이터를 갈아타는 게 살짝 번거롭긴 합니다. 그것 외에는 정말 마음이 들었습니다.</t>
+          <t>광안대교 뷰가 진짜 엉청이쁘고
+식기및 주방있어서 회 배달시키고 매운탕도 끓여먹었어요! 너무 좋아서 담에 또 갈께용!</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -5256,14 +5436,14 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>2024.01.12</t>
+          <t>2023.01.29</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>방이 생각보다 많이 커서 놀랬어요! 이 가격에 이 뷰에 이 크기!! 가성비 짱짱인거 같습니다! 조금 아쉬웠던 점은 매트리스가 그렇게 푹신하지는 않아요! 누우면 스프링소리가 들리는? 그래도 가격에 만족하고! 아침에 일어나서 보는 뷰는 미쳤읍니다ㅠㅠ 다음에 부산 여행 오면 또 예약할 것 같아요! 잘 놀다갑니당</t>
+          <t>화장실 안에가 보이는 거랑 세면대 물이 잘 안 내려가서 좀 불편했지만, 그 점만 빼면 교통도 좋고 바다뷰도 좋고 너무너무 좋았어요!</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -5273,15 +5453,16 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>2023.01.24</t>
+          <t>2023.01.21</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>직원분들 친절하고, SUV 주차도 되어서 좋습니다. 다만, 방음이 잘 안돼요. 새벽까지 시끄럽고 뛰어다니고.. 같이 숙박하는 사람들끼리 새벽엔 좀 자제하고, 매너 지켰으면 좋겠습니다.
-숙소에서 많은 시간을 보내는 여행이 아니라면 가성비 숙소로 추천합니다.</t>
+          <t>바다코앞이라 좋음 
+다만 청소가 조금 아쉬움 머리카락...
+그래도 가격대비 굳 직원들도 친절</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -5291,33 +5472,32 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>2024.01.05</t>
+          <t>2023.11.30</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>24층 받았는데 뷰는 사진이랑 똑같았어요. 물론 엘리베이터가 조금 불편하지만 가격도 나쁘지 않았고 뷰는 말해뭐해...따뜻하게 잘 있다왔습니다.</t>
+          <t>뷰가 정말 너무 이쁩니다 ㅎㅎ
+일반적인 호텔 구성방식(입구 로비-프론트)이 아니라 처음에는 당황스럽기도 한데 찾다보니 금방 찾겠더군요!!</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>2024.01.01</t>
+          <t>2023.11.19</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>응대가 친절합니다
-다음에도 부산 갈 일이 있으면 생각날것 같아요.
-지인에게도 소개해줬어요</t>
+          <t>너무 좋았어요ㅠㅠㅠㅠㅠ진짜 부산오면 여기 또 올거에요,, 여기 악플 다는 사람들은 어딜 가도 악플 쓸 사람들임 가성비최고에 바다 보이는 욕조 최고ㅠㅠㅠㅠ 잘 놀다 갑니다♥️♥️♥️♥️</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -5327,16 +5507,14 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>2024.01.07</t>
+          <t>2022.10.22</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>바닥 청소가 덜 되어 있는 느낌과 날파리 몇마리
-씻는 공간이 너무좁아요
-나머지는 다 만족</t>
+          <t>부산에 혼자 놀러가서 싼 가겨에 예약을 했는데 예상보다 시설이 좋고 깔끔해서 놀랐습니다. 광안리 오션뷰를 욕조에서 보는데 최고감성이었습니다.</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -5346,18 +5524,16 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>2023.08.27</t>
+          <t>2024.09.04</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>침대 뒤 창문 앞 기둥? 먼지가 소복하게 쌓여있었음
-티비가 계속 끊김
-샤워기 거치대 파손되어 있었음
-전망 좋음 빛축제 기간 방문 일출 감상
-, 엘베 갈아타긴 하지만 크게 불편하진 않았음. 체크아웃 13시 까지는 추가 요금 없어서 좋았음 여유있게 퇴실 했음.</t>
+          <t>너무 좋았어요!
+숙소 내부도 깔끔하고, 바로 앞이 광안리라서 더 좋았던 것 같아요~
+한 가지 단점은 엘리베이터가 좀 덥네요ㅠㅠ</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -5367,14 +5543,15 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>2023.12.04</t>
+          <t>2023.06.29</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>위치도 바다 바로 앞에 있고 편의시설도 잘 되어있어서 이틀동안 숙박하는데에는 문제가 없었지만 방에 먼지가 너무 많았습니다. 특히 테이블에는 손으로 훑으면 손이 새카맣게 변했고, 방 바닥은 슬리퍼가 없으면 돌아다니기가 좀 그랬습니다. 이 외에는 저렴한 가격에 잘 쉬다가 온 것 같습니다</t>
+          <t>광안리 바로 앞이라 바다도 보이고 깨끗해서 좋았어요^^
+다만 방음이 잘 안되고 화장실 샤워실 문이 좁은건 아쉬웠어요.</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -5384,16 +5561,15 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>2022.12.09</t>
+          <t>2023.06.27</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>해운대 바로 앞이라서 물놀이하고 쉬기 좋아요.
-1층 편의점이 있어 그 때 그 때 구매하기 좋아요.
-단점은 엘리베이터 갈아탄다는거..??</t>
+          <t>광안리가 눈앞에서 보여서 좋았어요!
+당일 예약해서 12시쯤에 도착해서 숙소에서 많이 못놀아서 아쉽네요 ㅠ 그래도 밖에 테라스에 스파할수있는 큰 욕조가 진짜 좋았습니다 다음에 관안리오면 꼭 여기로 다시 오고싶어요 😆😆</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -5403,14 +5579,16 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>2024.08.28</t>
+          <t>2022.08.01</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>쾌적 깨끗합니다 가성비 좋아요. 다만 엘리베이터 안 표식 만으로는 카운터 위치 인식이 잘 안돼요. 예약 후 알림 내용에 카운터까지 가는 동선을 더 자세히 안내할 필요가 있습니다. 4층 카운터에서 뻘쭘할 일 없도록요</t>
+          <t>정말최고 뷰맛집에 인테리어도 완전인스타갬성
+같은건물에 다른업체도 이용해봤는데 위더스오션이 
+더좋아요 진심 추천합니다 두번추천해요</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -5420,119 +5598,123 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>2024.01.10</t>
+          <t>2022.07.05</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>전망은 좋아요 근데 숙소내에서 샴푸 린스 바디워시 드라이기 수건 이거 빼고는 아무것도 없다고 생각하시면 됩니다. 방에 비해서 티비도 너무 작고 ott는 당연히 안되고 그리고 제일 좋은 방을 예약해서 갔는데 화장실 벽지 뜯어져있고 안방 문은 제대로 닫히지도 않고 덜컹거리구요 오션뷰 창문 틀은 먼지랑....침구쪽에 뭐 콘센트도 없고....밑에 내려가서 빌려야하고 성수기에는 퇴실 연장도 안되니까 11시에 이용객이 너무 많은데 엘리베이터가 갈아타야하기도 하고 넘 적으니까 내려가는데도 한참 걸려요 20층이라 계단이용도 힘들고....엄청 번거롭습니다 그리고 부가적으로 요즘은 해운대에서도 할게 딱히 없어서 잘안논다고 하더라구요 주변에 술집말고 딱히 놀거리가 없기도 하고 일단 번화가 쪽이라 저녁에 시끄럽더라구요 광안이나 서면 쪽에서 놀았는데 이 돈이면 건너편 호텔가는걸 추천 드립니다 가격에 비해서 부가시설이나 위치 뭐 이런 여러가지들이 너무 아쉬워요;</t>
+          <t>야경은 좋았어요 
+화장실이 변기가 지저분했어요 정수기 가까이 있었어요 광안리 가까이 있어 구경 실컷했어요
+방이 좁아 정수기랑 냉장고 돌아가는 소리가 잘 들을수도 있어요</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>2024.08.21</t>
+          <t>2023.04.15</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>저렴한 가격에 예약하게 되었습니다. 후기가 너무 갈려서 조금 걱정하긴 했었지만 못 잘 정도는 아니었습니다. 하지만 침구류의 머리카락 뭉텅이는 좀 충격적이었습니다. 청결은 기본이라 생각하는데 시국도 시국인지라 많이 찝찝했네요. 바닥도 그렇고 화장실도 전체적으로 깨끗하다는 느낌은 없었습니다. 방음 정도도 많이 열악합니다. 옆 방 소리는 물론 복도 소리까지 너무 잘 들려서 신경이 쓰였습니다. 열리는 창은 작은 창 하나가 다인데 그 마저도 활짝 열리는 창이 아니라 (해당 사항은 안전상의 이유인 듯하니 이해합니다) 환기가 제대로 되지 않아 음식물 섭취 후 음식 냄새로 많이 힘들었습니다. 환승 2번 해야하는 엘리베이터 는 좀 번거롭긴 했으나 편의점도 가깝고 해수욕장도 가까우며 해리단길까지 거리도 멀지 않아 위치접근성 면에서는 5점 주고 싶습니다. 숙소에서 시간을 많이 보내지 않을, 짐 두고 간단히 눈만 붙이실 분들에게는 가격이 워낙 저렴하니 나쁘지 않을 선택지가 될 것 같지만, 깨끗한 숙소에서의 깔끔한 호캉스, 또는 숙소에서 뒹굴뒹굴을 원하시는 분들에게는 비추합니다. 아, 오션뷰가 전부 오션뷰가 아니라  그 점도 큰 기대는 안 하셨으면 합니다. 고층 호실이 아닌 이상 바다는 보기 힘듭니다... 중앙 난방 방식이라 걱정하시는 분들도 계시던데 저와 일행이 묵은 숙소는 남향으로 햇볕이 잘 들어 겨울임에도 불구하고 상당히 따뜻하게 지낼 수 있었으니 참고하시면 좋을 것 같습니다.</t>
+          <t>광안리에서 놀다가 급 숙소 구한건데 너무 좋았어요
+화장실  공간이 작거나 빗이 없어서 아숩긴했지만 여행객인 전 늘 들고 다니는거라 ㅎㅎ  그거빼곤 테라스 욕조나 뷰 넘 좋았어요</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>2021.02.19</t>
+          <t>2022.05.19</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>역시 오션뷰!! 너무 멋있고 좋았어요!! 숙소 침구도 푹신하고 편안했습니다. 다만 변기 수압이 약해서 불안?했달까요.. 그거빼고는 잘 쉬었습니다^^</t>
+          <t>오피스텔처럼 되어있어서 사알짝 방이 작은 느낌이긴했는데 깔끔하고 광안리랑 가까워서 좋았어요 어메니티는 구비되어 있지 않은 점이 아쉽긴 했지만 가격대비 좋아서 다음에 또 방문할 것 같아요</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>2023.12.04</t>
+          <t>2023.02.16</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>단점: 냉장고 안에 물 넣어주시잖아요..거기 위에 보시면 남이 먹던거 안치우셨더라구요ㅠㅠ(새물은 따로 있었음 그래도 괜히 찝찝..)그리고 조명이 침대부분이 하얀조명이어서 밝고 테이블 있는 쪽이 노란조명이어서 테이블에서 먹고 놀때 조금 불편했어요ㅠㅠ반대로 조명이었으면 더 좋았을텐데ㅜㅜㅜㅜ화장실 조명도 좀 약해서 눈이 침침했구요ㅠㅠ!!침대는 전 괜찮았는데 지인은 허리 너무 아프다고 그랬고 베개가 엄청 푹신해서 너무 움푹 들어가서 아무것도 안베고 잔 기분...!!헣ㅎㅎㅎㅎ헣헣ㅎ...그리고 처음 가면 어...여기로 들어가는게 맞나..?싶고 엘레베이터를 갈아타서 들어가야되니깐 조금 불편했어요.
-장점: 에어컨 오지게 빵빵합니다.아주 쾌적.가격대비는 진짜 좋은거같아요!해운대도 조금 보이구 바다랑 진짜 가까워서 넘 편했어요. 그리고 바로 밑에가 씨유랑 지에스편의점 둘다 있어서 뭐 모자르면 바로바로 사러갈수있어서 좋았구요!!!
-어쩌다보니 단점이 조금 더 많네요..!아마 신축건물은 아니다보니 그런거같아요ㅎㅎ그래도 이만한 가격 절대 못찾을거같습니다 좋아용👍</t>
+          <t>샴푸 린스도 없어서 챙겨 가시는 게 좋구요 폼클렌징은 자판기가 비싸니 앞 세븐일레븐에서 구매하셔요 날파리가 조금 있더라구요 뷰 좋고 위치 좋아요</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>2021.08.27</t>
+          <t>2023.02.14</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>해운대 바다 앞에 있어서 위치는 정말 좋은데 엘레베이터를 갈아타야하는 점이 너무 불편했습니다</t>
+          <t>주방기구들은 청결하지 못해 아예 사용하지 않았지만
+그 외 모든 부분 만족스러웠습니다
+다시 이용할 의사 있습니다</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>2024.07.30</t>
+          <t>2023.02.02</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>위치도 좋아 잘 묵고 엘베 불편한건 알고 선택한 곳이라 좋았는데 맡인짐 찾으러 가면서 휴지통이 거리에 안보여
-좀 버려달라고 부탁 했는데 자기네도 휴지통 없어서 못버려 준다고ᆢ기분이 확 상했네요ᆢ체크 아웃 한 고객은 고객이 아닌가요?</t>
+          <t>광안리 바로 코앞이라 뷰 대박이에요.. 너무 행복했어요 ㅠㅠ 머리카락이라던지 청결도는 떨어졌는데 위치 접근성이랑 직원분들 친절함때문에 추천이에요</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>2022.11.28</t>
+          <t>2022.10.10</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>한 건물에 숙박업소가 3곳이 몰려있어, 체크인 체크아웃시 엘레베이터에 타기가 겁날정도로 복잡함. 가족단위 투숙객들이 많이서 유모차 러쉬 당하면 다리에 힘이 풀릴정도. 단, 가격대비 숙소 컨디션이나 위치는 너무 좋았음. 주차장도 지하 6층까지 있어 넉넉함!</t>
+          <t>뷰가 아름다웠습니다!! 객실 청결도는 아쉬웠습니다.
+화장실이 좁습니다~ 그리고 반투명 유리로 되어 있습니다!
++++ 뷰가 너무 좋았어서 또 방문할 의사 있습니다~ 청소만 신경 써주시길 바랍니다~~ 좋은 하루 되세요</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -5542,33 +5724,34 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>2022.08.16</t>
+          <t>2022.10.09</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>객실가려면 엘리베이터를 갈아타야 합니다
-전체적으로 노후된 느낌이고 침구는 머리카락이나 먼지가 좀 보였습니다
-아무래도 중심가이다보니 외부 소음도 조금은 있습니다</t>
+          <t>전망은 정말 최고입니다
+어메니티가 없어서 구매해야했지만
+객실 자체는 매우 깨끗하고 세탁기가 있어 너무좋고
+욕조와 뷰 가 너무 좋았습니다</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>2024.02.07</t>
+          <t>2024.08.16</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>객실 시설이 약간 낡긴 했어도 숙소는 갈끔 했습니다. 해운대에서 가깝고 전망도 좋고 만족했습니다.</t>
+          <t>약간 친구 원룸놀러간느낌이구요 머리카락이 조금씩보여요 주차도 하루만원정도 내야하구여 광안대교보면서 스파할수있는건 진짜 좋아요!</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -5578,21 +5761,15 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>2023.06.11</t>
+          <t>2022.01.14</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>해운대 해수욕장 근처로 바다가 일부 보입니다.
-16층 배정 받았어요.
-뷰나 청결도 친절도 모두 만족스럽습니다.
-다만 편리성이 좀 떨어지네요.
-로비는 6층 엘리베이터는 4층 무조건 환승.
-객실에서 나가려면 4층에서 승강기 환승을 해야합니다.
-물론 그래서 좀 저렴한 편일거라 생각합니다.
-아무튼 엘리베이터만 빼면 모두 만족스럽습니다.</t>
+          <t>어메니티 없는 것이 많이 불편했어요
+테라스에 욕조 있어 작지만 야외느낌 담을 수 있어 괜찮았구요 전체적으로 깔끔하고 좋았어요</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -5602,50 +5779,51 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>2022.07.24</t>
+          <t>2024.05.08</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>해운대가 조금 보여요.
-시절이 오래되고 엘리베이터가 불편한 점이 아쉽지만 위치가 좋은 게 장점입니다.
-친구랑 오기 좋은 장소입니다</t>
+          <t>위치 및 객실 청결상태가 너무 좋았고 특히 완전 광안대교 정면부 그리고 테라스가 있어서 너무 좋았어요!</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>2024.10.06</t>
+          <t>2024.05.03</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>잠만잘거라 18시 체크인으로 저렴하게 이용했습니다! 가성비 룸 컨디션도 나쁘지 않았습니다. 다만 엘베 환승해야하는게 좀 불편하더라구요~ 많이 기다려야하고..</t>
+          <t>측면인데도 뷰가좋았고 욕실이 좁은거빼곤 다 좋았습니다
+이번에 또갈까합니다
+정면뷰로할까고민중입니다
+야경이끝내줍니다</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>2023.09.04</t>
+          <t>2024.04.09</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>일단 위치가 깡패에요. 숙소에서 해운대 한 가운데가 너무 잘 보입니다. 상점들과 인접해 있어서 시끄럽지 않을까 걱정했는데 방음이 잘 돼서 괜찮았습니다. 근데 엘베는 의외로 좀 불편했어요. 1층까지 가려면 환승을 해야해서 사람들이 많이 타는 체크아웃 시간에는 줄을 서서 타야합니다. 그래서 엘베 기다리는데 시간을 좀 많이 허비했네요. 그래도 위치가 너무 좋아서 재방문 의사 있습니다.</t>
+          <t>깨끗하고 뷰가 너무 이뻤어요 일회용품 없는건 알고 갔지만 샴푸,린스,바디워시까지 없을 줄이야....그 점이 조금 아쉬웠어요</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -5655,52 +5833,54 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>2024.08.06</t>
+          <t>2024.03.31</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>위치는  해운대 앞이라 아주 만족
-하지만 엘리베이터 이용부분 몹시불편
-수압 진짜낮고 화장실 조명 너무 어두움</t>
+          <t>광안대교가 보이는 오션뷰
+정말 ㆍ멋진야경
+가성비호텔. 굿이에요
+엘터 사용 불편했지만. 룸에서보는 바다
+ 좋아요</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>2022.10.25</t>
+          <t>2024.03.25</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>위치도 너무좋고! 
-전망도 너무좋아요! 
-조금 낡은거빼구 ㅠㅠ 친절하구 좋았습니다!!!</t>
+          <t>깔끔하고 좋았어요!!! 바다뷰도 너무 완벽하고 분위기도 너무 좋아요!!! 아침에 해뜨는것도 볼 수 있었답니다!! 다음에 또 부산갈일 있으면 여기로 가려구요</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>2023.05.28</t>
+          <t>2024.03.15</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>해운대가 바로 보이는 객실이여서 역시 뷰만큼은 최고인거 같아요~~! 객실도 넓고 욕조도 있어서 여행의 피로를 풀기엔 너무 좋았어요~~! 근데 따뜻한물이 그닥 뜨겁지 않더라고요~ 아쉬운 부분이에요~ 다른 접근성이나 시설은 다 좋았습니다~</t>
+          <t>뷰 맛집 ㄹㅇㄹㅇ 뷰맛집 ㅜㅜ
+광안리 바다 너무 잘보이고 완전 굿…
+연박이라 수건이 부족해서 말씀드렸더니 4개나 챙겨주셔써용 ㅎㅎ 아주 굿!!!</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -5710,60 +5890,53 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>2022.12.25</t>
+          <t>2024.01.31</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>숙소 뷰는 좋았으며 체크인시 친절한 직원분이 응대 해주셔서 만족 했습니다.
-접근성도 좋았습니다
-객실 내부는 전체적으로 깔끔했지만
-화장실 샤워 부스가 좁고 샤워부스칸 손잡이가 없어 안에서 밖으로 나가기가 매우 어려워 손잡이 설치를 해주면 좋을것 같네요~
-배게는 두개만 있는데 네개 였으면 좋겟네요~
-매번 객실 갈때마다 4층에서 1층으로 환승하는게 불편했어요 
-전체적으로 만족입니다~</t>
+          <t>뷰가 진짜 환상이에요! 담에 또 이용하고 싶은 곳
+다만 수건이 하나만 더 있으면 좋을 것 같아요</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>2022.12.17</t>
+          <t>2024.01.22</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>체크인하면서 응대라던가 .... 진행시간이라던가...요청사항이라던가 불편한부분은 조금 있었지만 이가격에 이정도 룸 사이즈에 더이상 바랄게없네요. 자주 이용하지만 후기는 첨 남겨봐요</t>
+          <t>위생이 그렇게 좋았다곤 말하지 못하겠어요
+그래도 정수기 있는건 좋았어요
+그리고 테라스 뷰 진짜 예뻤고 편의점이나 음식점 다 가까이 있어서 편했어요
+넷플릭스는 개인계정 써야돼요ㅜㅠ</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>2022.09.10</t>
+          <t>2024.06.19</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>일단 다른 후기대로 완벽한 청결은 아니였어요
-그래도 하프오션뷰였는데도 뷰 하나는 진짜 좋더라고요
-불편했던 점은 화장실 물 수압이 너무 너무 약해요
-차라리 주방 수압이 훨 세용
-다른분들은 엘베 갈아타야해서 힘들다고 하셨는데 제 개인적으론 그 부분은 크게 힘들진 않았지만
-체크아웃할때는 엘베 줄이 밀려서 계단으로 결국 내려갔어요~~~~~ 다른날은 어떨지 모르겠지만 미리 나가시는걸 추천 !!!
-증말 뷰가 짱이에요</t>
+          <t>바닷가 바로 앞이라 산책하기도 좋았고 뷰가 정말 멋있어서 편하게 쉬었습니더.
+오피스텔 느낌이라 세탁기도 있어요</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -5773,63 +5946,53 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>2021.12.26</t>
+          <t>2023.07.05</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>(장점)
-해운대 바로 앞이에요. 해운대라서 근처 먹거리 놀거리 많아요.
-2인실인데.. 방이 엄청 넓어요. 하프오션뷰도 나름 괜찮네요~
-조식은 별도로 신청 안해서 그냥 4층가서 돈 내고 먹었는데, 기대 안햇다가 존맛탱이라 실로 놀람..
-(단점)
-침대가 노후한건지 스프링이 별로 안좋고 불편,  배게는 숨이 다 빠져서.. 베게가 잇으나 마나에요.. 완전 불편..이정도면 베개를 각각 두개씩은 놔 주셔야 할거같은ㄷㅔ.... 
-그리고 새벽에 오토바이들이 엄청 질주하는거 같던데.. 진심 방음 1도 안돼요.. 시끄러워서 잠 못자요..
-다음에 다시 가라고 한다면.. 글쎄요.. 가성비는 좋다고 할 수 있지만, 엄청 추천은 못할거같아여</t>
+          <t>뷰가 진짜 와~소리 날정도로 쵝오였어요
+사실 찾는게 좀 힘들었는데 전화로 잘설명해주시고
+금방 입실해서 좋은 추억만들어가요~</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>2021.05.30</t>
+          <t>2023.06.20</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>잘 쉬고 왔어요
-추석연휴인데 불구하고
-적당한 금액대로 잘 쉬고 왔어요
-단지 객실내 식기 이런게 하나도 없어서
-좀 아쉬웠어요 냄비나 주전자 그릇 하나 없더라구요</t>
+          <t>엘레베이터가 두대여서 조금 느렸지만 그래도 뷰가 너무 좋고 이쁘고 바다 바로 앞이고 일층에 와인샵이랑 편의점이있어서 편하고 좋았어요 친구랑 좋은 여행즐기다갑니다~!</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>2022.09.12</t>
+          <t>2023.05.22</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>해운대 해변에서 가깝고 해리단길, 지하철역, 부산역까지 가는 버스 다 가까워서 좋았어요!
-1층에서 4층, 6층으로 엘리베이터 갈아타는게 좀 귀찮긴 하지만 그렇게 오래 기다리진 않아요.
-하프오션뷰로 전망도 좋고 방도 넓고 좋았어요
-대신 싱글침대 커버에 파운데이션?같은게 묻어있어서 좀 찝찝했어요.
-그리고 칫솔, 치약이 제공되지 않아서 구매해야합니다.</t>
+          <t>생각했던것보다 느므느므 좋앗어여
+측면뷰라도 잘보이그 편의점도 바로있구
+욕조가있어서 아들이 넘넘좋아해서 하루더 연장했다는 ㅋㅋㅋㅋ덕뷴에 즐거운여행됬어여
+담에도 또 이용할게요~~</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -5839,17 +6002,15 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>2022.03.27</t>
+          <t>2023.04.12</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>건물이 오래된게 내부를 보면 티가 나요-!!!
-깔끔하긴 했지만 오래된건 티가 엄청 납니다! 
-화장실이랑 에어컨 쪽에 곰팡이가 있어서 조오금 ㅎㅎㅎㅎㅎ 그랬네용!
-잠을 푹 잘잤고 조용하고 해운대해수욕장이랑 5분거리라서 좋았어요!!!</t>
+          <t>두번째 이용합니다. 가성비 최고의 숙소에요.
+뷰야 뭐 말할것 없고, 욕조에서 보는 밤바다와 들리는 버스킹. 최고의 추억입니다.</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -5859,37 +6020,31 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>2022.09.14</t>
+          <t>2023.03.31</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>여름 성수기 때 이 가격에 이런 위치와 해운대뷰를 보여주는 숙소는 없을 거예요. 28층에서 내려다보는 해운대뷰는 정말 환상이었어요. 
-다른 분들이 지적하는 청결의 문제, 엘리베이터 문제가 아주 없는 것은 아니지만 불편할 정도는 아니었어요. 
-방도 3명이 쓰기에는 엄청 넓었고, 전망이 너무 좋아서 창문 커튼을 다 열어두고 잠이 들었었어요.^^
-호텔 입구만 나오면 해운대 해수욕장과 시장, 많은 것들을 한 번에 해결할 수 있는 멋진 곳입니다.
-다음에 또 오고 싶은 곳이에요. 지인들에게 강추한 숙소입니다.^^</t>
+          <t>바다 바로 앞에 위치하고 있습니다. 교통도 좋고 주변 먹을 곳도 많아요. 진짜 뷰 위치 시설 다 만족합니다</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>2021.08.09</t>
+          <t>2023.03.17</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>하프오션뷰라 걱정했는데 생각보다 잘 보였습니다.
-바로 앞 광장도 잘 보이고, 버스킹공연같은거 구경하는것도 재밌었습니다.
-레지던스는 4층에서 엘리베이터를 갈아타는게 좀 번거롭긴 합니다.</t>
+          <t>시설이 깔끔하고 티비와 침구류등 모든게 마음에 들었습니다~~또 앞에 바다전망 뷰가 낮은물론이고 저녁까지 이뻤습니다</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -5899,34 +6054,34 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>2022.10.18</t>
+          <t>2023.02.28</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>엘베가 조금 불편하고
-청소가 깔끔하지 못했습니다 침대가 조금밀렸는데 쓰레기가 나오더라구요 그런것만 주의해주시면 오션뷰고 해서 좋았어용
-근데 오션뷰 딱 사진처럼 조금만 보이는게 약간 아쉬웠습니다
-친절응대 감사했습니당</t>
+          <t>부산가서 처음 가봤는데 너무 좋았어요ㅠㅠ광안리 바다도 한 눈에 보이고 다음에 가면 또 재방문 하려구요!</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>2023.12.05</t>
+          <t>2023.01.06</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>해운대가면 항상 이용하는 씨클라우드 이번에도 고민없이 예약했어요. 연식이 오래되어도 시설이나 교통등 장점이 더더많은곳인데 이번에 배정받은방은 욕실세면대 물이 너무 안빠져서 양치까지 모두 샤워부스에서 해결했네요 . 이것만 해결되면 별5개에요. 이번에도 잘 쉬고 갑니다</t>
+          <t>바다보면서 욕조도 가능하고 위치도 엄청 좋았어요.
+2박3일 머무르면서 진짜 꿀잠잤습니다.
+다음에도 부산오면 여기로 할래여 넘좋았어요.
+다만 세면대가 물이 잘안내려가서 고것만 아쉬웠어용.</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -5936,182 +6091,155 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>2022.02.20</t>
+          <t>2022.11.23</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>위치는 최상, 가성비 단연 최고
-최신시설은 아니지만 불편함 전혀 없고 
-청소상태 좋아 청결함.
-주차장 이용 너무 편리하고 체크아웃하고도 당일 2시까지 무료주차가능.
-고층 오션뷰 전망은 하루종일 최상.
-단 엘리베이터 환승이 약간 어색함.
-칫솔치약은 준비해야 함.</t>
+          <t>어메니티가 없다는건 알고 있었는데 비누마저 없을 줄이야 ㅎ ㅎ 정말 아무것도 앖네용 다 챙겨가야 될거 같아요 뷰는 끝내주고용 거울도 없어서 여성분을 화장하신다면 손거울 챙겨가세욥</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>2022.05.06</t>
+          <t>2023.07.18</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>가격 대비 괜찮았습니다. 다만, 욕실 샤워부스가 오픈되어 있어서 물이 다 흘러 넘쳐 불편했습니다. 또 방문할 의사는 있습니다.</t>
+          <t>일단 위치가 부족한 부분을 다 채워줍니다.
+전반적으로 만족하고 갑니다. 뷰가 진짜 미쳤습니다!
+다시 재방문 의사 분명합니다.</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>2024.07.07</t>
+          <t>2024.08.06</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>가성비 좋음 시설은 크게 좋지도 나쁘지도 않은데 수업이 약하긴 하지만 싼방 잡아 그런가 싶기도 하지만 나쁘지 않음</t>
+          <t>매번 여기서 힐링 하고 갑니다! 어매니티 다 있고 조리기구도 있는게 너무 좋아요.. 욕실 없는 방은 침대가 아닌 메트리스 이기 때문에 침대가 굉장히 낮습니다!</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>2024.01.11</t>
+          <t>2022.09.06</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>혼자 머물렀는데 저는 머리도 짧은데 긴머리카락이 발견되었던건 이전 투숙객의 흔적일테고 당연히 청소 미흡이겠죠? 환경을 위해 어쩌구저쩌구 써있던데 설마 환경을 위해 세탁시 세제를 아끼는건지? 샤워후 수건을으로 몸을 닦고 수건이 물을 흡수하고나니 걸레냄새가 납디다. 청결을 위한 것들은 아끼지 마시고 청결은 지나쳐도 나쁜게 아닙니다. 대로가 인접해 9층인데도 새벽에는 자동차 엔진 소리에 깨서 잠을 설치기 일수고 잠귀가 밝거나 예민한 성격도 아닌데 인근 해운대 해변에서 새벽까지 허접한 불꽃놀이의 폭죽 소리가 다 들릴 정도로 방음이 부실하네요. 또한 커튼도 엷어서 아침이 일찍 찾아오는 터라(일찍 밝아짐) 뷰고 뭐고 일단 수면의 질을 생각하신다면 비추입니다. 솔직히 아재라 방 옮기는것도 귀찮아서 여행을 혼자 하면서 웬만하면 짧게는 이틀 길게는 3~5일은 한곳에 연박하면서 여행을 하던 중이었는데 여기는 하루만에 탈출했다 싶을 정도로 모든게 흡족하지 못했어요. 체크아웃 하고 이 호텔 떠나다가 발견해 다시 올라간 건물 구내 식당이 유일한 장점이었네요. 지역 맛집에 질릴때쯤 평범한(?) 한끼 오천원의 행복 딱👍😊</t>
+          <t>뷰가 진짜 최고이고, 깔끔하고 감각적이게 잘 꾸며놔서 좋았어요 
+덕분에 3박 4일 휴가 잘 보내고 갑니다!! 
+자쿠지에서 와인한잔 하면서, 광안대교 보는데 진짜 최고였음👍👍</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>2020.06.30</t>
+          <t>2022.08.27</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>사진을 한장도 못찍었네요  룸 컨디션 좋았고 하프오션뷰 였는데  룸 업그레이드 해주셔서 해운대 오션뷰제대로 즐겼습니다.
- 샴푸 린스 비누 빗 드라이기는 있으나 칫솔은 없으니 챙겨가셔야되고,핸드폰 충전기는 없었습니다.
-tv인치가 작은편.큰모니터수준? 
-객실내 드럼세탁기 인덕션 냉장고 O
-호텔내부 헬스장도 있었는데 이용해보진않았습니다.
-레지던스 호텔과 따로 운영하시는지 체크인은 6층에서하고  4층에서 경유하여 1층내려가야하는 약간은 번거로움이 있었습니다. 
-침구가 굉장히 몸에  감기고  좋더군요 난방이 잘되서 그런지 더웠습니다 에어컨 틀고 쉬었답니다:; ㅋ
- 호텔근처 먹거리 다양하고, 해수욕장 바로앞이라 산책하기 좋았습니다 .담배는 1층에서 피시면되고 편의점이 CU와GS 두군데가 있어 편리했습니다.</t>
+          <t>뷰는 너무너무 좋아요 위치도 너무 좋아요 다른 후기들 그대로 청소상태는 기대마시지만 뷰가 모든 것을 해소시켜줍니다</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>2021.01.15</t>
+          <t>2023.03.27</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>위치: 최상상상
-서비스: 매우 친절하심
-시설: 벽지 성태 안좋음, TV 너무 작음
-청결도: 시설 자체가 낙후된 편이라 그렇지 바닥, 세면대, 침대 커버는 깨끗함
-아침에 일어나서 눈 뜨면 바다 풍경 보이는데, 이정도 가격이면 훌륭한편. 벽지만 조금 바꾸면 아쉬울게 없음.</t>
+          <t>욕조 뷰 대박!역간 호텔도 아니고 펜션도 아닌데 안에서 밥도 해먹을 수 있어 정말 좋았습니다ㅎㅎㅎ</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>2023.01.28</t>
+          <t>2022.06.19</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>솔직후기
-장점)
-호텔 느낌 남
-놀러 온 느낌 남
-위치가 사기임..(바다 바로 앞이고 놀기 좋음 ㅠㅠ)
-바다뷰 보임
-넓어서 좋음
-사람들이 많이 사용하는 만큼 좋았음
-친절한 서비스 좋았음
-단점)
-칫솔치약은 사야함 (두세트 1000원)
-클렌징폼 없음
-엘베 4층인가? 갈아타야함
-후기: 저는 좋은 추억으로 남았어요! 또 올거같아요! 감사합니다!!!</t>
+          <t>뷰 좋았음 대신 테라스열면 
+모기 있었음 ㅜ 콘센트 침대근처에 없어서 불편스ㅜ 그외 단점 없음</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>2021.11.19</t>
+          <t>2022.06.16</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>프로트가 13층인데 4층에서 환승해야는 번거로움이 있었지만 엘리베이터가 엄청 빨라서 금방 도착하더라구요ㅎ 프론트엔 갈때마다 직원이 안계심.. 그래서 기다렸어요. 한건물안 다른 호텔 두곳은 프로트에 직원두명씩 계시던데 그부분이 아쉬웠어요~ 하지만 이만한 가성비가 없어서 자주 애용하는 편입니다~</t>
+          <t>숙소에서 본 광안리 뷰 .. 진짜 성수기 끝나고 또 갈꺼예요 ㅠ 그대신 칫솔 치약 이런건 사가야 합니다!</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>2023.03.26</t>
+          <t>2024.08.05</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>해운대해변 접근성이나 먹거리촌은 가까워서 위치는 참 좋은데, 너무 낡았어요.
-큰평수들은 좀 리모델링을 하셨는데, 작은평수는 바닥이 다 일어나고 난리더라구요.
-리모델링만 좀 더 된다면 가성비 괜찮습니다.</t>
+          <t>좋았어요! 4명이면 방을 두개 잡아야할거같아요 ㅎㅎ 완전 아늑하고 좋았어요! 주말이면 사람이 많아서 방을 두개 못 잡으시면 미리 전화해서 침구 몇개 필요한지 말하셔도 될듯!</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -6121,16 +6249,14 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>2022.07.30</t>
+          <t>2023.02.27</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>해운대해변 접근성이나 먹거리촌은 가까워서 위치는 참 좋은데, 너무 낡았어요.
-큰평수들은 좀 리모델링을 하셨는데, 작은평수는 바닥이 다 일어나고 난리더라구요.
-리모델링만 좀 더 된다면 가성비 괜찮습니다.</t>
+          <t>일단 후기보고 좀 걱정했는데 좋았어요! 뷰는진짜 최고... 어메니티는 없다는거알고가서 앞에편의점에서 구매했어요! 또가고싶네요,,,</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -6140,14 +6266,19 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>2022.07.30</t>
+          <t>2023.02.08</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>엘리베이터 1층-4층까지 갔다가 4층-6층 가서 체크인 후 6층-23층 총 3번 탔습니다.. 처음 체크인만 그렇고 그 이후는 2번만 타면 돼서 나갔을 때 최대한 놀고 돌아오면 안 귀찮아요. 숙소 접근성 좋고 밤에 밖에 바라보면 저 멀리 광안리 다리도 보여요. 만족했습니다</t>
+          <t>미친뷰 미친뷰 
+뷰는 정말 끝내줍니다 
+말이 필요 없어요 밤에는 밤
+아침은 아침 
+문 열어두면 파도소리 
+잘 쉬다 갑니다^^</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -6157,31 +6288,35 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>2024.04.24</t>
+          <t>2022.04.07</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>방도 크고 우선 뷰가 너무 좋아요ㅠㅠ 근데 가격이 저렴해서 그런 지 확실히 청결도가 떨어져요..책상이 아예 안 닦여있어서 뭐가 묻어있더라구요ㅠㅠ그래두 뷰맛집ㅠㅠ🥺</t>
+          <t>숙소 깔끔했고 저렴한가격에 오션뷰 봤습니다
+다만 화장실 내에서 배수관따라서인지 악취가 좀 많이났었습니다</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>2022.08.30</t>
+          <t>2022.03.02</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>로비가 공사 중이어서 숙소에서 1층으로 나가기가 매우 번거로움. 숙소는 청결한 편이고 위치는 해운대 바로 앞이어서 좋음</t>
+          <t>급하게 숙소잡느라 일찍 입실 가능한곳을 못찾고, 그나마 리뷰에서 뷰가좋다고해서 예약한곳인데,
+16시에 입실인거 빼곤 너무 좋았어요.
+특히 20층으로 주셔서 뷰가 진짜 너무 이뻤습니다…
+성수기 아닐때 비교적 싸게 다시 가고싶어요.ㅠㅠ</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -6191,92 +6326,85 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>2022.06.30</t>
+          <t>2022.07.31</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>오션뷰라고 하지만.. 뭔가 반오션뷰처럼 느껴졌고 엘리베이터 갈아타야된다는게 불편했어요 니머지는 다 좋았어요~!!</t>
+          <t>뷰가 진짜 다했어요
+위치도 너무 좋았구용
+샤워제품을 따로 챙겨왔어야하는걸 몰랐어서
+자판기로 구매했는데 향이 진짜 너무 좋더라구요</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>2022.12.19</t>
+          <t>2024.08.16</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>테이블에 과자 부스러기있어서 프론트에 전화
-그 부분만 정비 또는 5층 룸으로 옮길 수 있었음 같은층이면 괜찮을텐데 오션뷰를 포기 못해서 정비 요청 후 객실 보니 변기위에 이전 사람 머리카락은 왜 있는건지;; 결국 방 옮김 
-위치와 뷰는 좋았어요ㅠ 
-가격을 올리고 추가 고용을 하셔서 정비상태가 나아졌으면</t>
+          <t>하루전날 급하게 잡은건데 뷰도 너무 이쁘고 시설도 엄청 깨끗해요! 바로 앞 해수욕장과 주변에 있을거 다 있어요! (샴푸비누같은 용품은 챙겨가셔야해요)</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>2021.12.28</t>
+          <t>2024.07.08</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>갓성비 재방문 의사는 있습니다... 다만, 층간소음은 최악이었습니다... 옆방인지 밑방인지 윗방인지... 다수의 여성이 트와이스, 태연 노래 틀어 놓고 노래 부르고 소리 지르고... 새벽 3 시까지... 이 건 아니다 프런트로 전화했더니 바로 조용해 졌습니다... 그 덕분에 둘째 깨서... 재우느라 4시 30분에 잤네요 -_-+ 이벤트 파티 금지라 되어 있는데... 씁 ;;
-가족 단위 넓어서 좋다 = 모여서 놀기 좋다 
-랜덤 배정인데... 코너 스위트 감사했고 아쿠아리움 가서 잘 놀고 잘 먹고 잘 잤는데... 밤의 층간소음은... -_-+ 다음엔 뷰 없어도 되니까 조용한 곳으로 부탁 드려야 할 것 같습니다... 따수미 텐트는 집에서 들고 왔어요~ 탁월한 선택 ㅋ
-그래도 잘 놀다 갑니다~</t>
+          <t>숙소도 깨끗하고 뷰도 너무 좋았습니다 다만 아쉬운점은 욕실에서 샤워할때 수압이 좀 낮아서 아쉽긴했지만 그것만 제외하면 완벽했습니다</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>2021.02.02</t>
+          <t>2024.07.01</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>음 다 좋았는데 창문에 지문 자국이 ... ^^ 다소 찝찝했습니다 ..... 그리고 화장실이 구식이였어요 일본 온 줄 알았슴다 레트로 느낌이라 나쁘지 않았어요
-잘 때 너무 더웠습니다 ㅠ ㅠ ㅠ ㅠ 그리고 엘베 환승하는 건 그리 불편하지않았다만,, 입퇴실 시간 외에도 엘베에 항시 사람이 붐벼서 한 두번 보냈어야 했어요
-하지만 이 가격에 주말에 것도 해운대에서 심지어 오션뷰에 하루 묵을 수 있어서 좋았슴니다 가성비 젛은 호테루이자 레지던스 •••</t>
+          <t>부산 갈때마다 여기만 예약해요 ! 사진찍기도 좋고 너무 예뻐요ㅜㅠㅜㅜ( T⌓T) 내부도 엄청 깨끗하고 가격도 저렴해요 !! 강추</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>2023.02.24</t>
+          <t>2024.06.25</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>위치와 접근성 그리고 뷰 최고입니다.
-하지만 시설이 노후화 되어있고, 변기에 물이 제대로 안내려가져 있어서 조금 충격이..ㅎ; 1층에서 4층 또 4층에서 6층으로 이동해야해서 조금 번거로웠습니다. 
-하지만 그만큼 상쇄시킬만한 시설이니 만족스럽게 이용했어요.</t>
+          <t>위치밎뷰는최고입니다 광안리바닷가가 내눈앞에있어요  드론쇼도 숙소에서 보고 좋은경험이었습니다</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -6286,56 +6414,49 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>2022.05.02</t>
+          <t>2024.05.08</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>노후한 시설은 가격과 비례한다 생각하고 
-접객하는 분의 태도는 불쾌하기까지 했습니다. 방을 배정받았는데 예약했던 방이 아니라 물었더니 랜덤이라고.. 
-하아.. 그냥 싼게 비지떡이구 생각하며 입실했는데.. 
-샤워부스에 이전 투숙객이 쓰다버린 물품도 있고.. 객실 바닥엔 고추장국물 같은게 말라붙어 있었고 객실료가 싸니까 침대가 오래된건 이해하겠는데 낡아서 찢어진 침구는 좀 아니지 않습니까?! 
-싸게 투숙했다해서 손님이 아닌건 아니지요.
-마지막으로 전 5층에 묵었는데 취객들 고성, 오토바이 굉음, 자동차 클락션 소리까지 잠을 잘수없을만큼 소란스럽더군요. 
-여러가지로 편치 않은 마음이었기에 다시 투숙하고 싶은 마음은 없습니다.</t>
+          <t>저번달에도 가서 너무만족해서 이번에는 연박으로 잡았네요!!너뮤 만족해여!!재방문율5000000프로</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>1점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>2021.11.11</t>
+          <t>2024.04.30</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>넓고 전망좋은 룸인건 확실합니다. 위치도 너무나도 좋아요 
-하지만 화장실에서 하수구 냄새? 는 화장실 이용이 망설여 지더군요;;;  요기서 별하나 뺏어요!</t>
+          <t>고층만 배정받다 저층 배정 받아서 그런지 밖에서 들리는 소음 흡연냄새가 ..쫌 그랬어요 ㅠㅠ 그외에 전부 좋았습니다 ㅎㅎ..</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>2024.09.15</t>
+          <t>2024.04.06</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>출장길에 가족과 함께한 3박4일 출장+여행.
-숙소가 제일 걱정이었는데, 넘좋으네요. 나가면바로 해운대가...먹거리도 넘 많았구요. 사진은 숙소에서 본 광안리대교 야경 이네요.</t>
+          <t>굿굿 뷰는 말할 것도 없이 좋구 방도 아주 깔끔해요
+다만 방이 조금 더워요😂 푹 자고 갑니당</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -6345,177 +6466,164 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>2022.04.18</t>
+          <t>2024.04.05</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>시트나 이런데에 얼룩이 잇엇던 거랑 화장실이 방크기에 비해서 작고 세면댜 물이 잘 안 내려갓던거,,,아쉬웟던 점이 분명이 잇지만 뷰와 위치러 모든게 커버 가능해요
-하프오션뷰여서 별로 안 보일줄 알앗는데 생각보다 뷰 좋아요 
-코오롱 씨클라우드, 썬클라우드, 씨클라우드 리제던스 다 같은 건물인데 여기가 제일 싸서 여기로 햇어요 이 뷰에, 이 위친데 4박에 20이면 너무 좋죠</t>
+          <t>뷰가 진짜 좋습니다~ 다음에도 부산 올 기회가있다면 여기로 올거같아요. 아늑하고 무엇보다 가성비가 최고입니다</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>2021.06.27</t>
+          <t>2024.03.19</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>해운대 씨클라우드 숙소에 들어가보니 전망이 시티뷰와 오션뷰를 동시에 볼수있어서 좋았어요~뷰가 매우매우 감탄할정도로 좋았어요~~따뜻하게 난방도 잘되어있었어요~~그런데 샤워실에 밖으로 물이 새어나와서 부억바닥에 물이고여서 통행이 불편했고 침대가 매트리스 스프링이 몸으로 느껴질정도로 낡았어요~나머지는 만족했습니다~~</t>
+          <t>4박 5일동안 너무 재미있고 깔끔하게 푹쉬다 갑니다 
+바로앞이 오션뷰에 숙소가너무 좋았습니다.
+한가지 아쉬운점이있다면 개인물품을 챙겨가야한다는점입니다.</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>2021.11.27</t>
+          <t>2024.03.09</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>체크인,아웃 시간에 엘레베이터 붐비는것만 빼면 대체로 깨끗하고 조용했으며 뷰도 괜찮았어요.</t>
+          <t>바깥 소음도 거의 없고 파도 소리만 크게 들려서 힐링 된 기분이었습니다 조리기구가 있어서 매우 좋았습니다</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>2022.08.24</t>
+          <t>2024.02.25</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>태어나서 처음으로 후기라는 걸 꼭 써야겠다고 마음 먹은 숙소였어요. 침대 옆 바닥에 먼지 뭉텅이가 굴러 다니고 있었어요. 하루이틀 청소 안 한 정도가 아니예요. 경악했어요. 더 황당한 건 휴지도 저렇게 비어 있었고요. 객실 청소를 했다면 어떻게 휴지가 없는 걸 몰랐을까 싶어요. 청결은 0점이 아니라 정말정말 마이너스예요. 아무리 저렴하다고 하더라도 기본적인 청소는 하고 손님을 받아야 하는 거 아닌가요? 결혼 1주년 기념일로 갔다가 기분만 망친 최악의 숙소였어요.</t>
+          <t>위치가 대박이에요 근처에 랜디스도넛이랑 마이페이버릿 쿠키도 있고 교통 접근성도 편하고 광안리도 바로 앞이고 주변에 맛집도 많아서 아주 잘 이용하고갑니다!! 키오스크 있는게 대박이였어용</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>2점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>2021.07.02</t>
+          <t>2024.02.12</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>체크인할때 카운터에 계셨던 남자분이 너무 퉁명스러우셔서 입실 하기도 전에 불쾌했습니다.
-하프오션같은 오션뷰였고 새벽에 다른방 소음에 짐을 설쳤네요. 이전 방문때 좋은 기억이 있어 재방문했는데 여러모로 실망스러웠습니다.</t>
+          <t>테라스 뷰 맛집 인정!
+오피스텔형이어서 세탁기 등 다 갖췄네요.
+룸 사이즈는 작지만 여친이랑 편히 힐링하다 갑니다.</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>2021.11.17</t>
+          <t>2024.01.07</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>아무래도 연식이 있다보니 시설이 다소 낙후된건 어쩔수없다고 생각한다. 또한 호텔이 여러회사로 나누어져있어 체크인과 건물내 엘리베이터 사용동선이 복잡하긴하다. 그래도 방이 넓고 무엇보다도 위치가 입지가 최상인 곳이라 매우 만족했다. 수압은 조금 더 셌으면,,</t>
+          <t>새벽야경 멋집니다.
+친절한 숙박사장님께 감사드립니다
+또 가려고.계획중입니다.
+야놀자~ 덕분에 좋은시간 보내고왔습니다~</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>2021.07.26</t>
+          <t>2023.11.06</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>업무상 처음 방문했을때, 
-가격대비 만족스러워서 다시한번 방문했습니다.
-하지만 이번이 마지막일듯합니다
-세면대는 떨어져있고, 샤워부스는 문을 일부러 빼놓은듯합니다. 벽에는 모든 자국이 남아있으며,
-아마 장애가 있는 분 들에게 배정해주는 방을 주신듯합니다.
-체크인 시간도 빨랐는데 왜 이런방을 배정해주신지 모르겠습니다.
-저야 방문 안하면 되지만..
-다른 고객한테는 같은 서비스는 아닌듯하여 글을 남깁니다.</t>
+          <t>위치랑 뷰는 정말 좋아요 객실 청결도가 더 깨끗했다면
+좋았을 거 같아요 측면이어도 바다 잘보여요</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>1점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>2021.10.27</t>
+          <t>2024.05.15</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ㆍ서비스 친절
-★★★★★
-체크인ㆍ아웃 해주신 데스크 직원분들 친절 하세요. 직원분 안 친절 하다는 네이버 리뷰 보고 갔는데 저는 괜찮았습니다.
-ㆍ객실 청결
-★★★★☆
-딱히 지저분하다는 인상은 못 받았는데, 일단 욕실 들어서면 뭔가 청소가 덜 됐다는 느낌은 있더라고요. 티브이 있는 선반도 햇볕에 먼지가 잘 보이는 편이었고.. 여기저기 노후된 느낌도 많이 받았습니다. 하지만 침구류는 깨끗했어요.
-ㆍ시설 편의성
-★★★☆☆
-*가성비 진짜 좋은 곳이라고.. 아무리 엘리베이터 환승을 해도 괜찮겠지 안일하게 생각 했는데, 의외로 이게 굉장히 .. 거슬리는 부분입니다. 한 번 다녀 와서 좋은 곳이면 또 방문을 하겠지만, 이곳은 그냥 가성비 따져서 한 번으로 족할 만한 곳입니다.
-*그리고 화장실 변기 수압 굉장히 약합니다. 얘 죽어가나 싶을 정도로 약해요.
-*티브이는 소리 최대로 해도 잘 안 들려요. 보라는 건지 말라는 건지.. 변기랑 같이 숨 넘어 가는 중..
-*자려고 누웠더니... 위층에서 목욕 하는 것처럼 물 꿀렁거리는 소리가 천장 냉난방기에서 쉼없이 들려요.
-잠 들면 모르겠지만 잠 들기 전까지 굉장히 거슬립니다.
-*그리고.... 하....진짜... 조식,,,,, 제가 뭐 많이 다녀 본 건 아니지만, 제가 다닌 호텔 중 최하위입니다. 어떻게 호텔 조식 종류가 그뿐인지.. ㅎㅎ 여기서 헛웃음 나오더라고요.
-*마지막으로 방음 안돼서 옆방 애기가 불꽃놀이에 흥분하고 해돋이에 흥분하는 거 직관한 기분.. 이건 그냥 애교죠 ㅎㅎ
-ㆍ교통 및 접근성&amp;뷰
-해운대가 바로 내려다 보이고, 옆으로는 시티뷰 직관도 가능하고.
-해운대 전통시장과도 엄청 가깝습니다.</t>
+          <t>뷰가너무좋앗어요♡
+뷰맛집이네요 다른것보단 아침.저녁 
+광안대교.바다를
+바라보고잇으니 속이뻥~
+파도소리♡크흐
+또올께요^^</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>2024.01.01</t>
+          <t>2024.05.13</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>30층 중에 24층 오션뷰입니다 뷰는 미쳤지만 객실 청결도, 엘리베이터 환승불편, 창밖의 소음이 생각보다 많이 시끄럽고 객실 내의 통풍이 어려운지 바깥보다 많이 덥습니다. 놀러가실 목적이면 뷰 위주로 생각하시면서 방을 고르시면 될 것 같고, 실내옷은 반팔위주로 챙겨가시고 호캉스정도로 생각하신다면 정신건강을 위해 청결이 좋은 방으로 고르시길 추천드립니다.</t>
+          <t>화장실이 침대 바로 위에서 보이는거 빼고는 뷰도 좋고 
+위치도 바다 중앙이라 좋았어요 다음에 또 놀고 싶네요!</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -6525,70 +6633,53 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>2023.04.10</t>
+          <t>2024.04.28</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>어메니티 재사용하는 거 같습니다.
-후기 꼭 써야겠다고 마음먹은 이유에요 ㅋㅋㅋ
-방에 들어가서 발씻으려고 어메니티중에 바디워시를 쓰려고 하는데 안나오는거에요. 완전 거의 비어있는 상태. 보니까 그 전 방문자가 썼던걸 그대로 재사용한거였어요ㅎㅎ 어메니티 샴푸는 뚜껑열어보니 새거라서 은색씰로 막혀있더라고요. 정말 더러웠습니다. 
-그리고 침대에 앉으니까 먼지 장난아니고.. 창틀에도 먼지있었어요ㅠ
-호텔 침대라 편할 줄 알고 예약했는데 장말 모텔침대보다 불편한 수준.... 담걸려서 3일동안 고생했어요 진짜
-거기에 베개는 공기만 들어있는줄... 푹꺼지는게 뭔지 느낄 수 있습니다. 그냥 의미없어요. 베개없이 침대에 누워있는기분
-위치는 자차타고 다녀서 잘 모르겠어요. 뒤에 번화가라 나쁘지 않은 거 같아요.
-밑에는 편의점이 있어서 뭐 사먹고 하기에는 편리합니다. 다만 엘리베이터를 두번 타야한다는게 번거로워요.
-재방문은 안할거같아요ㅠ</t>
+          <t>위치도 좋고 뷰도 좋았어요
+날씨 좋을 때 가면 더 좋응 것 같아요!
+일회용품 없으니까 꼭 챙겨가세요</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>1점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>2021.07.02</t>
+          <t>2024.04.01</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>하아.... 저는 씨클라우드 호텔, 넓은평수까지 다 가보고 늘 가성비에 엄지척 하는 사람인데ㅠ 
-이번에 사촌동생과 갔던 레지던스는...정말...
-직원분들 다 좋으셨구요...
-청소하시는 분의 실수였을까요...
-5만원에 다녀와서 그냥 참고 다녀왔습니다.
-1. 슬리퍼 다 너덜너덜
-2. 음식물쓰레기 정리 안되어있었음
-     방울토마토 꼭지 그대로 있었음.
-3.가운 2개중 1개에서 엄청 쿰쿰한 냄새.
-   젖은채로 옷장안에서 마른 냄새...
-이건 너무 심했어요...ㅠ</t>
+          <t>2박 이용했는데 방 깔끔하고 오션뷰 너무 좋아요.
+세면도구, 샴푸 등등 모두 직접 가져가야 하니 유의하세요~</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>2021.06.02</t>
+          <t>2024.02.26</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>바다에 갈때마다 무조건 바다뷰로 가는데 방문 열자마자 바다가 보여서 진짜 좋았어요ㅜ 광안대교에 불켜지는것도 보여서 진짜 만족해요!
-다만 시설이 오래되서 노후된 느낌이 많았어요.
-옷장문 유격이 맞지않아 바닥에 자꾸 끌리는 소리가 들리고
-욕실도 청소상태는 괜찮았지만  실리콘부뷴에 지워지지않는 때들이 좀 있어서 세월의 흔적이 느껴집니다.
-그래도 해운대 해수욕장에서의 접근성도 좋고 아쿠아리움이나 시장과도 가까워서 좋았습니다!</t>
+          <t>오 여기 진짜 쩔어요
+뷰 너무 이쁘고 부산 오면 또 오고싶을정도
+너무 친절하시고 잘 묵고 갑니다</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -6598,14 +6689,14 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>2024.01.16</t>
+          <t>2023.06.09</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>전망 및 위치 모두 만족입니다. 다만 청결도가 너무 떨어져요. 세면대 밑에 문을 열어보니 누가 쓴 타올이 들어있었고 탁자에 이물질과 먼지도 쌓여있어서 따로 청소했습니다. 이 점을 빼면 모두 괜찮았습니다.</t>
+          <t>가격도 매우 저렴하고 전반적으로 다 만족했지만 위치 설명이 조금 부족해서 찾아가는데 조금 어려움이 있었습니다.</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -6615,170 +6706,154 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>2023.12.17</t>
+          <t>2024.01.01</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>한 건물에 호텔이 세가지 정도가 있구요 체크인하는 곳이 다 달라서 불편합니다. 엘리베이터도 갈아타야 되서 불편했어요. 숙소 내부 시설이 조금 노후화 된건지 조금 더럽기도 했구요. 나름 호텔이라고 비싼가격 주고 예약했는데 쓰레기는 직접 분리수거 하라했어요. 더럽히면 청소비 청구한다는 말이 좀 협박하듯 느껴졌네요. 오션뷰 하나는 기가 막힙니다. 해 뜨는것도 잘 보였구요. 18층 묵었는데 해수욕장도 조금 보이기는 했으나 앞에 새로 생긴 그랜드조선호텔이 가리더라구요. 체크인 빨라서 좋았어요. 잘 묵었습니다.</t>
+          <t>차량주차비 받는게 아쉬웠지만 이틀동안 광안대교 뷰 보면서 만족했어요 ㅎㅎ 침대두 푹신하니 좋고 잘 쉬다갑니당</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>2021.01.09</t>
+          <t>2023.04.29</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>전망은 끝내줍니다. 할인된 가격으로 이용해서 다행이지, 실제 표시된 가격으로는 절대로 이용 못할것 같습니다.  바닥청소상태가 꽝입니다.  너무 더러워서 깜짝놀랬습니다. 침대는 스프링 다 느껴지는 싸구려침대입니다. 호텔보다 모텔수준이네요.  시설재투자 좀 하셔야겠어요.  건물이 너무 아깝네요...</t>
+          <t>오션뷰여서 너무 좋았어요!!! 저번에 친구랑 왔는데 이번에는 남자친구랑 왓거든여!!
+위치도 좋고 돌아다니기에도 좋았지만 주차는 좀 힘들었어요 ㅠㅠ
+그래도 와봤던거중에 가장 좋았어요!!</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>2021.05.15</t>
+          <t>2023.04.23</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>방음은 안되지만 사람이없어서 조용
-따듯했지만 아침에 뜨거워서 자동기상  암막커튼아님
-일출과동시에 창이뜨거워짐 에어컨을틀면됩니다
-바로앞이 해운대해변이라  불꽃놀이소리 다들려서
-같이하는느낌이라  득템 기분 임
-지리적 으로 어쩔수없다 생각하고 누으면
-스프링침대가 날반김  그래도 다 가까워서 용서됨
-칫솔치약 다챙겨가시길   돈주고사야됨</t>
+          <t>정말 뷰 끝장나구요 광안리 바로앞에 있어서 접근성 교통 먹기 놀기 다 정말 편합니다 정말 잘놀다갑니다!!!</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>2021.02.24</t>
+          <t>2023.04.03</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>씨뷰도 좋고 들어가자마자 에어컨켜져있어서 진짜 너무 감동이었어요 
-카드키 뽑아도 에어컨을 켜져요 긋긋
-후기와 다르게 청결도는 괜찮았습니다
-근데...진짜 엘베는......
-엘베..........갈아타는거까진 참을수있었는데 
-객실 엘베....3개가..따로 움직이는게 아닌 시스템이 너무 불편했어요
-내려갈때 고층아닌 중층인분들은 한산한 시간 아니면 탈수도 없어요 17인승이라 되어있지만 6-7명 타도 삐...</t>
+          <t>정면 욕조 바다뷰가 진짜 너무 좋았어요 ㅜㅜ 바로 앞이 해수욕장이고 나중에 또 갈거에요 ㅜㅜ</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>2021.07.23</t>
+          <t>2023.02.05</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>뷰 좋습니다. 가격대비 나쁘지 않은 시설이였어요 근데 카펫은 약간 비위생적이였습니다. 엘리베이터 환승하는거 불편합니다 그리고 직원용이 따로없어서 퇴실 시간대 엘리베이터 탑승이 매우 제한적입니다.........
-입실때 프론트 직원과 약간의 실랑이가 있었는데 코로나 방역지침을 좀 더 꼼꼼히 인지하고 있을 필요가 있을거 같습니다.</t>
+          <t>테라스에서 보는 광안리는 끝내주네요 높이가 아찔해서 무섭기도 하지만 뷰가 너무좋네요 광안대교보면서 한잔 하니 너무 좋았어요~재방문의가 있어요 ㅎㅎ</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>2021.06.18</t>
+          <t>2022.10.04</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>승강기를 제외한 모든 게 완벽했습니다. 
-특히나 뷰가 너무 좋아서 아침에 눈 뜰 때마다 너무 행복했어요! 수영장도 좋았고 주변에 놀거리 먹거리도, 헬스시설도 좋았습니다! 엘리베이터는 어떻게 해야할 것 같긴 해요 ..</t>
+          <t>귀성길 막혀서 밤에 도착한것이 아쉬울만큼 너무너무 좋았습니다. 사장님 연락도 잘되었고 깔끔하고 우선 뷰가 너무 힐링됩니다. 다음번에 또 방문할게요.</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>2023.07.26</t>
+          <t>2022.09.15</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>위치, 뷰, 가성비만 따졌을 땐 좋음
-프론트 직원 불친절. 엘베 갈아타야 하는 거 불편했어요.
-13시 체크인&amp;아웃 이벤트 상품으로 갔다왔는데 정보전달이 잘 안 되어있더라구요. 체크아웃 전에 숙소에 짐 놓고 잠깐 나갔다왔는데 12시40분에 여성 두 분이서 객실 치우고계셔서. 너무 당황했어요.
-체크아웃 하려고 프론트 갔더니 프론트에 사람은 없고, 안쪽 사무실에 말 소리 들려서 계속 불렀는데도 대꾸도 않고 오지도 않더라구요. 한 15분은 기다린듯. 결국 썬클라우드 직원 불러서 부탁했어요. 아무리 가격이 싼 데라지만 이런 호텔은 처음 와봐요 ㅋㅋㅋ 다시는 안 올듯</t>
+          <t>바다 바로앞이고 숙소에서의 야경도 너무 좋았어요
+단점으로는 엘레베이터 이용이 조금 늦습니다
+빼고는 너무 좋습니다</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>1점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>2021.07.12</t>
+          <t>2022.09.09</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>일단 방들어가자마자 이불에 큼지막한 발자국에 진심 놀람 .테이블엔 먼지먼지가 ... 청소를 언제한건지 의심이갈정도였어요. 무엇보다  화장실...충격;; 냄새가 냄새가 진짜 머리가아픈 ... 동남아향료냄새에 겨드랑이 냄새같은 향이 섞인  지독한 냄새에요. 화장실 문에걸려있던 수건엔 립스틱 자국이 두개나 ...; 
-방음은 너무 안돼요. 자다가 깜짝깜짝 놀래요 . 
-살다가 여기처럼 컨디션 최악인 곳 ... 호텔두글자는  빼야맞죠.엘베는 또  환승이 필요하고 ㅋㅋ 직원분은 친절하십니다 .위치는 갠춘해요 휴~</t>
+          <t>나만 알고 싶어여 운 좋게 고층 숙소 배정 받았는데 지이이인짜 너무 좋게 힐링하고 갑니다ㅠ 담에 강쥐랑 또 갈게요</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>1점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>2021.06.26</t>
+          <t>2022.08.26</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>가끔 부산 놀러가면 숙박하는 곳인데 이번엔 대학생들이 많이 왔다갔다해서 그런지 객실 컨디션이 좋지 않았어요 ㅜ</t>
+          <t>생각보다 오피스텔 같았고 좀 방이랑 화장실이 좁고 지켜야할 규정들이 너무 많이 있으니 좀 쫄렸어요 그래도 욕조가 커서 두명 들어가기 딱 좋고 남자친구랑 이쁜 추억 남기고 갑니당</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -6788,14 +6863,15 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>2022.03.03</t>
+          <t>2023.03.31</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>가끔 부산 놀러가면 숙박하는 곳인데 이번엔 대학생들이 많이 왔다갔다해서 그런지 객실 컨디션이 좋지 않았어요 ㅜ</t>
+          <t>뷰는 참 좋습니다. 다만 아쉬운 것은.
+주차시 주차타워에 넣어야해서 일정 모두 끝내시고 입실 추천이요</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -6805,108 +6881,102 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>2022.03.03</t>
+          <t>2023.01.03</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>가끔 부산 놀러가면 숙박하는 곳인데 이번엔 대학생들이 많이 왔다갔다해서 그런지 객실 컨디션이 좋지 않았어요 ㅜ</t>
+          <t>전망도 좋고 야외욕조가 진짜 좋았어요 진짜 바다가 다 했다 가정집같은 분위기라 푹 잘 쉬었습니당</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>2022.03.03</t>
+          <t>2022.05.29</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>해운대 해변 뷰는 말이 더 필요없습니다.
-바로 앞 도로만 넘어가면 해변으로 곧장 갈 수 있을 정도로 위치도 좋구요.
-호텔 뒷편으로 시장도 있어서 각종 해산물이나 간식거리사기도 좋습니다.
-아무래도 연식이 좀 있다보니 바닥은 많이 오래되었다는 걸 알 수 있습니다.
-아침에 LCT에 가려줬던 해가 비춰들어오기 시작하면 엄청 더워집니다.</t>
+          <t>뷰가 진짜 와… 말 다했어요 해수욕장이랑은 진짜 1분 컷 바로 앞 편의점 10분 걸으면 버스정류장이랑 지하철 까지 너무 좋아요 ㅠㅠ</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>2021.05.10</t>
+          <t>2022.02.01</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>트리플 베드룸을 예약해서 일행들이 불편할까바 도착하기전 굉장히 조마조마 했습니다. 룸 문을 열자 다들 만족했고, 위치도 차로 벡스코와 25분거리고, 인스타팔로우하면 커피서비스도 있고~~
-수영장은 시간이 없어서 이용하지 못했지만, 다음에는 시간여유를 갖고 이용 해야겠어요.
-해운대 해변과 시장도 있고 근처 관광하기 좋아서 즐거운 여행이었습니다.</t>
+          <t>너무 저렴하게 지내다 왔어요
+해변까지 진짜 10초 컷
+전자레인지랑 침구가 좀 지져분했지만
+가격생각하면 참을만했어요</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>2022.06.27</t>
+          <t>2022.11.25</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>- 프론트가 3개나있는데 이름이 다달라서 헷갈림
-- 바다 바로앞, 위치, 접근성 매우 우수 !
-- 청소가 넘 부실 ㅠ 침대위 먼지, 이불 펄럭할때 먼지 쩔 ㅠㅠ 3인실 예약했는데 슬리퍼니 가운이니 다 2인 기준으로 준비되어있었음
--가격대비생각하면 이정도 괜찮은거같아요</t>
+          <t>친절하게 안내해주시고, 방도 깔끔해서 좋았어요!! 광안리 바로 앞이라 산책 나가기도 좋았어요 다음에 또 여기 이용할게용</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>2021.05.04</t>
+          <t>2022.03.25</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>객실은 깨끗하지만 화장실 방음이 안되어서 불편했습니다. 칫솔치약은 가져가셔야 합니다. 업무차 가서 내부 촬영은 못 했습니다. 호텔키는 1개만 줍니다. 일출은 잘 볼 수 있습니다. 4층에서 6층으로 이동해서 체크인하고 다시 올라가야합니다. 한 건물에 호텔이 2개 있어서 살짝 복잡할 수 있습니다</t>
+          <t>오션뷰 넘 예뻐용 ㅎㅎ 가운이 없어서 아쉬웠지만 그점 빼고 다 괜찮았어요 엘레베이터는 시간이 좀 걸릴 수도 있어요 체크인 하는 곳이 20층이라 ㅠㅠ 하지만 뷰가 다 해결해줍니다..!!!</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>2024.10.11</t>
+          <t>2022.03.12</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>교통 및 위치는 정말 좋지만 시설이 많이 낙후되어있고, 그래서인지 청소를 한 후에도 깨끗해지지 않은 느낌이었습니다. 침구류도 깨끗하고 보송한 느낌이 없었습니다.</t>
+          <t>위치는 광안리 바다 1분도 안걸려서 넘 좋은데 머리카락 등 위생이 엄청 좋지는 않았던거 같아요 간단하게 1박 급하게 필요하신분 추천이요</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -6916,66 +6986,69 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>2021.12.06</t>
+          <t>2023.09.19</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>바로옆 썬클나우드는 2시넘어서도 체크인 해주는데 여기는 3시까지 기다리라고 그렇게 융통성이 없나 평일인데 객실도 텅텅 비었을텐데.그리고 수건이두장밖에 없어서 말려서 써야됌.
-그리고 두시반이면 손님들올시간인데  로비 진공청소기로 청소하면서 미세먼지 다날리고 미세먼지 먹고 배불러서 좋았습니다.</t>
+          <t>숙소의 뷰가 미쳤어요!!!정말 광안리 바로 앞에 위치하고 있어서 좋았어요! 문 열자마자 바로 보이는 오션뷰는...💙
+다음에 부산여행 하면 또 이용하고 싶어요!!</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>2023.06.01</t>
+          <t>2022.02.25</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>오션뷰 아닌곳은 청소를 안하시나 내가 다녀본 숙소중 젤 더러웠음 변기/벽지에 물곰팡이 껴잇고 이불 베개에 얼룩이며 바닥에 먼지굴러다니고 테이블에도 먼지.... 엘베갈아타고 다녀야되고 숙소에서 노래방냄새남 환기하루종일해도 안빠져요 치약칫솔어메니티 돈주고 사야댐 근데 위치가 깡패임 해수욕장 근접성ㄷㄷ청소좀 신경쓰세오...직원들 친절하심 그래서 더 안타까움</t>
+          <t>뷰가 진짜 너무 좋아요 사장님도 친절하시고 위생상태는 누가 쓰던 ㅋㄷ 쓰레기가 몇개 있어서 4점 드려용.. 뷰는 최곱니다 ~!</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>1점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>2021.06.27</t>
+          <t>2022.02.05</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>솔직히 별로였습니다. 커피는 하나 이미 뜯어져있지 않나, 화장지는 하나밖에 없지않나, 칫솔세트가 유료인건 그렇다쳐도 에어컨은 성능이 안좋고 침대 근처에 콘센트은 없고. 별로였네요</t>
+          <t>객실은 나쁘지 않음
+주차장 아저씨 정밀 불친절 최고봉. 
+도착 당일 기분은 덕분에 매우 안좋았음.</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2점</t>
+          <t>3점</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>2021.12.13</t>
+          <t>1시간 전</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>청결하고 넓고 좋았습니다 잘 쉬다 갑니다!</t>
+          <t>즐겁게 잘 다녀왔습니다 
+뷰 말해모해 ~~~</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -6985,31 +7058,40 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>2일 전</t>
+          <t>1시간 전</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>중앙등을 끌수가 없음. 방음이 안됨</t>
+          <t>오션뷰에 😘가격이 좋아 예약하게 되었어요
+주차는 기계주차인데 만원(카드는 11,000)이고
+숙소가 저렴해서 주차비 있어도 좋았어요
+숙소가 지저분하다는 후기를 봐서 좀 걱정은 했지만
+우리방은 깨끗하고 좋았어요(805호)
+엘베도 많이 기다려야 된다는 말이 있던데
+우리가  갔을때는 괜찮았구요
+바로 밑에 편의점 있는것도 좋았어요
+일단 뷰는 후기대로 진짜 최고였구요👍👍👍
+다음에 광안리오면 또 예약할거에요~🤗😊</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>19시간 전</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>전망좋고. 바다와 도보로 해안가 접근이 좋아요</t>
+          <t>광안리야경너무멋집니다~ 최고예요~~</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -7019,65 +7101,65 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>20시간 전</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>침대3개 각자 잘수있어서 너무 좋아요 그런데 엘베 2번 갈아타는건 불편해요...</t>
+          <t>광안대교가 정면에서 보여서 너무 이쁩니다.</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>5일 전</t>
+          <t>1일 전</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>위치도 좋고 가성비 좋게 이용할 수 있어요 !</t>
+          <t>청결도, 서비스 좋아요</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>3점</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>2024.10.22</t>
+          <t>1일 전</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>바다소리 들으며 잘자고 푹쉬고... 객실도 넓어서 좋았어요</t>
+          <t>청결도, 서비스 좋아요</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>3점</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>2024.10.20</t>
+          <t>1일 전</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>뷰가 너무 좋았습니다~~!!</t>
+          <t>객실이 청결하고 전망도 아주좋아요 다시 부산출장하면 이곳을 재방문할거같습니다</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -7087,32 +7169,31 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>2024.10.19</t>
+          <t>2일 전</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>26층 오션뷰인데요 넘 좋았어요</t>
+          <t>위치는 좋습니다. 다만 청소가 부족합니다.</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>3점</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>2024.10.17</t>
+          <t>3일 전</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>시설이 오래되긴 했지만 깨끗하고 
-위치가 너무 좋았어요.</t>
+          <t>숙소 깔끔하고 뷰가 너무 좋아요~</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -7122,14 +7203,14 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>2024.10.15</t>
+          <t>4일 전</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>직원분들 친절하고 접근성 좋아요^^</t>
+          <t>전반적으로 나쁘지는 않았는데, 승강기 이용하는데 오래걸려요</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -7139,48 +7220,48 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>2024.10.11</t>
+          <t>4일 전</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>접근성좋고 친절하고 깨끗하고방 넓고 다좋은데 주변이 너무시끄러워서 잠을 못잤네요ㅠㅠ</t>
+          <t>갈 때마다 넘 좋아요</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>2024.10.10</t>
+          <t>4일 전</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>숙소가  괸찮아요  깨끗하고</t>
+          <t>시설이나 주위에 가게들 위치들은 좋긴한데 밖에 소음이 너무 시끄러운거 빼고는 괜찮아요 약간 귀밝은 사람은 비추에요 소음이 너무 심해요</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>2024.10.09</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>깔끔하고 좋았습니다</t>
+          <t>ㅈ느아씁니딘진딘딘ㅇ늡ㄴ디ㅣㄴ</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -7190,68 +7271,73 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>2024.10.08</t>
+          <t>6일 전</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>위치가좋고 주차하기좋아요
-해운대바닷가바로앞이라 걸어서구경가능해요
-단지 청결에신경좀쓰셨으면하고 화장실에서 샤워하고나오면 바깥으로 물이새서 당황했어요</t>
+          <t>숙소는 대체로 깨끗했으나,
+직원들이 별로 친절하지 않음.
+1층에 호텔 안내하는 표지판 등이 필요함.
+(1층에 숙소 관련 아무런 정보가 없음)</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>2024.10.07</t>
+          <t>6일 전</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>좋아요 전경좋아요
-여럿이서쓰기좋아요</t>
+          <t>뷰는 진짜 좋은데
+화장실이 너무 접고
+에어컨이 너무 더러웠어요ㅠㅠ
+에어컨 청소 한번 하셔야할 것 같아요..
+급한데로 닦아서 사용했는데
+그래도 너무 더러웠어요..</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>3점</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>2024.10.06</t>
+          <t>2024.10.22</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>건물에 좀 가려지긴 했지만 뷰도 괜찮았고 해운대 바로 앞이라 좋았어요. 방도 넓어요!</t>
+          <t>정말 너무 좋았어요 다음에 또 올게요</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>2024.10.04</t>
+          <t>2024.10.21</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>바다뷰도좋앗고 객실이커서좋앗음</t>
+          <t>리뷰 보고 어느정도 마음의 준비를 하고 갔던터라 화장실, 샤워실 좁은거랑 객실 청결도, 치약이나 비누같은 작은 어매니티도 없는거.. 다 그러려니 했음. 근데 연박이면 수건은 미리 객실에 여유있게 둬주시거나 다른업체 방들처럼 문고리에 수건 걸어주는 서비스는 보완이 필요하다 생각함.. 다만 모든 단점 다 이길정도로 뷰나 접근성 좋아서 추후 재방문의사 있음</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -7261,14 +7347,14 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>2024.10.01</t>
+          <t>2024.10.20</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>오션뷰 도 너무 좋고 주변시설도 좋아서 강추입니다</t>
+          <t>뷰도 좋고 조용해서 좋아요 ㅎㅎㅎ</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -7278,14 +7364,14 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>2024.09.30</t>
+          <t>2024.10.20</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>깨끗하게 잘 쉬고 왔습니다</t>
+          <t>세면도구가 없어서 아쉽긴 했지만 다른게 너무 맘에 들었습키다</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -7295,31 +7381,31 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>2024.09.30</t>
+          <t>2024.10.19</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>늘 사용, 출장 가성비 굿! 해운대라 다 좋아함</t>
+          <t>제가 자세히 보지 못한 탓이지만 ㅜ 비누 샴푸 바디워시 아무것도 없어용 미리 구비해가시길.. 근데 뷰는 진.짜 끝내줌 최고.</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>2024.09.28</t>
+          <t>2024.10.18</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>가족들과 머무르기에 좋았습니다</t>
+          <t>좋았어요 잘 쉬다갑니다•</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -7329,48 +7415,49 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>2024.09.25</t>
+          <t>2024.10.18</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>침구가 깨끗하고 직원들이 친절해요</t>
+          <t>뷰는  광안리앞 저는 그냥 소소  저층이라 옆건물 간판불때문에 조금 불편했고 주방이 있으나 위생상태불량 후드위에 먼지가 대충잡아서 5cm는 될듯 에어컨에도 곰팡이  침대옆은 먼지에 누군건지 몰라도 머리카락과 머리끈 으흑 ㅠㅠ 깨끗하다고 누가 그런건지ᆢ재방문의사 없음</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>3점</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>2024.09.25</t>
+          <t>2024.10.17</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>그냥 뷰 맛집입니다</t>
+          <t>잘쉬었다 갑니다!!!!!!</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>2024.09.25</t>
+          <t>2024.10.17</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>무엇보디 위치가 아주 최고였습니다! 방도 깔끔하니 크고좋았습니다.</t>
+          <t>늦게체크인해서잘이용했어요
+욕조도이용해서피로가확풀렸네요</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -7380,14 +7467,14 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>2024.09.24</t>
+          <t>2024.10.17</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>객실이 까끗하고 침대가 편합니다</t>
+          <t>위치 넘엄 좋아요!!!</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -7397,65 +7484,49 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>2024.09.22</t>
+          <t>2024.10.16</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>기존 시설이 오래되었구요
-낡은것은 나무랄수 없지만 성의부족으로 관리가 안되는것은 아쉽더라구요
-비데는 사용할때마다 욕실바닥으로 물이 샜구요
-주방은 식기도구 하나없이(따로 렌트해야해요)
-머그컵 두개뿐이니 따로 필요한 식기도구등은 챙겨가셔야해요
-렌트한 식기도구는 냄비 하나 몇개의 접시들. 국자 집게 가위 수저2세트 트리오 수세미 냄비받침. 끝예요
-헌데 각각 세트도 아니고 다 달라요
-무성의함이 느껴져서 좀 그랬어요
-냉장고는 소형이고 냉기가 쎄지도 않게 설정되었는데
-과일이며 김치가 꽁꽁 얼었어요
-고장인것 같아요
-뷰는 나무랄데없이 좋았구요
-해변에서 버스킹을 하는데 창을 열으니 잘들리고
-분위기는 좋아요
-짐대가 좀 높아서 아이들은 조심해야겠어요
-주변에 근생시설들이 잘되어 있어서
-차는 두고 뚜벅이로 즐기기 좋아요
-섬세한 관리 잘부탁드립니다~</t>
+          <t>뷰가 다했다
+객실상태도 매우 깔끔하고 정수기까지 완벽</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>2024.09.21</t>
+          <t>2024.10.16</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>해운대가 바로 앞에 있어서 좋았오요</t>
+          <t>테라스는 더러워서 안썼고 야놀자에 있던더랑 완전달라서 진짜 엄청 황당했어요.... ㅈ그리고 아무리 어메니티 없다해도 손씻을 비누는 있어야하는 거 아닌가요? 좀 너무 하다 싶었어요</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>3점</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>2024.09.21</t>
+          <t>2024.10.16</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>가족여행에 최적인 숙소입니다.</t>
+          <t>친절하시고 전망 좋아요 객실에서 일출보기 좋네요</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -7465,14 +7536,14 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>2024.09.20</t>
+          <t>2024.10.15</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>뷰가 너무 좋고, 4인 가족 기준 침대도 넓어 불편함 없이 잘 쉬다 왔습니다</t>
+          <t>뷰도좋고 시설깨끗하고 주변이용하기도 좋고 광안리에서는 여기가 최고인듯하네요</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -7482,178 +7553,180 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>2024.09.18</t>
+          <t>2024.10.15</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>기대를하고 가서 그럴까요?
-바다전망이아닌 부분바다전망아닌가요?ㅠ
-2501호.사진들이라너무다르고
-청결도는 진짜 지저분하고 침구도드럽고..침구실밥에...
-체크인.아웃
-고객응대도도 불쾌하고..진짜 돈아까웠어요
-거울에 지문들..화장실 머리카락.바닥에 부스러기...진짜 애들만아니었다면 환불요구하고싶었다는...</t>
+          <t>너무 즇아용 ㅎㅎ 오션뷰 짱 이뻐요 가성비 굿굿</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>1점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>2024.09.18</t>
+          <t>2024.10.14</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>해변뷰가 좋았어요~</t>
+          <t>잘 쉬었습니다 감사합니다</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>2024.09.14</t>
+          <t>2024.10.13</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>너무 좋았습니다. 나중에 다시 들릴 꺼 같습니다.</t>
+          <t>잘다녀왔어요 감사합니다</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>2024.09.14</t>
+          <t>2024.10.13</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>가성비 좋은 숙소
-위치도 매우 좋고 혼자쓰기 넓음</t>
+          <t>807호 배정받았는데 친절하고
+전망이 끝내줍니다.
+삼성 건조기가 일치된 세탁기도 좋았습니다.
+정수기구비, 음식요리도 가능한 키친도 구비되어있어서 가족끼리 간다면 식사도 해결됩니다.
+바다전망을 원하시면 추천합니다.
+서랍선반이 많아서 짐 정리가 수월합니다.
+그리고
+단점은 엘리베이터가 두대라서 오피스텔 형식이라 다른 사람들도 입주해있어서 느립니다.
+욕실이 너무너무 작아서 씻는것도 좀 불편합니다. 
+어메니티가 하나도 없어서
+비누,샴푸.린스.칫솔.치약.방실내화. 가운
+테라스 실내화등 없어서 모두 사야합니다.
+티비보는게 불편한 구조입니다.
+여튼 저는 전망으로는 추천드립니다.</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>2024.09.13</t>
+          <t>2024.10.12</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>하프뷰여서 바다는 예뻤는데 해운데 메인거리 옆에 있어서 밤에 시끄러웠습니다. 침구는 청결한 편인데, 침대가 스프링이 다 느껴질 정도여서 별로였어요. 냄새도 심하고. 기대 이하예요.</t>
+          <t>넘 좋아영 또 오고싶어요!</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>2024.09.10</t>
+          <t>2024.10.11</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>내부가 많이 노후화되어있음.
-바다 전망은 좋은편
-가성비 숙소로 나쁘지 않은편</t>
+          <t>바다 가깝다. 어매니티 없다. 그러나 편의점이 주변에 많다.</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>2024.09.10</t>
+          <t>2024.10.10</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>쾌적하고 좋아요 잘쉬었습니다</t>
+          <t>객실 깨끗해요. 바다 가까와요</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>2024.09.06</t>
+          <t>2024.10.10</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>해운대랑 가까워서 위치가 너무 좋았어요</t>
+          <t>바다가 코앞이라 좋았어요</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>2024.09.06</t>
+          <t>2024.10.10</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>호텔숙박시 Lay-Out복잡하고 타사업장과 같이사용해서 정서적으로
-안정감을 찿지못함. 내부시설도 샤워실시설이 고장또는 방수실리콘처리가
-미흡함(전문가콩킹이 아님)</t>
+          <t>딸과 세번째 방문인데 바다 바로앞이라 전망좋고 시설 깨끗한 편이라 다음에도 이용할꺼에요</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>2024.09.05</t>
+          <t>2024.10.10</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>해운대 씨클라우드 호텔</t>
+          <t>저렴한 가격과 전망이 좋아 만족합니다.</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -7663,84 +7736,82 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>2024.09.02</t>
+          <t>2024.10.10</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>숙소위치는 만족합니다. 그런데 숙소가 조금 노후하고 프런트 응대가 조금 아쉽습니다. 프런트에 인원수를 분명 인지하고 있는데도 추가침구류나 타올의 경우 미리 얘기해주지 않습니다. 그리고 주차등록을 바로 안해주셔서 주차료가 또 나와서 다시 프런트가서 조치 요청을 해야했습니다. 이런부분이 조금 아쉽네요</t>
+          <t>가성비 미쳤고 뷰도 매우 좋았음</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>2024.09.01</t>
+          <t>2024.10.10</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>친절한 서비스와 숙소도 깨끗한 편이였습니다.</t>
+          <t>시설도 너무 깔끔하고 가성비에 뷰가 너무 좋아요! 또 갈 것 같아요</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>2024.08.28</t>
+          <t>2024.10.09</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>뷰도좋고 다좋았지만 에어컨 청소를 해야될거 같습니다. 냄새가 납니다...</t>
+          <t>결제후 바로 무료 취소가 안되는곳</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>2024.08.27</t>
+          <t>2024.10.08</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>뷰와 위치만 다한 호텔입니다. 안에는 세월의 연식이 많이 느껴집니다. 리모델링의 필요성이 느껴짐.
-오래된 거 감안하고 갔는데 청결과 냄새부분에서도 매우 미흡했습니다. 화장실에 환기가 전혀 되지 않았고 퀘퀘하고 불쾌한 냄새가 났고, 변기의 수압은 매우 약합니다.
-청결/냄새/직원들의 비전문적인 태도는 호텔의 메리트가 전혀 없었고 돈 아까웠습니다.</t>
+          <t>평일 저렴한곳이며 바닷가  바로 앞쪽인 메리트가 있었으나 청소 부분이 미흡합니다~깨끗하지 않은 이불과 배개커버,바닥의 머리카락을 보는 순간 좀 불결했습니다</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2점</t>
+          <t>3점</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>2024.08.27</t>
+          <t>2024.10.07</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>깔끔하고 오션뷰라 부산여행 힐링 잘하고갑니다 ㅎㅎ</t>
+          <t>데스크 직원분들 친절하시고 방 뷰도 최고</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -7750,90 +7821,93 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>2024.08.21</t>
+          <t>2024.10.07</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>아이를 데리고 처음 부산 놀러와서 선택한 숙소인데 해운대 바로 앞이라 근처에 먹거리도 많고 좋았어요~
-근데 리뷰에 청결부분 얘기가 정말 많았는데 에이 설마~하면서 예약하고 갔는데 정말…바닥 청소를 안하시는건지 맨발로 다니기 찝찝할정도로 먼지랑 모레가 많더라구요..?시설도 오래된게 느껴지구요  엘베 진짜 너무너무 불편해요ㅠㅠ평점이 낮은데는 다 이유가 있다는걸 이번에 알았어요😮‍💨
-호텔도 아니고 가격이 저렴하니 그냥 그러려니 했습니당
-물 수압이 약한편이긴 한데 애기 씻기기에는 좋더라구요~
-친구나 연인이 간다면 괜찮지만 아이가 있다면 그냥 호텔 가는게 좋을거같아요😊</t>
+          <t>광안리에는 가까우나 방이좁아요..</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>2024.08.21</t>
+          <t>2024.10.06</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>뷰가 너무 좋은데, 엘리베이터 갈아타는게 조금 불편했어요🤣</t>
+          <t>뷰가 괜찮고 직원이 친절해서 좋았어요~^^</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>3점</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>2024.08.20</t>
+          <t>2024.10.05</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>입실시간보다 빠른 체크인은 불가합니다. 3시엔 체크인 하기 위해 줄을 서야 하니 여름에는 조금 늦게가는거 추천합니다.(인포 더움)
-장점은 룸 컨디션이 좋습니다
-단점은 엘베가 최악입니다.  고층부터 차례대로 내려오기 때문에 엘베를 2~3번정도 놓치고 결국 계단이용했습다.
-다른건 다 좋았는데 엘리베이터기다리면서 시간을 너무많이 허비하고 덥고 힘들었어서 앞으로는 다른 호텔 이용하려고 합니다.</t>
+          <t>10월1일부터 연휴에 이용한 제일 따끈한 후기임.
+가기전 안좋은 리뷰 많이 봤는데.일단 만족함.
+아이들이 있어서 청결부분이 젤 중요했는데.
+나쁘지 않았고.엘베이용도 그렇게 늦지 않았고.주차도 타워지하에 세우고 다니기 좋을정도로 위치가 최고임.
+뷰는 말할것도 없이 바로앞이라 최고.
+다만. 전기이용이 자꾸 전기가 나가서 충전이 되지않아 화장실에서 전기를 썻고.
+화장실이 너무 작았음.
+침구추가를 했는데.대리석같은바닥에 까는 이불이 너무 얇아 그냥 바닥에서 자는거나 다름없음.
+같은이불2일쓰는데 하루당 2만원 받음.
+방안에 있는 키오스크 배달음식은 양에비해 너무 비싸나
+엄청빨리옴.
+다음에 또 이용할 의사 100퍼 있음!!!</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>2024.08.19</t>
+          <t>2024.10.04</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>야경 좋고 해운대가 훤히 보이는 전망이 최고에요
-위치도 좋아서 주변에 먹거리 짱짱입니다</t>
+          <t>어메니티가 없다고 해서 다 챙겨가긴 했지만 ..! 샴푸랑 전부 다 없는 건 조금 불편하긴 했어요 ••• 전반적으로 나쁘지 않았구 잠만 자기 딱 좋은 거 같아요 ! 화장실이 조금 좁긴 했는데 깨끗해서 좋았어용</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>5점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>2024.08.15</t>
+          <t>2024.10.03</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>잘쉬고감다 잘놀다감다</t>
+          <t>뷰좋고 깨끗하고 잘쉬다갑니다</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -7843,106 +7917,102 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>2024.08.11</t>
+          <t>2024.10.03</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>이렇게 청결하지 못한 호텔은 처음입니다.  침구에 머리카락있고, 바닥에 모래있고, 침구에도 뭔가 냄새났어요. 화장실 거울,변기 얼룩있고요.. 타일 실리콘에 곰팡이가 가득했어요. 진짜 하루자는데 너무 찝찝했어요ㅠㅠ
-수건도 달랑 두장있는데 프론트에 말해야 딱 두장 더 받을 수 있었습니다. 살다살다 이런곳은 첨이네요 ㅋㅋㅋ다시는 안갈듯. 좋은 경험했다칠게요..</t>
+          <t>방도 아늑하고 뷰가 너무 좋아요 주변에 식당 놀거리도 많아요</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>1점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>2024.08.11</t>
+          <t>2024.10.02</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>’씨클라우드 호텔‘과는 운영 주체도 다르고 리셉션도 다릅니다. ‘씨클라우드 호텔’은 4층 리셉션, 씨클라우드 호텔 앤 레지던스’는 6층 리셉션입니다. 식사시간, 체크인/체크아웃 무렵에 엘리베이터가 엄청 밀립니다. 엘리베이터 때문이라도 고층 배정이 좋을 것 같습니다(저층의 경우 꽉 찬 엘리베이터를 계속 보내야 합니다).</t>
+          <t>솔직히 업체사진보고 가면 낚인 기분이예요.. 좀 더럽긴 해요..ㅜㅜ
+뷰 정말 최고이지만 방 컨디션 보는거라면 비추입니다..
+에어컨 다리쪽에 고정하려고 멈췄더니 찌든때에 놀랐고 화장실은 천장에는 니코틴 잔뜩 껴있고,, 곰팡이까지ㅜㅜ 화징실은 진짜 최악이였어요..
+뷰는 너무 좋고 직원분들도 너무 친절하신건 너무 좋았습니다!</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>2점</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>2024.08.10</t>
+          <t>2024.10.02</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>해운대해수욕장과 가까워 거리는 좋았으나 엘레베이터가 느리고 환승 해야하는 부분, 객실이 깨끗하진 않았던 점이 아쉽네요 에어컨에 먼지가 많았고 침구도 먼지가 많았어요 그래두 요청사항에 직원분께서 친절히 응대해주셔서 좋았습니다.</t>
+          <t>매번 이용하지만 위치가 최곱니다</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>2024.08.10</t>
+          <t>2024.10.02</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>1층에 cu, gs25편의점, 도보 2~3분 거리에 시장이 있어서 편하고 좋아요. 도로 건너편에 해운대 해수욕장 있어서 좋아요.
-숙소 들어서자마자 락스냄새 꾸릿뚜릿 심해요. 베게,이불, 수건에서 락스냄새 심해요.
-청결상태 중하.
-숙소안에 나방파리 엄청납니다 ㅠㅠ
-인원추가비용 없고 숙소예약시 인피니티풀이용권 제공을 이벤트처럼 제시하고선, 인원추가하니 수건/침구/물 등 모두 3인만 제공해주고요. 인피니티풀이용할거냐고 물어보고요(이용하든안하든 주기로했으면 당연 줘야하는거 아닌지..)
-건물내 정수기 없구요. 주차장이 지하1층~지하6층까지 있지만 자리가 좁습니다. 
-지금껏 이용해본 숙소 중 가장 좋지 않은 기억이네요.</t>
+          <t>시설은 무난했고 샤워부스가 좁긴한데 뷰가 너~~무 이뻐서 좋았어요 뷰 정말 환상적....</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>1점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>2024.08.10</t>
+          <t>2024.10.02</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>전체적으로 좋습니다.</t>
+          <t>뷰가정말좋았습니다❤</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>2024.08.08</t>
+          <t>2024.10.02</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>객실은 전반적으로 만족스러웠습니다...다만 객실 청소상태가 조금 불량이었습니다...</t>
+          <t>방 깔끔하고 뷰는 말할 필요 없이 좋아요</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -7952,190 +8022,168 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>2024.08.07</t>
+          <t>2024.10.01</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>숙소위치는 해운대바다랑 완전 가깝고 침대도 푹신해서 꿀잠잤어요. 다만 에어컨 필터 먼지가.. 엄청 두껍더라구요.. 침대 위에 있어서 더 잘보였어요. 엘베도 두번 환승하는게 불편해요</t>
+          <t>주변 사람에게 자주 추천하고 싶은 곳</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>2024.08.02</t>
+          <t>2024.10.01</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>전반적으로 괜찮은 편이었으나 살짝 아쉬운게 엘리베이터가 갈아타는게 쪼깨 불편했슴</t>
+          <t>오션뷰 너무 좋아요 ~~ 다움에도 또 이용하고파요</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>2024.08.01</t>
+          <t>2024.09.30</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>오션뷰 보고 예약한거라 뷰는 진짜 좋았어요! 근데 바닥에 커피같은? 갈색 액체가 떨어져있다던지 화장실 세면대에 털같은게 그대로 붙어있다던지 하는건 청소를 제대로 하시는건지 의심이 됩니다..오후 3시쯤에 체크인한다고 사람이 너무 몰려서 체크인은 되도록 3시 지나서 하시는거 추천드려요</t>
+          <t>뷰가 너무 좋았습니다 다만 방음이 잘 안 돼서 바깥소리가 많이 들립니다 ㅠ</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>4점</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>2024.08.01</t>
+          <t>2024.09.30</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>더한사진도 많습니다  머리카락은 기본이고 이불 베개에서는  쉰내나고 세면대에는 속눈썹인지뭔지 이물질이 있고 거울도 얼룩천지에 바닥에는 라면국물얼룩에 방을  바꿔주면서 생색내는 직원에...최악입니다  다신않가고 싶어요...청결  별1개도 아깝습니다..40만원가까이주고 돈아깝고 기분만 상합니다 절대로 안갑니다  여기는 5만원도 아까워여.....불결합니다</t>
+          <t>그냥저냥 나쁘지않게 자고왔어요</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>1점</t>
+          <t>3점</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>2024.08.01</t>
+          <t>2024.09.30</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>문을 열자마자 쉰내가 훅~~ 
-한동안 안쓴방이 아닐까 싶은 먼지가 가득
-침대가 3개였는데 한곳에서 나더라구요 
-연락해 커버를 교체해줬고 
-밖에 나갔다 다시 들어오니 
-그대로 쉰내가 훅~~ 
-에어컨 냄새까지 가세
-프론트에 연락을 했는데 안받아요 
-커버의 문제가 아니라 
-매트리스와 이불자체에서 나는 쉰내였어요 
-어렵게 엘베갈아타가며
-인포메이션으로 갔으나 직원이 없네요
-밖에 나갔다 들어올때도 없었구요 
-샤워기는 물이 아주 사방팔방으로 나오더라구요 신기했어요
-저런걸 샤워기라고 쓰라고 손님을 받을수 있는지
-진짜 여행 많이 다녀봤지만
-이렇게 더럽고 불편한 숙소는 20년전 중국여행후 처음이에요</t>
+          <t>뷰가 너무좋아요.엘레베이터는 조금 불편하네요</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>1점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>2024.08.01</t>
+          <t>2024.09.30</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>호텔로비 너무 덮고 승강기도 너무 불편햇어요</t>
+          <t>현관 센서 등이 밤마다 자동으로 켜지고, 화재 경보기가 새벽 1시에 울려서 몹시 당황스럽고 놀랐어용.. 기본 용품중에 가운이랑, 샴푸, 린스, 칫솔 등이 없어서 불편하였고 전망이랑 시설중에 키오스크, 전자레인지, 세탁기, 정수기가 있어서  좋았어용</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>2점</t>
+          <t>3점</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>2024.07.31</t>
+          <t>2024.09.28</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>엘베 갈아타는건 정말 번거롭다는 생각
-걱실은  음... 그냥 그럭저럭
-청결도는 솔직히 깜놀 이불에 음식울 자국있고
-베게는 냄새가 심해서 사용안함
-테이불 이랑 의자엔 모레가 있고 
-티비 책상이랑 바닥에 먼지가 좀있음
-하지만 뷰는  괜찮았고  직원들은 친절함</t>
+          <t>오션뷰 완전이뻐요 진짜 강추!! 객실도 깨끗하고 사장님도 친절하니 좋았어용 ㅎㅎㅎ</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>3점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>2024.07.31</t>
+          <t>2024.09.28</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>위치은 갑중의.갑
-대신 호텔이 커서 그런지 4층에서 6층 환승하는게 조금 불편</t>
+          <t>남친이랑 강아지랑 같이 같는데 깔끔하고 맘에 들어서 다음에 강아지랑 둘이서도 가보려고요 ㅎㅎㅎ</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>2024.07.29</t>
+          <t>2024.09.28</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>뷰와 위치는 아주 좋았습니다. 엘리베이터와 프론트 이용은 조금 불편하네요.</t>
+          <t>어메이티가 없어서 당황했어요 ! 이글을 읽으시는 분은 꼭 챙겨가시길 바래요!! 고객응대는 친철하셨어요
+풍경 뷰가 중요하시면 추천드리지만 모든것이 보통이어야한다면 비추천 드려요 ㅠㅠ 특히 청결상태가 좋지 않았어요 그리고 테라스에 의자와 테이블있다고 해서 선택한건데 테라스에는 의자만 있더라고요 여쭈어보니 태풍때문이라고 하시고 손님들이 자유롭게 테라스와 방에서 옮겨서 쓰는 거라고 해주셨지만 저희는 테이블 의자 방을 골라서 갔기 때문에  첫 세팅은 테라스에 테이블이 있어야한다고 생각합니다 ㅠㅠ 그날은 비도 안오고 날씨도 좋았아서 더 아쉽네요 그리고 사진처럼 감성적인 테이블과 의자는 없으니 기대하시지 마세요!! 게다가 저는 의자와 테이블이 같은 느낌의 제품도 아니어서 더 실망했습니다  앞에 유리도 불투명이어서 사진이 그렇게 이쁘게 나오지는 않는답니다</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>1점</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>2024.07.25</t>
+          <t>2024.09.28</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>너무 깔끔하고 좋아요~</t>
+          <t>방은 좀 작지만 깨끗하고 좋았어요</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -8145,15 +8193,14 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>2024.07.23</t>
+          <t>2024.09.27</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>위치가 좋으나
-건물노후도가 있습니다</t>
+          <t>안에도 깔금하고 좋습니다</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -8163,51 +8210,48 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>2024.07.23</t>
+          <t>2024.09.27</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>점 낡은 면이 있으나 숙박 및 위치는 만족함</t>
+          <t>테라스 창이 그렇게 깨끗하지 않아서 앉아서는 뷰를 못봐요.</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>3점</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>2024.07.22</t>
+          <t>2024.09.27</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>신기합니다.
-침대가 가로가 넓어요
-화장실 좁아요
-근데 방은 넓어요</t>
+          <t>매번이용하고잇는데좋네요</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>4점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>2024.07.21</t>
+          <t>2024.09.26</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>바로 앞에 해운대가 보여서 좋았어요 방이 깨끗하고 직원 분이 친절햐요</t>
+          <t>오션뷰 좋습니다. 그리고 숙소에서 편하게 먹을거 주문할 수 있는게 장점 같습니다.</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -8217,24 +8261,24 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>2024.07.21</t>
+          <t>2024.09.25</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>이불, 베개... 건조를 잘 해 주셔야 겠습니다.</t>
+          <t>너무너무 죠아용 ❤️ 다음에 또 올게용용</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>1점</t>
+          <t>5점</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>2024.07.20</t>
+          <t>2024.09.25</t>
         </is>
       </c>
     </row>
